--- a/RFL_Best_Buy.xlsx
+++ b/RFL_Best_Buy.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="4" r:id="rId1"/>
-    <sheet name="Test Metrics" sheetId="6" r:id="rId2"/>
+    <sheet name="MindMap" sheetId="7" r:id="rId2"/>
+    <sheet name="Test Metrics" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">TestCase!$J$17</definedName>
@@ -2246,86 +2247,23 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2333,6 +2271,69 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2844,6 +2845,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="7438380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3109,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC372"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5:G5"/>
     </sheetView>
@@ -3133,10 +3183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="263" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="263"/>
       <c r="C1" s="225" t="s">
         <v>181</v>
       </c>
@@ -3156,10 +3206,10 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="235" t="s">
+      <c r="L1" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="235"/>
+      <c r="M1" s="264"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -3178,10 +3228,10 @@
       <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="234"/>
+      <c r="B2" s="263"/>
       <c r="C2" s="9" t="s">
         <v>186</v>
       </c>
@@ -3226,10 +3276,10 @@
       <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="263" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="263"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
         <v>15</v>
@@ -3272,10 +3322,10 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="263"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
         <v>19</v>
@@ -3316,17 +3366,17 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" s="20" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="238" t="s">
+      <c r="B5" s="253"/>
+      <c r="C5" s="254" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3530,13 +3580,13 @@
       <c r="A10" s="47">
         <v>2</v>
       </c>
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="240" t="s">
+      <c r="C10" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="258" t="s">
+      <c r="D10" s="234" t="s">
         <v>198</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -3581,9 +3631,9 @@
       <c r="A11" s="47">
         <v>3</v>
       </c>
-      <c r="B11" s="239"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="259"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="235"/>
       <c r="E11" s="32" t="s">
         <v>190</v>
       </c>
@@ -3626,9 +3676,9 @@
       <c r="A12" s="47">
         <v>4</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="259"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="32" t="s">
         <v>48</v>
       </c>
@@ -3671,9 +3721,9 @@
       <c r="A13" s="47">
         <v>5</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="259"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="235"/>
       <c r="E13" s="32" t="s">
         <v>50</v>
       </c>
@@ -3716,9 +3766,9 @@
       <c r="A14" s="47">
         <v>6</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="259"/>
+      <c r="B14" s="255"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="235"/>
       <c r="E14" s="32" t="s">
         <v>52</v>
       </c>
@@ -3761,9 +3811,9 @@
       <c r="A15" s="47">
         <v>7</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="259"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="235"/>
       <c r="E15" s="32" t="s">
         <v>195</v>
       </c>
@@ -3806,9 +3856,9 @@
       <c r="A16" s="47">
         <v>8</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="259"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="235"/>
       <c r="E16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3851,9 +3901,9 @@
       <c r="A17" s="47">
         <v>9</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="259"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="235"/>
       <c r="E17" s="32" t="s">
         <v>56</v>
       </c>
@@ -3894,7 +3944,7 @@
     </row>
     <row r="18" spans="1:29" s="61" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
-      <c r="B18" s="239"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="227"/>
       <c r="D18" s="229"/>
       <c r="E18" s="228"/>
@@ -3927,11 +3977,11 @@
       <c r="A19" s="62">
         <v>10</v>
       </c>
-      <c r="B19" s="239"/>
-      <c r="C19" s="239" t="s">
+      <c r="B19" s="255"/>
+      <c r="C19" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="258" t="s">
+      <c r="D19" s="234" t="s">
         <v>187</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3976,9 +4026,9 @@
       <c r="A20" s="62">
         <v>11</v>
       </c>
-      <c r="B20" s="239"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="259"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="235"/>
       <c r="E20" s="63" t="s">
         <v>61</v>
       </c>
@@ -4021,9 +4071,9 @@
       <c r="A21" s="62">
         <v>12</v>
       </c>
-      <c r="B21" s="239"/>
-      <c r="C21" s="239"/>
-      <c r="D21" s="259"/>
+      <c r="B21" s="255"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="235"/>
       <c r="E21" s="71" t="s">
         <v>204</v>
       </c>
@@ -4066,9 +4116,9 @@
       <c r="A22" s="62">
         <v>13</v>
       </c>
-      <c r="B22" s="239"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="259"/>
+      <c r="B22" s="255"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="235"/>
       <c r="E22" s="71" t="s">
         <v>66</v>
       </c>
@@ -4111,9 +4161,9 @@
       <c r="A23" s="62">
         <v>14</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="259"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="235"/>
       <c r="E23" s="71" t="s">
         <v>68</v>
       </c>
@@ -4156,9 +4206,9 @@
       <c r="A24" s="62">
         <v>15</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="259"/>
+      <c r="B24" s="255"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="235"/>
       <c r="E24" s="63" t="s">
         <v>70</v>
       </c>
@@ -4203,9 +4253,9 @@
       <c r="A25" s="62">
         <v>16</v>
       </c>
-      <c r="B25" s="239"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="259"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="235"/>
       <c r="E25" s="63" t="s">
         <v>73</v>
       </c>
@@ -4250,9 +4300,9 @@
       <c r="A26" s="62">
         <v>17</v>
       </c>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="259"/>
+      <c r="B26" s="255"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="235"/>
       <c r="E26" s="63" t="s">
         <v>76</v>
       </c>
@@ -4297,9 +4347,9 @@
       <c r="A27" s="62">
         <v>18</v>
       </c>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="259"/>
+      <c r="B27" s="255"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="235"/>
       <c r="E27" s="63" t="s">
         <v>79</v>
       </c>
@@ -4342,9 +4392,9 @@
       <c r="A28" s="62">
         <v>19</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="259"/>
+      <c r="B28" s="255"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="235"/>
       <c r="E28" s="63" t="s">
         <v>81</v>
       </c>
@@ -4387,9 +4437,9 @@
       <c r="A29" s="62">
         <v>20</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="259"/>
+      <c r="B29" s="255"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="235"/>
       <c r="E29" s="63" t="s">
         <v>82</v>
       </c>
@@ -4432,9 +4482,9 @@
       <c r="A30" s="62">
         <v>21</v>
       </c>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="259"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="63" t="s">
         <v>84</v>
       </c>
@@ -4477,9 +4527,9 @@
       <c r="A31" s="62">
         <v>23</v>
       </c>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="259"/>
+      <c r="B31" s="255"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="235"/>
       <c r="E31" s="63" t="s">
         <v>86</v>
       </c>
@@ -4522,9 +4572,9 @@
       <c r="A32" s="62">
         <v>24</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="259"/>
+      <c r="B32" s="255"/>
+      <c r="C32" s="255"/>
+      <c r="D32" s="235"/>
       <c r="E32" s="71" t="s">
         <v>89</v>
       </c>
@@ -4567,9 +4617,9 @@
       <c r="A33" s="62">
         <v>25</v>
       </c>
-      <c r="B33" s="239"/>
-      <c r="C33" s="239"/>
-      <c r="D33" s="259"/>
+      <c r="B33" s="255"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="235"/>
       <c r="E33" s="71" t="s">
         <v>92</v>
       </c>
@@ -4612,9 +4662,9 @@
       <c r="A34" s="62">
         <v>26</v>
       </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="259"/>
+      <c r="B34" s="255"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="32" t="s">
         <v>93</v>
       </c>
@@ -4657,9 +4707,9 @@
       <c r="A35" s="62">
         <v>27</v>
       </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="259"/>
+      <c r="B35" s="255"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="235"/>
       <c r="E35" s="32" t="s">
         <v>96</v>
       </c>
@@ -4702,9 +4752,9 @@
       <c r="A36" s="62">
         <v>28</v>
       </c>
-      <c r="B36" s="239"/>
-      <c r="C36" s="239"/>
-      <c r="D36" s="259"/>
+      <c r="B36" s="255"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="235"/>
       <c r="E36" s="32" t="s">
         <v>98</v>
       </c>
@@ -4747,9 +4797,9 @@
       <c r="A37" s="62">
         <v>29</v>
       </c>
-      <c r="B37" s="239"/>
-      <c r="C37" s="239"/>
-      <c r="D37" s="259"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="235"/>
       <c r="E37" s="32" t="s">
         <v>101</v>
       </c>
@@ -4792,9 +4842,9 @@
       <c r="A38" s="62">
         <v>30</v>
       </c>
-      <c r="B38" s="239"/>
-      <c r="C38" s="239"/>
-      <c r="D38" s="259"/>
+      <c r="B38" s="255"/>
+      <c r="C38" s="255"/>
+      <c r="D38" s="235"/>
       <c r="E38" s="32" t="s">
         <v>103</v>
       </c>
@@ -4837,9 +4887,9 @@
       <c r="A39" s="62">
         <v>31</v>
       </c>
-      <c r="B39" s="239"/>
-      <c r="C39" s="239"/>
-      <c r="D39" s="259"/>
+      <c r="B39" s="255"/>
+      <c r="C39" s="255"/>
+      <c r="D39" s="235"/>
       <c r="E39" s="32" t="s">
         <v>105</v>
       </c>
@@ -4882,9 +4932,9 @@
       <c r="A40" s="62">
         <v>32</v>
       </c>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="259"/>
+      <c r="B40" s="255"/>
+      <c r="C40" s="255"/>
+      <c r="D40" s="235"/>
       <c r="E40" s="32" t="s">
         <v>107</v>
       </c>
@@ -4927,9 +4977,9 @@
       <c r="A41" s="62">
         <v>44</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="239"/>
-      <c r="D41" s="259"/>
+      <c r="B41" s="255"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="235"/>
       <c r="E41" s="64" t="s">
         <v>109</v>
       </c>
@@ -4972,9 +5022,9 @@
       <c r="A42" s="62">
         <v>45</v>
       </c>
-      <c r="B42" s="239"/>
-      <c r="C42" s="239"/>
-      <c r="D42" s="259"/>
+      <c r="B42" s="255"/>
+      <c r="C42" s="255"/>
+      <c r="D42" s="235"/>
       <c r="E42" s="64" t="s">
         <v>111</v>
       </c>
@@ -5015,9 +5065,9 @@
     </row>
     <row r="43" spans="1:29" s="79" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="75"/>
-      <c r="B43" s="239"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="259"/>
+      <c r="D43" s="235"/>
       <c r="E43" s="77"/>
       <c r="F43" s="55"/>
       <c r="G43" s="55"/>
@@ -5048,11 +5098,11 @@
       <c r="A44" s="62">
         <v>48</v>
       </c>
-      <c r="B44" s="239"/>
-      <c r="C44" s="239" t="s">
+      <c r="B44" s="255"/>
+      <c r="C44" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="259"/>
+      <c r="D44" s="235"/>
       <c r="E44" s="71" t="s">
         <v>113</v>
       </c>
@@ -5095,9 +5145,9 @@
       <c r="A45" s="62">
         <v>49</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="259"/>
+      <c r="B45" s="255"/>
+      <c r="C45" s="255"/>
+      <c r="D45" s="235"/>
       <c r="E45" s="80" t="s">
         <v>117</v>
       </c>
@@ -5140,9 +5190,9 @@
       <c r="A46" s="62">
         <v>50</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="260"/>
+      <c r="B46" s="255"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="236"/>
       <c r="E46" s="80" t="s">
         <v>120</v>
       </c>
@@ -5183,7 +5233,7 @@
     </row>
     <row r="47" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="231"/>
-      <c r="B47" s="239"/>
+      <c r="B47" s="255"/>
       <c r="C47" s="81"/>
       <c r="D47" s="82"/>
       <c r="E47" s="83"/>
@@ -5216,11 +5266,11 @@
       <c r="A48" s="62">
         <v>51</v>
       </c>
-      <c r="B48" s="239"/>
-      <c r="C48" s="241" t="s">
+      <c r="B48" s="255"/>
+      <c r="C48" s="257" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="241" t="s">
+      <c r="D48" s="257" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="64" t="s">
@@ -5265,9 +5315,9 @@
       <c r="A49" s="62">
         <v>52</v>
       </c>
-      <c r="B49" s="239"/>
-      <c r="C49" s="241"/>
-      <c r="D49" s="241"/>
+      <c r="B49" s="255"/>
+      <c r="C49" s="257"/>
+      <c r="D49" s="257"/>
       <c r="E49" s="71" t="s">
         <v>127</v>
       </c>
@@ -5310,9 +5360,9 @@
       <c r="A50" s="62">
         <v>53</v>
       </c>
-      <c r="B50" s="239"/>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="257"/>
       <c r="E50" s="71" t="s">
         <v>128</v>
       </c>
@@ -5355,9 +5405,9 @@
       <c r="A51" s="62">
         <v>54</v>
       </c>
-      <c r="B51" s="239"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="241"/>
+      <c r="B51" s="255"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="257"/>
       <c r="E51" s="71" t="s">
         <v>130</v>
       </c>
@@ -5400,9 +5450,9 @@
       <c r="A52" s="62">
         <v>55</v>
       </c>
-      <c r="B52" s="239"/>
-      <c r="C52" s="241"/>
-      <c r="D52" s="241"/>
+      <c r="B52" s="255"/>
+      <c r="C52" s="257"/>
+      <c r="D52" s="257"/>
       <c r="E52" s="71" t="s">
         <v>132</v>
       </c>
@@ -5445,9 +5495,9 @@
       <c r="A53" s="62">
         <v>56</v>
       </c>
-      <c r="B53" s="239"/>
-      <c r="C53" s="241"/>
-      <c r="D53" s="241"/>
+      <c r="B53" s="255"/>
+      <c r="C53" s="257"/>
+      <c r="D53" s="257"/>
       <c r="E53" s="49" t="s">
         <v>134</v>
       </c>
@@ -5490,9 +5540,9 @@
       <c r="A54" s="62">
         <v>57</v>
       </c>
-      <c r="B54" s="239"/>
-      <c r="C54" s="241"/>
-      <c r="D54" s="241"/>
+      <c r="B54" s="255"/>
+      <c r="C54" s="257"/>
+      <c r="D54" s="257"/>
       <c r="E54" s="71" t="s">
         <v>137</v>
       </c>
@@ -5535,9 +5585,9 @@
       <c r="A55" s="62">
         <v>58</v>
       </c>
-      <c r="B55" s="239"/>
-      <c r="C55" s="241"/>
-      <c r="D55" s="241"/>
+      <c r="B55" s="255"/>
+      <c r="C55" s="257"/>
+      <c r="D55" s="257"/>
       <c r="E55" s="71" t="s">
         <v>139</v>
       </c>
@@ -5580,9 +5630,9 @@
       <c r="A56" s="62">
         <v>59</v>
       </c>
-      <c r="B56" s="239"/>
-      <c r="C56" s="241"/>
-      <c r="D56" s="241"/>
+      <c r="B56" s="255"/>
+      <c r="C56" s="257"/>
+      <c r="D56" s="257"/>
       <c r="E56" s="71" t="s">
         <v>141</v>
       </c>
@@ -5625,9 +5675,9 @@
       <c r="A57" s="62">
         <v>60</v>
       </c>
-      <c r="B57" s="239"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
+      <c r="B57" s="255"/>
+      <c r="C57" s="257"/>
+      <c r="D57" s="257"/>
       <c r="E57" s="71" t="s">
         <v>144</v>
       </c>
@@ -5670,9 +5720,9 @@
       <c r="A58" s="62">
         <v>61</v>
       </c>
-      <c r="B58" s="239"/>
-      <c r="C58" s="241"/>
-      <c r="D58" s="241"/>
+      <c r="B58" s="255"/>
+      <c r="C58" s="257"/>
+      <c r="D58" s="257"/>
       <c r="E58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5715,9 +5765,9 @@
       <c r="A59" s="62">
         <v>62</v>
       </c>
-      <c r="B59" s="239"/>
-      <c r="C59" s="241"/>
-      <c r="D59" s="241"/>
+      <c r="B59" s="255"/>
+      <c r="C59" s="257"/>
+      <c r="D59" s="257"/>
       <c r="E59" s="71" t="s">
         <v>148</v>
       </c>
@@ -5758,7 +5808,7 @@
     </row>
     <row r="60" spans="1:29" s="79" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="75"/>
-      <c r="B60" s="239"/>
+      <c r="B60" s="255"/>
       <c r="C60" s="90"/>
       <c r="D60" s="91"/>
       <c r="E60" s="92"/>
@@ -5789,9 +5839,9 @@
     </row>
     <row r="61" spans="1:29" s="69" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="62"/>
-      <c r="B61" s="239"/>
-      <c r="C61" s="262"/>
-      <c r="D61" s="242" t="s">
+      <c r="B61" s="255"/>
+      <c r="C61" s="241"/>
+      <c r="D61" s="258" t="s">
         <v>150</v>
       </c>
       <c r="E61" s="71" t="s">
@@ -5824,9 +5874,9 @@
     </row>
     <row r="62" spans="1:29" s="69" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="62"/>
-      <c r="B62" s="239"/>
-      <c r="C62" s="263"/>
-      <c r="D62" s="242"/>
+      <c r="B62" s="255"/>
+      <c r="C62" s="242"/>
+      <c r="D62" s="258"/>
       <c r="E62" s="71" t="s">
         <v>152</v>
       </c>
@@ -5857,9 +5907,9 @@
     </row>
     <row r="63" spans="1:29" s="69" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="62"/>
-      <c r="B63" s="239"/>
-      <c r="C63" s="263"/>
-      <c r="D63" s="242"/>
+      <c r="B63" s="255"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="258"/>
       <c r="E63" s="64" t="s">
         <v>153</v>
       </c>
@@ -5890,9 +5940,9 @@
     </row>
     <row r="64" spans="1:29" s="69" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="62"/>
-      <c r="B64" s="239"/>
-      <c r="C64" s="264"/>
-      <c r="D64" s="242"/>
+      <c r="B64" s="255"/>
+      <c r="C64" s="243"/>
+      <c r="D64" s="258"/>
       <c r="E64" s="64" t="s">
         <v>154</v>
       </c>
@@ -5923,7 +5973,7 @@
     </row>
     <row r="65" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="62"/>
-      <c r="B65" s="239"/>
+      <c r="B65" s="255"/>
       <c r="C65" s="230"/>
       <c r="D65" s="95"/>
       <c r="E65" s="96"/>
@@ -5954,7 +6004,7 @@
     </row>
     <row r="66" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="97"/>
-      <c r="B66" s="239"/>
+      <c r="B66" s="255"/>
       <c r="C66" s="94"/>
       <c r="D66" s="95"/>
       <c r="E66" s="96"/>
@@ -5985,7 +6035,7 @@
     </row>
     <row r="67" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="97"/>
-      <c r="B67" s="239"/>
+      <c r="B67" s="255"/>
       <c r="C67" s="94"/>
       <c r="D67" s="95"/>
       <c r="E67" s="98"/>
@@ -6016,7 +6066,7 @@
     </row>
     <row r="68" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="97"/>
-      <c r="B68" s="239"/>
+      <c r="B68" s="255"/>
       <c r="C68" s="94"/>
       <c r="D68" s="95"/>
       <c r="E68" s="98"/>
@@ -6047,7 +6097,7 @@
     </row>
     <row r="69" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="97"/>
-      <c r="B69" s="239"/>
+      <c r="B69" s="255"/>
       <c r="C69" s="94"/>
       <c r="D69" s="95"/>
       <c r="E69" s="98"/>
@@ -6078,7 +6128,7 @@
     </row>
     <row r="70" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="97"/>
-      <c r="B70" s="239"/>
+      <c r="B70" s="255"/>
       <c r="C70" s="94"/>
       <c r="D70" s="95"/>
       <c r="E70" s="98"/>
@@ -6109,7 +6159,7 @@
     </row>
     <row r="71" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="97"/>
-      <c r="B71" s="239"/>
+      <c r="B71" s="255"/>
       <c r="C71" s="94"/>
       <c r="D71" s="99"/>
       <c r="E71" s="98"/>
@@ -6140,9 +6190,9 @@
     </row>
     <row r="72" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="97"/>
-      <c r="B72" s="239"/>
+      <c r="B72" s="255"/>
       <c r="C72" s="94"/>
-      <c r="D72" s="243"/>
+      <c r="D72" s="259"/>
       <c r="E72" s="98"/>
       <c r="F72" s="47"/>
       <c r="G72" s="64"/>
@@ -6171,9 +6221,9 @@
     </row>
     <row r="73" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="97"/>
-      <c r="B73" s="239"/>
+      <c r="B73" s="255"/>
       <c r="C73" s="94"/>
-      <c r="D73" s="243"/>
+      <c r="D73" s="259"/>
       <c r="E73" s="98"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
@@ -6202,9 +6252,9 @@
     </row>
     <row r="74" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="97"/>
-      <c r="B74" s="239"/>
+      <c r="B74" s="255"/>
       <c r="C74" s="94"/>
-      <c r="D74" s="243"/>
+      <c r="D74" s="259"/>
       <c r="E74" s="100"/>
       <c r="F74" s="32"/>
       <c r="G74" s="64"/>
@@ -6233,9 +6283,9 @@
     </row>
     <row r="75" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="97"/>
-      <c r="B75" s="239"/>
+      <c r="B75" s="255"/>
       <c r="C75" s="94"/>
-      <c r="D75" s="243"/>
+      <c r="D75" s="259"/>
       <c r="E75" s="100"/>
       <c r="F75" s="32"/>
       <c r="G75" s="64"/>
@@ -6264,9 +6314,9 @@
     </row>
     <row r="76" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="97"/>
-      <c r="B76" s="239"/>
+      <c r="B76" s="255"/>
       <c r="C76" s="94"/>
-      <c r="D76" s="243"/>
+      <c r="D76" s="259"/>
       <c r="E76" s="100"/>
       <c r="F76" s="32"/>
       <c r="G76" s="64"/>
@@ -6295,7 +6345,7 @@
     </row>
     <row r="77" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="97"/>
-      <c r="B77" s="239"/>
+      <c r="B77" s="255"/>
       <c r="C77" s="94"/>
       <c r="D77" s="101"/>
       <c r="E77" s="102"/>
@@ -6326,9 +6376,9 @@
     </row>
     <row r="78" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="97"/>
-      <c r="B78" s="239"/>
+      <c r="B78" s="255"/>
       <c r="C78" s="94"/>
-      <c r="D78" s="243"/>
+      <c r="D78" s="259"/>
       <c r="E78" s="96"/>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
@@ -6357,9 +6407,9 @@
     </row>
     <row r="79" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="97"/>
-      <c r="B79" s="239"/>
+      <c r="B79" s="255"/>
       <c r="C79" s="94"/>
-      <c r="D79" s="243"/>
+      <c r="D79" s="259"/>
       <c r="E79" s="96"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -6388,7 +6438,7 @@
     </row>
     <row r="80" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="97"/>
-      <c r="B80" s="239"/>
+      <c r="B80" s="255"/>
       <c r="C80" s="94"/>
       <c r="D80" s="103"/>
       <c r="E80" s="98"/>
@@ -6419,9 +6469,9 @@
     </row>
     <row r="81" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="97"/>
-      <c r="B81" s="239"/>
+      <c r="B81" s="255"/>
       <c r="C81" s="94"/>
-      <c r="D81" s="244"/>
+      <c r="D81" s="260"/>
       <c r="E81" s="98"/>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
@@ -6450,9 +6500,9 @@
     </row>
     <row r="82" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="97"/>
-      <c r="B82" s="239"/>
+      <c r="B82" s="255"/>
       <c r="C82" s="94"/>
-      <c r="D82" s="244"/>
+      <c r="D82" s="260"/>
       <c r="E82" s="98"/>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
@@ -6481,9 +6531,9 @@
     </row>
     <row r="83" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="97"/>
-      <c r="B83" s="239"/>
+      <c r="B83" s="255"/>
       <c r="C83" s="94"/>
-      <c r="D83" s="244"/>
+      <c r="D83" s="260"/>
       <c r="E83" s="100"/>
       <c r="F83" s="32"/>
       <c r="G83" s="64"/>
@@ -6512,9 +6562,9 @@
     </row>
     <row r="84" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="97"/>
-      <c r="B84" s="239"/>
+      <c r="B84" s="255"/>
       <c r="C84" s="94"/>
-      <c r="D84" s="244"/>
+      <c r="D84" s="260"/>
       <c r="E84" s="96"/>
       <c r="F84" s="64"/>
       <c r="G84" s="64"/>
@@ -6543,9 +6593,9 @@
     </row>
     <row r="85" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="97"/>
-      <c r="B85" s="239"/>
+      <c r="B85" s="255"/>
       <c r="C85" s="94"/>
-      <c r="D85" s="244"/>
+      <c r="D85" s="260"/>
       <c r="E85" s="96"/>
       <c r="F85" s="64"/>
       <c r="G85" s="64"/>
@@ -6574,9 +6624,9 @@
     </row>
     <row r="86" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="97"/>
-      <c r="B86" s="239"/>
+      <c r="B86" s="255"/>
       <c r="C86" s="94"/>
-      <c r="D86" s="244"/>
+      <c r="D86" s="260"/>
       <c r="E86" s="98"/>
       <c r="F86" s="64"/>
       <c r="G86" s="64"/>
@@ -6605,9 +6655,9 @@
     </row>
     <row r="87" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="97"/>
-      <c r="B87" s="239"/>
+      <c r="B87" s="255"/>
       <c r="C87" s="94"/>
-      <c r="D87" s="244"/>
+      <c r="D87" s="260"/>
       <c r="E87" s="98"/>
       <c r="F87" s="64"/>
       <c r="G87" s="64"/>
@@ -6636,9 +6686,9 @@
     </row>
     <row r="88" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="97"/>
-      <c r="B88" s="239"/>
+      <c r="B88" s="255"/>
       <c r="C88" s="94"/>
-      <c r="D88" s="244"/>
+      <c r="D88" s="260"/>
       <c r="E88" s="98"/>
       <c r="F88" s="64"/>
       <c r="G88" s="64"/>
@@ -6667,9 +6717,9 @@
     </row>
     <row r="89" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="97"/>
-      <c r="B89" s="239"/>
+      <c r="B89" s="255"/>
       <c r="C89" s="94"/>
-      <c r="D89" s="244"/>
+      <c r="D89" s="260"/>
       <c r="E89" s="100"/>
       <c r="F89" s="32"/>
       <c r="G89" s="64"/>
@@ -6698,9 +6748,9 @@
     </row>
     <row r="90" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="97"/>
-      <c r="B90" s="239"/>
+      <c r="B90" s="255"/>
       <c r="C90" s="94"/>
-      <c r="D90" s="244"/>
+      <c r="D90" s="260"/>
       <c r="E90" s="102"/>
       <c r="F90" s="70"/>
       <c r="G90" s="70"/>
@@ -6729,9 +6779,9 @@
     </row>
     <row r="91" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="97"/>
-      <c r="B91" s="239"/>
+      <c r="B91" s="255"/>
       <c r="C91" s="94"/>
-      <c r="D91" s="244"/>
+      <c r="D91" s="260"/>
       <c r="E91" s="96"/>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
@@ -6760,7 +6810,7 @@
     </row>
     <row r="92" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="97"/>
-      <c r="B92" s="239"/>
+      <c r="B92" s="255"/>
       <c r="C92" s="94"/>
       <c r="D92" s="103"/>
       <c r="E92" s="96"/>
@@ -6791,9 +6841,9 @@
     </row>
     <row r="93" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="97"/>
-      <c r="B93" s="239"/>
+      <c r="B93" s="255"/>
       <c r="C93" s="94"/>
-      <c r="D93" s="245"/>
+      <c r="D93" s="261"/>
       <c r="E93" s="98"/>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
@@ -6822,9 +6872,9 @@
     </row>
     <row r="94" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="97"/>
-      <c r="B94" s="239"/>
+      <c r="B94" s="255"/>
       <c r="C94" s="94"/>
-      <c r="D94" s="245"/>
+      <c r="D94" s="261"/>
       <c r="E94" s="98"/>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
@@ -6853,9 +6903,9 @@
     </row>
     <row r="95" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="97"/>
-      <c r="B95" s="239"/>
+      <c r="B95" s="255"/>
       <c r="C95" s="94"/>
-      <c r="D95" s="245"/>
+      <c r="D95" s="261"/>
       <c r="E95" s="98"/>
       <c r="F95" s="64"/>
       <c r="G95" s="64"/>
@@ -6884,9 +6934,9 @@
     </row>
     <row r="96" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="97"/>
-      <c r="B96" s="239"/>
+      <c r="B96" s="255"/>
       <c r="C96" s="94"/>
-      <c r="D96" s="245"/>
+      <c r="D96" s="261"/>
       <c r="E96" s="100"/>
       <c r="F96" s="32"/>
       <c r="G96" s="64"/>
@@ -6915,9 +6965,9 @@
     </row>
     <row r="97" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="105"/>
-      <c r="B97" s="239"/>
+      <c r="B97" s="255"/>
       <c r="C97" s="106"/>
-      <c r="D97" s="245"/>
+      <c r="D97" s="261"/>
       <c r="E97" s="107"/>
       <c r="F97" s="108"/>
       <c r="G97" s="108"/>
@@ -6946,9 +6996,9 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="112"/>
-      <c r="B98" s="239"/>
+      <c r="B98" s="255"/>
       <c r="C98" s="106"/>
-      <c r="D98" s="245"/>
+      <c r="D98" s="261"/>
       <c r="E98" s="113"/>
       <c r="F98" s="114"/>
       <c r="G98" s="115"/>
@@ -6977,9 +7027,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="112"/>
-      <c r="B99" s="239"/>
+      <c r="B99" s="255"/>
       <c r="C99" s="106"/>
-      <c r="D99" s="245"/>
+      <c r="D99" s="261"/>
       <c r="E99" s="120"/>
       <c r="F99" s="121"/>
       <c r="G99" s="121"/>
@@ -7008,9 +7058,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="112"/>
-      <c r="B100" s="239"/>
+      <c r="B100" s="255"/>
       <c r="C100" s="106"/>
-      <c r="D100" s="245"/>
+      <c r="D100" s="261"/>
       <c r="E100" s="120"/>
       <c r="F100" s="121"/>
       <c r="G100" s="121"/>
@@ -7039,9 +7089,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="112"/>
-      <c r="B101" s="239"/>
+      <c r="B101" s="255"/>
       <c r="C101" s="106"/>
-      <c r="D101" s="245"/>
+      <c r="D101" s="261"/>
       <c r="E101" s="124"/>
       <c r="F101" s="121"/>
       <c r="G101" s="121"/>
@@ -7070,9 +7120,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="112"/>
-      <c r="B102" s="239"/>
+      <c r="B102" s="255"/>
       <c r="C102" s="106"/>
-      <c r="D102" s="245"/>
+      <c r="D102" s="261"/>
       <c r="E102" s="125"/>
       <c r="F102" s="114"/>
       <c r="G102" s="115"/>
@@ -7101,7 +7151,7 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="112"/>
-      <c r="B103" s="239"/>
+      <c r="B103" s="255"/>
       <c r="C103" s="106"/>
       <c r="D103" s="126"/>
       <c r="E103" s="113"/>
@@ -7132,9 +7182,9 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="112"/>
-      <c r="B104" s="239"/>
+      <c r="B104" s="255"/>
       <c r="C104" s="106"/>
-      <c r="D104" s="246"/>
+      <c r="D104" s="262"/>
       <c r="E104" s="127"/>
       <c r="F104" s="114"/>
       <c r="G104" s="115"/>
@@ -7163,9 +7213,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="112"/>
-      <c r="B105" s="239"/>
+      <c r="B105" s="255"/>
       <c r="C105" s="106"/>
-      <c r="D105" s="246"/>
+      <c r="D105" s="262"/>
       <c r="E105" s="129"/>
       <c r="F105" s="121"/>
       <c r="G105" s="121"/>
@@ -7194,7 +7244,7 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="112"/>
-      <c r="B106" s="239"/>
+      <c r="B106" s="255"/>
       <c r="C106" s="106"/>
       <c r="D106" s="2"/>
       <c r="E106" s="130"/>
@@ -7225,9 +7275,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="112"/>
-      <c r="B107" s="239"/>
+      <c r="B107" s="255"/>
       <c r="C107" s="106"/>
-      <c r="D107" s="250"/>
+      <c r="D107" s="249"/>
       <c r="E107" s="129"/>
       <c r="F107" s="121"/>
       <c r="G107" s="121"/>
@@ -7256,9 +7306,9 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="112"/>
-      <c r="B108" s="239"/>
+      <c r="B108" s="255"/>
       <c r="C108" s="106"/>
-      <c r="D108" s="250"/>
+      <c r="D108" s="249"/>
       <c r="E108" s="127"/>
       <c r="F108" s="121"/>
       <c r="G108" s="121"/>
@@ -7287,9 +7337,9 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="112"/>
-      <c r="B109" s="239"/>
+      <c r="B109" s="255"/>
       <c r="C109" s="106"/>
-      <c r="D109" s="250"/>
+      <c r="D109" s="249"/>
       <c r="E109" s="129"/>
       <c r="F109" s="121"/>
       <c r="G109" s="121"/>
@@ -7318,9 +7368,9 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="112"/>
-      <c r="B110" s="239"/>
+      <c r="B110" s="255"/>
       <c r="C110" s="106"/>
-      <c r="D110" s="250"/>
+      <c r="D110" s="249"/>
       <c r="E110" s="127"/>
       <c r="F110" s="114"/>
       <c r="G110" s="115"/>
@@ -7349,9 +7399,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="112"/>
-      <c r="B111" s="239"/>
+      <c r="B111" s="255"/>
       <c r="C111" s="106"/>
-      <c r="D111" s="250"/>
+      <c r="D111" s="249"/>
       <c r="E111" s="131"/>
       <c r="F111" s="132"/>
       <c r="G111" s="123"/>
@@ -7380,9 +7430,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="112"/>
-      <c r="B112" s="239"/>
+      <c r="B112" s="255"/>
       <c r="C112" s="106"/>
-      <c r="D112" s="250"/>
+      <c r="D112" s="249"/>
       <c r="E112" s="127"/>
       <c r="F112" s="133"/>
       <c r="G112" s="115"/>
@@ -7411,9 +7461,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="112"/>
-      <c r="B113" s="239"/>
+      <c r="B113" s="255"/>
       <c r="C113" s="106"/>
-      <c r="D113" s="250"/>
+      <c r="D113" s="249"/>
       <c r="E113" s="131"/>
       <c r="F113" s="134"/>
       <c r="G113" s="123"/>
@@ -7442,7 +7492,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="112"/>
-      <c r="B114" s="239"/>
+      <c r="B114" s="255"/>
       <c r="C114" s="106"/>
       <c r="D114" s="135"/>
       <c r="E114" s="131"/>
@@ -7473,9 +7523,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="112"/>
-      <c r="B115" s="239"/>
+      <c r="B115" s="255"/>
       <c r="C115" s="106"/>
-      <c r="D115" s="251"/>
+      <c r="D115" s="250"/>
       <c r="E115" s="136"/>
       <c r="F115" s="137"/>
       <c r="G115" s="123"/>
@@ -7504,9 +7554,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="112"/>
-      <c r="B116" s="239"/>
+      <c r="B116" s="255"/>
       <c r="C116" s="106"/>
-      <c r="D116" s="251"/>
+      <c r="D116" s="250"/>
       <c r="E116" s="131"/>
       <c r="F116" s="137"/>
       <c r="G116" s="123"/>
@@ -7535,9 +7585,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="112"/>
-      <c r="B117" s="239"/>
+      <c r="B117" s="255"/>
       <c r="C117" s="106"/>
-      <c r="D117" s="251"/>
+      <c r="D117" s="250"/>
       <c r="E117" s="138"/>
       <c r="F117" s="128"/>
       <c r="G117" s="128"/>
@@ -7566,9 +7616,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="112"/>
-      <c r="B118" s="239"/>
+      <c r="B118" s="255"/>
       <c r="C118" s="106"/>
-      <c r="D118" s="251"/>
+      <c r="D118" s="250"/>
       <c r="E118" s="138"/>
       <c r="F118" s="128"/>
       <c r="G118" s="128"/>
@@ -7597,9 +7647,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="112"/>
-      <c r="B119" s="239"/>
+      <c r="B119" s="255"/>
       <c r="C119" s="106"/>
-      <c r="D119" s="251"/>
+      <c r="D119" s="250"/>
       <c r="E119" s="138"/>
       <c r="F119" s="128"/>
       <c r="G119" s="128"/>
@@ -7628,9 +7678,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="112"/>
-      <c r="B120" s="239"/>
+      <c r="B120" s="255"/>
       <c r="C120" s="106"/>
-      <c r="D120" s="251"/>
+      <c r="D120" s="250"/>
       <c r="E120" s="138"/>
       <c r="F120" s="128"/>
       <c r="G120" s="128"/>
@@ -7659,9 +7709,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="112"/>
-      <c r="B121" s="239"/>
+      <c r="B121" s="255"/>
       <c r="C121" s="106"/>
-      <c r="D121" s="251"/>
+      <c r="D121" s="250"/>
       <c r="E121" s="138"/>
       <c r="F121" s="128"/>
       <c r="G121" s="128"/>
@@ -7690,9 +7740,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="112"/>
-      <c r="B122" s="239"/>
+      <c r="B122" s="255"/>
       <c r="C122" s="106"/>
-      <c r="D122" s="251"/>
+      <c r="D122" s="250"/>
       <c r="E122" s="138"/>
       <c r="F122" s="128"/>
       <c r="G122" s="128"/>
@@ -7721,9 +7771,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="112"/>
-      <c r="B123" s="239"/>
+      <c r="B123" s="255"/>
       <c r="C123" s="106"/>
-      <c r="D123" s="251"/>
+      <c r="D123" s="250"/>
       <c r="E123" s="138"/>
       <c r="F123" s="128"/>
       <c r="G123" s="128"/>
@@ -7752,7 +7802,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="112"/>
-      <c r="B124" s="239"/>
+      <c r="B124" s="255"/>
       <c r="C124" s="139"/>
       <c r="D124" s="140"/>
       <c r="E124" s="138"/>
@@ -7783,7 +7833,7 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="112"/>
-      <c r="B125" s="239"/>
+      <c r="B125" s="255"/>
       <c r="C125" s="141"/>
       <c r="D125" s="140"/>
       <c r="E125" s="138"/>
@@ -7814,7 +7864,7 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="112"/>
-      <c r="B126" s="239"/>
+      <c r="B126" s="255"/>
       <c r="C126" s="141"/>
       <c r="D126" s="142"/>
       <c r="E126" s="138"/>
@@ -7845,9 +7895,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="112"/>
-      <c r="B127" s="239"/>
+      <c r="B127" s="255"/>
       <c r="C127" s="141"/>
-      <c r="D127" s="252"/>
+      <c r="D127" s="251"/>
       <c r="E127" s="143"/>
       <c r="F127" s="128"/>
       <c r="G127" s="128"/>
@@ -7876,9 +7926,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="112"/>
-      <c r="B128" s="239"/>
+      <c r="B128" s="255"/>
       <c r="C128" s="141"/>
-      <c r="D128" s="252"/>
+      <c r="D128" s="251"/>
       <c r="E128" s="143"/>
       <c r="F128" s="128"/>
       <c r="G128" s="128"/>
@@ -7907,7 +7957,7 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="112"/>
-      <c r="B129" s="239"/>
+      <c r="B129" s="255"/>
       <c r="C129" s="141"/>
       <c r="D129" s="144"/>
       <c r="E129" s="138"/>
@@ -7938,7 +7988,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="112"/>
-      <c r="B130" s="239"/>
+      <c r="B130" s="255"/>
       <c r="C130" s="141"/>
       <c r="D130" s="145"/>
       <c r="E130" s="138"/>
@@ -7969,7 +8019,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="112"/>
-      <c r="B131" s="239"/>
+      <c r="B131" s="255"/>
       <c r="C131" s="141"/>
       <c r="D131" s="145"/>
       <c r="E131" s="146"/>
@@ -8000,7 +8050,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="112"/>
-      <c r="B132" s="239"/>
+      <c r="B132" s="255"/>
       <c r="C132" s="141"/>
       <c r="D132" s="145"/>
       <c r="E132" s="138"/>
@@ -8031,7 +8081,7 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="112"/>
-      <c r="B133" s="239"/>
+      <c r="B133" s="255"/>
       <c r="C133" s="141"/>
       <c r="D133" s="145"/>
       <c r="E133" s="138"/>
@@ -8062,7 +8112,7 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="112"/>
-      <c r="B134" s="239"/>
+      <c r="B134" s="255"/>
       <c r="C134" s="141"/>
       <c r="D134" s="145"/>
       <c r="E134" s="138"/>
@@ -8093,7 +8143,7 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="112"/>
-      <c r="B135" s="239"/>
+      <c r="B135" s="255"/>
       <c r="C135" s="141"/>
       <c r="D135" s="145"/>
       <c r="E135" s="138"/>
@@ -8124,7 +8174,7 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="112"/>
-      <c r="B136" s="239"/>
+      <c r="B136" s="255"/>
       <c r="C136" s="141"/>
       <c r="D136" s="145"/>
       <c r="E136" s="146"/>
@@ -8155,7 +8205,7 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="112"/>
-      <c r="B137" s="239"/>
+      <c r="B137" s="255"/>
       <c r="C137" s="141"/>
       <c r="D137" s="145"/>
       <c r="E137" s="146"/>
@@ -8186,7 +8236,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="112"/>
-      <c r="B138" s="239"/>
+      <c r="B138" s="255"/>
       <c r="C138" s="141"/>
       <c r="D138" s="145"/>
       <c r="E138" s="146"/>
@@ -8217,7 +8267,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="112"/>
-      <c r="B139" s="239"/>
+      <c r="B139" s="255"/>
       <c r="C139" s="141"/>
       <c r="D139" s="145"/>
       <c r="E139" s="138"/>
@@ -8248,7 +8298,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="112"/>
-      <c r="B140" s="239"/>
+      <c r="B140" s="255"/>
       <c r="C140" s="141"/>
       <c r="D140" s="145"/>
       <c r="E140" s="138"/>
@@ -8279,7 +8329,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="112"/>
-      <c r="B141" s="239"/>
+      <c r="B141" s="255"/>
       <c r="C141" s="141"/>
       <c r="D141" s="145"/>
       <c r="E141" s="138"/>
@@ -8310,7 +8360,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="112"/>
-      <c r="B142" s="239"/>
+      <c r="B142" s="255"/>
       <c r="C142" s="141"/>
       <c r="D142" s="145"/>
       <c r="E142" s="138"/>
@@ -8341,7 +8391,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="112"/>
-      <c r="B143" s="239"/>
+      <c r="B143" s="255"/>
       <c r="C143" s="141"/>
       <c r="D143" s="145"/>
       <c r="E143" s="138"/>
@@ -8372,7 +8422,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="112"/>
-      <c r="B144" s="239"/>
+      <c r="B144" s="255"/>
       <c r="C144" s="141"/>
       <c r="D144" s="145"/>
       <c r="E144" s="138"/>
@@ -8403,7 +8453,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="151"/>
-      <c r="B145" s="239"/>
+      <c r="B145" s="255"/>
       <c r="C145" s="141"/>
       <c r="D145" s="152"/>
       <c r="E145" s="153"/>
@@ -8434,7 +8484,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="151"/>
-      <c r="B146" s="239"/>
+      <c r="B146" s="255"/>
       <c r="C146" s="141"/>
       <c r="D146" s="154"/>
       <c r="E146" s="138"/>
@@ -8465,7 +8515,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="151"/>
-      <c r="B147" s="239"/>
+      <c r="B147" s="255"/>
       <c r="C147" s="141"/>
       <c r="D147" s="154"/>
       <c r="E147" s="138"/>
@@ -8496,7 +8546,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="151"/>
-      <c r="B148" s="239"/>
+      <c r="B148" s="255"/>
       <c r="C148" s="141"/>
       <c r="D148" s="154"/>
       <c r="E148" s="155"/>
@@ -8527,7 +8577,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="151"/>
-      <c r="B149" s="239"/>
+      <c r="B149" s="255"/>
       <c r="C149" s="141"/>
       <c r="D149" s="154"/>
       <c r="E149" s="156"/>
@@ -8558,7 +8608,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="151"/>
-      <c r="B150" s="239"/>
+      <c r="B150" s="255"/>
       <c r="C150" s="141"/>
       <c r="D150" s="154"/>
       <c r="E150" s="156"/>
@@ -8589,7 +8639,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="151"/>
-      <c r="B151" s="239"/>
+      <c r="B151" s="255"/>
       <c r="C151" s="141"/>
       <c r="D151" s="154"/>
       <c r="E151" s="156"/>
@@ -8620,7 +8670,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="151"/>
-      <c r="B152" s="239"/>
+      <c r="B152" s="255"/>
       <c r="C152" s="141"/>
       <c r="D152" s="154"/>
       <c r="E152" s="156"/>
@@ -8651,7 +8701,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="151"/>
-      <c r="B153" s="239"/>
+      <c r="B153" s="255"/>
       <c r="C153" s="141"/>
       <c r="D153" s="154"/>
       <c r="E153" s="138"/>
@@ -8682,7 +8732,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="151"/>
-      <c r="B154" s="239"/>
+      <c r="B154" s="255"/>
       <c r="C154" s="141"/>
       <c r="D154" s="154"/>
       <c r="E154" s="138"/>
@@ -8713,7 +8763,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="151"/>
-      <c r="B155" s="239"/>
+      <c r="B155" s="255"/>
       <c r="C155" s="141"/>
       <c r="D155" s="154"/>
       <c r="E155" s="138"/>
@@ -8744,7 +8794,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="151"/>
-      <c r="B156" s="239"/>
+      <c r="B156" s="255"/>
       <c r="C156" s="141"/>
       <c r="D156" s="154"/>
       <c r="E156" s="138"/>
@@ -8775,7 +8825,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="151"/>
-      <c r="B157" s="239"/>
+      <c r="B157" s="255"/>
       <c r="C157" s="141"/>
       <c r="D157" s="154"/>
       <c r="E157" s="153"/>
@@ -8806,7 +8856,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="151"/>
-      <c r="B158" s="239"/>
+      <c r="B158" s="255"/>
       <c r="C158" s="141"/>
       <c r="D158" s="157"/>
       <c r="E158" s="158"/>
@@ -8837,7 +8887,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="151"/>
-      <c r="B159" s="239"/>
+      <c r="B159" s="255"/>
       <c r="C159" s="141"/>
       <c r="D159" s="159"/>
       <c r="E159" s="153"/>
@@ -8868,9 +8918,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="151"/>
-      <c r="B160" s="239"/>
+      <c r="B160" s="255"/>
       <c r="C160" s="141"/>
-      <c r="D160" s="253"/>
+      <c r="D160" s="252"/>
       <c r="E160" s="138"/>
       <c r="F160" s="128"/>
       <c r="G160" s="128"/>
@@ -8879,7 +8929,7 @@
       <c r="J160" s="128"/>
       <c r="K160" s="128"/>
       <c r="L160" s="118"/>
-      <c r="M160" s="236"/>
+      <c r="M160" s="247"/>
       <c r="N160" s="119"/>
       <c r="O160" s="119"/>
       <c r="P160" s="119"/>
@@ -8899,9 +8949,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="112"/>
-      <c r="B161" s="239"/>
+      <c r="B161" s="255"/>
       <c r="C161" s="141"/>
-      <c r="D161" s="253"/>
+      <c r="D161" s="252"/>
       <c r="E161" s="138"/>
       <c r="F161" s="128"/>
       <c r="G161" s="128"/>
@@ -8910,7 +8960,7 @@
       <c r="J161" s="128"/>
       <c r="K161" s="128"/>
       <c r="L161" s="118"/>
-      <c r="M161" s="236"/>
+      <c r="M161" s="247"/>
       <c r="N161" s="119"/>
       <c r="O161" s="119"/>
       <c r="P161" s="119"/>
@@ -8930,9 +8980,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="112"/>
-      <c r="B162" s="239"/>
+      <c r="B162" s="255"/>
       <c r="C162" s="141"/>
-      <c r="D162" s="253"/>
+      <c r="D162" s="252"/>
       <c r="E162" s="155"/>
       <c r="F162" s="128"/>
       <c r="G162" s="128"/>
@@ -8941,7 +8991,7 @@
       <c r="J162" s="128"/>
       <c r="K162" s="128"/>
       <c r="L162" s="118"/>
-      <c r="M162" s="236"/>
+      <c r="M162" s="247"/>
       <c r="N162" s="119"/>
       <c r="O162" s="119"/>
       <c r="P162" s="119"/>
@@ -8961,9 +9011,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="112"/>
-      <c r="B163" s="239"/>
+      <c r="B163" s="255"/>
       <c r="C163" s="141"/>
-      <c r="D163" s="253"/>
+      <c r="D163" s="252"/>
       <c r="E163" s="156"/>
       <c r="F163" s="128"/>
       <c r="G163" s="128"/>
@@ -8972,7 +9022,7 @@
       <c r="J163" s="128"/>
       <c r="K163" s="128"/>
       <c r="L163" s="118"/>
-      <c r="M163" s="236"/>
+      <c r="M163" s="247"/>
       <c r="N163" s="119"/>
       <c r="O163" s="119"/>
       <c r="P163" s="119"/>
@@ -8992,9 +9042,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="112"/>
-      <c r="B164" s="239"/>
+      <c r="B164" s="255"/>
       <c r="C164" s="141"/>
-      <c r="D164" s="253"/>
+      <c r="D164" s="252"/>
       <c r="E164" s="156"/>
       <c r="F164" s="128"/>
       <c r="G164" s="128"/>
@@ -9003,7 +9053,7 @@
       <c r="J164" s="128"/>
       <c r="K164" s="128"/>
       <c r="L164" s="118"/>
-      <c r="M164" s="236"/>
+      <c r="M164" s="247"/>
       <c r="N164" s="119"/>
       <c r="O164" s="119"/>
       <c r="P164" s="119"/>
@@ -9023,9 +9073,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="112"/>
-      <c r="B165" s="239"/>
+      <c r="B165" s="255"/>
       <c r="C165" s="141"/>
-      <c r="D165" s="253"/>
+      <c r="D165" s="252"/>
       <c r="E165" s="156"/>
       <c r="F165" s="128"/>
       <c r="G165" s="128"/>
@@ -9034,7 +9084,7 @@
       <c r="J165" s="128"/>
       <c r="K165" s="128"/>
       <c r="L165" s="118"/>
-      <c r="M165" s="236"/>
+      <c r="M165" s="247"/>
       <c r="N165" s="119"/>
       <c r="O165" s="119"/>
       <c r="P165" s="119"/>
@@ -9054,9 +9104,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="112"/>
-      <c r="B166" s="239"/>
+      <c r="B166" s="255"/>
       <c r="C166" s="141"/>
-      <c r="D166" s="253"/>
+      <c r="D166" s="252"/>
       <c r="E166" s="156"/>
       <c r="F166" s="128"/>
       <c r="G166" s="128"/>
@@ -9065,7 +9115,7 @@
       <c r="J166" s="128"/>
       <c r="K166" s="128"/>
       <c r="L166" s="118"/>
-      <c r="M166" s="236"/>
+      <c r="M166" s="247"/>
       <c r="N166" s="119"/>
       <c r="O166" s="119"/>
       <c r="P166" s="119"/>
@@ -9085,9 +9135,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="112"/>
-      <c r="B167" s="239"/>
+      <c r="B167" s="255"/>
       <c r="C167" s="141"/>
-      <c r="D167" s="253"/>
+      <c r="D167" s="252"/>
       <c r="E167" s="138"/>
       <c r="F167" s="128"/>
       <c r="G167" s="128"/>
@@ -9096,7 +9146,7 @@
       <c r="J167" s="128"/>
       <c r="K167" s="128"/>
       <c r="L167" s="118"/>
-      <c r="M167" s="236"/>
+      <c r="M167" s="247"/>
       <c r="N167" s="119"/>
       <c r="O167" s="119"/>
       <c r="P167" s="119"/>
@@ -9116,9 +9166,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="112"/>
-      <c r="B168" s="239"/>
+      <c r="B168" s="255"/>
       <c r="C168" s="141"/>
-      <c r="D168" s="253"/>
+      <c r="D168" s="252"/>
       <c r="E168" s="138"/>
       <c r="F168" s="128"/>
       <c r="G168" s="128"/>
@@ -9147,9 +9197,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="112"/>
-      <c r="B169" s="239"/>
+      <c r="B169" s="255"/>
       <c r="C169" s="141"/>
-      <c r="D169" s="253"/>
+      <c r="D169" s="252"/>
       <c r="E169" s="138"/>
       <c r="F169" s="128"/>
       <c r="G169" s="128"/>
@@ -9178,9 +9228,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="112"/>
-      <c r="B170" s="239"/>
+      <c r="B170" s="255"/>
       <c r="C170" s="141"/>
-      <c r="D170" s="253"/>
+      <c r="D170" s="252"/>
       <c r="E170" s="138"/>
       <c r="F170" s="128"/>
       <c r="G170" s="128"/>
@@ -9244,7 +9294,7 @@
       <c r="C172" s="162" t="s">
         <v>155</v>
       </c>
-      <c r="D172" s="261"/>
+      <c r="D172" s="240"/>
       <c r="E172" s="138"/>
       <c r="F172" s="128"/>
       <c r="G172" s="150"/>
@@ -9275,7 +9325,7 @@
       <c r="A173" s="160"/>
       <c r="B173" s="159"/>
       <c r="C173" s="164"/>
-      <c r="D173" s="261"/>
+      <c r="D173" s="240"/>
       <c r="E173" s="138"/>
       <c r="F173" s="128"/>
       <c r="G173" s="150"/>
@@ -9306,7 +9356,7 @@
       <c r="A174" s="160"/>
       <c r="B174" s="159"/>
       <c r="C174" s="164"/>
-      <c r="D174" s="261"/>
+      <c r="D174" s="240"/>
       <c r="E174" s="138"/>
       <c r="F174" s="128"/>
       <c r="G174" s="150"/>
@@ -9337,7 +9387,7 @@
       <c r="A175" s="160"/>
       <c r="B175" s="159"/>
       <c r="C175" s="159"/>
-      <c r="D175" s="261"/>
+      <c r="D175" s="240"/>
       <c r="E175" s="146"/>
       <c r="F175" s="128"/>
       <c r="G175" s="150"/>
@@ -9368,7 +9418,7 @@
       <c r="A176" s="160"/>
       <c r="B176" s="163"/>
       <c r="C176" s="159"/>
-      <c r="D176" s="261"/>
+      <c r="D176" s="240"/>
       <c r="E176" s="146"/>
       <c r="F176" s="128"/>
       <c r="G176" s="150"/>
@@ -9399,7 +9449,7 @@
       <c r="A177" s="160"/>
       <c r="B177" s="163"/>
       <c r="C177" s="159"/>
-      <c r="D177" s="261"/>
+      <c r="D177" s="240"/>
       <c r="E177" s="146"/>
       <c r="F177" s="128"/>
       <c r="G177" s="150"/>
@@ -9430,7 +9480,7 @@
       <c r="A178" s="160"/>
       <c r="B178" s="163"/>
       <c r="C178" s="159"/>
-      <c r="D178" s="261"/>
+      <c r="D178" s="240"/>
       <c r="E178" s="138"/>
       <c r="F178" s="128"/>
       <c r="G178" s="150"/>
@@ -9461,7 +9511,7 @@
       <c r="A179" s="160"/>
       <c r="B179" s="163"/>
       <c r="C179" s="159"/>
-      <c r="D179" s="261"/>
+      <c r="D179" s="240"/>
       <c r="E179" s="138"/>
       <c r="F179" s="128"/>
       <c r="G179" s="150"/>
@@ -9492,7 +9542,7 @@
       <c r="A180" s="160"/>
       <c r="B180" s="163"/>
       <c r="C180" s="163"/>
-      <c r="D180" s="261"/>
+      <c r="D180" s="240"/>
       <c r="E180" s="138"/>
       <c r="F180" s="128"/>
       <c r="G180" s="150"/>
@@ -10832,8 +10882,8 @@
       <c r="H223" s="184"/>
       <c r="I223" s="184"/>
       <c r="J223" s="184"/>
-      <c r="K223" s="247"/>
-      <c r="L223" s="236"/>
+      <c r="K223" s="245"/>
+      <c r="L223" s="247"/>
       <c r="M223" s="179"/>
       <c r="N223" s="119"/>
       <c r="O223" s="119"/>
@@ -10863,8 +10913,8 @@
       <c r="H224" s="185"/>
       <c r="I224" s="185"/>
       <c r="J224" s="185"/>
-      <c r="K224" s="247"/>
-      <c r="L224" s="236"/>
+      <c r="K224" s="245"/>
+      <c r="L224" s="247"/>
       <c r="M224" s="179"/>
       <c r="N224" s="119"/>
       <c r="O224" s="119"/>
@@ -10894,8 +10944,8 @@
       <c r="H225" s="108"/>
       <c r="I225" s="108"/>
       <c r="J225" s="108"/>
-      <c r="K225" s="247"/>
-      <c r="L225" s="236"/>
+      <c r="K225" s="245"/>
+      <c r="L225" s="247"/>
       <c r="M225" s="179"/>
       <c r="N225" s="119"/>
       <c r="O225" s="119"/>
@@ -11103,9 +11153,9 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="160"/>
       <c r="B232" s="171"/>
-      <c r="C232" s="248"/>
+      <c r="C232" s="237"/>
       <c r="D232" s="159"/>
-      <c r="E232" s="249"/>
+      <c r="E232" s="248"/>
       <c r="F232" s="121"/>
       <c r="G232" s="121"/>
       <c r="H232" s="121"/>
@@ -11134,9 +11184,9 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="160"/>
       <c r="B233" s="171"/>
-      <c r="C233" s="248"/>
+      <c r="C233" s="237"/>
       <c r="D233" s="159"/>
-      <c r="E233" s="249"/>
+      <c r="E233" s="248"/>
       <c r="F233" s="121"/>
       <c r="G233" s="121"/>
       <c r="H233" s="121"/>
@@ -11165,9 +11215,9 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="160"/>
       <c r="B234" s="171"/>
-      <c r="C234" s="248"/>
+      <c r="C234" s="237"/>
       <c r="D234" s="159"/>
-      <c r="E234" s="249"/>
+      <c r="E234" s="248"/>
       <c r="F234" s="121"/>
       <c r="G234" s="121"/>
       <c r="H234" s="121"/>
@@ -11196,7 +11246,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="160"/>
       <c r="B235" s="171"/>
-      <c r="C235" s="248"/>
+      <c r="C235" s="237"/>
       <c r="D235" s="159"/>
       <c r="E235" s="129"/>
       <c r="F235" s="121"/>
@@ -11227,7 +11277,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="160"/>
       <c r="B236" s="171"/>
-      <c r="C236" s="248"/>
+      <c r="C236" s="237"/>
       <c r="D236" s="159"/>
       <c r="E236" s="129"/>
       <c r="F236" s="121"/>
@@ -11258,7 +11308,7 @@
     <row r="237" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="160"/>
       <c r="B237" s="171"/>
-      <c r="C237" s="248"/>
+      <c r="C237" s="237"/>
       <c r="D237" s="159"/>
       <c r="E237" s="129"/>
       <c r="F237" s="182"/>
@@ -11289,7 +11339,7 @@
     <row r="238" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="160"/>
       <c r="B238" s="171"/>
-      <c r="C238" s="248"/>
+      <c r="C238" s="237"/>
       <c r="D238" s="159"/>
       <c r="E238" s="129"/>
       <c r="F238" s="121"/>
@@ -11320,7 +11370,7 @@
     <row r="239" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="160"/>
       <c r="B239" s="171"/>
-      <c r="C239" s="254"/>
+      <c r="C239" s="238"/>
       <c r="D239" s="169"/>
       <c r="E239" s="129"/>
       <c r="F239" s="182"/>
@@ -11351,7 +11401,7 @@
     <row r="240" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="160"/>
       <c r="B240" s="171"/>
-      <c r="C240" s="254"/>
+      <c r="C240" s="238"/>
       <c r="D240" s="190"/>
       <c r="E240" s="129"/>
       <c r="F240" s="182"/>
@@ -11413,7 +11463,7 @@
     <row r="242" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="160"/>
       <c r="B242" s="171"/>
-      <c r="C242" s="254"/>
+      <c r="C242" s="238"/>
       <c r="D242" s="169"/>
       <c r="E242" s="129"/>
       <c r="F242" s="121"/>
@@ -11444,7 +11494,7 @@
     <row r="243" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="160"/>
       <c r="B243" s="171"/>
-      <c r="C243" s="254"/>
+      <c r="C243" s="238"/>
       <c r="D243" s="170"/>
       <c r="E243" s="129"/>
       <c r="F243" s="121"/>
@@ -11475,7 +11525,7 @@
     <row r="244" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="160"/>
       <c r="B244" s="171"/>
-      <c r="C244" s="254"/>
+      <c r="C244" s="238"/>
       <c r="D244" s="170"/>
       <c r="E244" s="129"/>
       <c r="F244" s="121"/>
@@ -11506,7 +11556,7 @@
     <row r="245" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="160"/>
       <c r="B245" s="171"/>
-      <c r="C245" s="254"/>
+      <c r="C245" s="238"/>
       <c r="D245" s="170"/>
       <c r="E245" s="129"/>
       <c r="F245" s="182"/>
@@ -11537,7 +11587,7 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="160"/>
       <c r="B246" s="171"/>
-      <c r="C246" s="254"/>
+      <c r="C246" s="238"/>
       <c r="D246" s="170"/>
       <c r="E246" s="192"/>
       <c r="F246" s="121"/>
@@ -11917,7 +11967,7 @@
       <c r="H258" s="182"/>
       <c r="I258" s="182"/>
       <c r="J258" s="182"/>
-      <c r="K258" s="255"/>
+      <c r="K258" s="244"/>
       <c r="L258" s="118"/>
       <c r="M258" s="148"/>
       <c r="N258" s="119"/>
@@ -11948,7 +11998,7 @@
       <c r="H259" s="182"/>
       <c r="I259" s="182"/>
       <c r="J259" s="182"/>
-      <c r="K259" s="255"/>
+      <c r="K259" s="244"/>
       <c r="L259" s="118"/>
       <c r="M259" s="148"/>
       <c r="N259" s="119"/>
@@ -12033,7 +12083,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="160"/>
       <c r="B262" s="171"/>
-      <c r="C262" s="254"/>
+      <c r="C262" s="238"/>
       <c r="D262" s="169"/>
       <c r="E262" s="129"/>
       <c r="F262" s="182"/>
@@ -12041,7 +12091,7 @@
       <c r="H262" s="182"/>
       <c r="I262" s="182"/>
       <c r="J262" s="182"/>
-      <c r="K262" s="247"/>
+      <c r="K262" s="245"/>
       <c r="L262" s="118"/>
       <c r="M262" s="148"/>
       <c r="N262" s="119"/>
@@ -12064,7 +12114,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="160"/>
       <c r="B263" s="171"/>
-      <c r="C263" s="254"/>
+      <c r="C263" s="238"/>
       <c r="D263" s="190"/>
       <c r="E263" s="129"/>
       <c r="F263" s="182"/>
@@ -12072,7 +12122,7 @@
       <c r="H263" s="182"/>
       <c r="I263" s="182"/>
       <c r="J263" s="182"/>
-      <c r="K263" s="247"/>
+      <c r="K263" s="245"/>
       <c r="L263" s="118"/>
       <c r="M263" s="148"/>
       <c r="N263" s="119"/>
@@ -12095,7 +12145,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="160"/>
       <c r="B264" s="171"/>
-      <c r="C264" s="248"/>
+      <c r="C264" s="237"/>
       <c r="D264" s="183"/>
       <c r="E264" s="146"/>
       <c r="F264" s="128"/>
@@ -12126,7 +12176,7 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="160"/>
       <c r="B265" s="171"/>
-      <c r="C265" s="248"/>
+      <c r="C265" s="237"/>
       <c r="D265" s="144"/>
       <c r="E265" s="146"/>
       <c r="F265" s="128"/>
@@ -12188,7 +12238,7 @@
     <row r="267" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="160"/>
       <c r="B267" s="171"/>
-      <c r="C267" s="254"/>
+      <c r="C267" s="238"/>
       <c r="D267" s="169"/>
       <c r="E267" s="146"/>
       <c r="F267" s="128"/>
@@ -12219,7 +12269,7 @@
     <row r="268" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="160"/>
       <c r="B268" s="171"/>
-      <c r="C268" s="254"/>
+      <c r="C268" s="238"/>
       <c r="D268" s="170"/>
       <c r="E268" s="146"/>
       <c r="F268" s="128"/>
@@ -12250,7 +12300,7 @@
     <row r="269" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="160"/>
       <c r="B269" s="171"/>
-      <c r="C269" s="254"/>
+      <c r="C269" s="238"/>
       <c r="D269" s="190"/>
       <c r="E269" s="146"/>
       <c r="F269" s="128"/>
@@ -12435,10 +12485,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="166"/>
-      <c r="B275" s="256"/>
-      <c r="C275" s="248"/>
+      <c r="B275" s="239"/>
+      <c r="C275" s="237"/>
       <c r="D275" s="159"/>
-      <c r="E275" s="248"/>
+      <c r="E275" s="237"/>
       <c r="F275" s="121"/>
       <c r="G275" s="121"/>
       <c r="H275" s="121"/>
@@ -12466,10 +12516,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="166"/>
-      <c r="B276" s="256"/>
-      <c r="C276" s="256"/>
+      <c r="B276" s="239"/>
+      <c r="C276" s="239"/>
       <c r="D276" s="159"/>
-      <c r="E276" s="248"/>
+      <c r="E276" s="237"/>
       <c r="F276" s="121"/>
       <c r="G276" s="121"/>
       <c r="H276" s="121"/>
@@ -12497,10 +12547,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="166"/>
-      <c r="B277" s="256"/>
-      <c r="C277" s="256"/>
+      <c r="B277" s="239"/>
+      <c r="C277" s="239"/>
       <c r="D277" s="159"/>
-      <c r="E277" s="248"/>
+      <c r="E277" s="237"/>
       <c r="F277" s="121"/>
       <c r="G277" s="121"/>
       <c r="H277" s="121"/>
@@ -12528,10 +12578,10 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="166"/>
-      <c r="B278" s="256"/>
-      <c r="C278" s="256"/>
+      <c r="B278" s="239"/>
+      <c r="C278" s="239"/>
       <c r="D278" s="159"/>
-      <c r="E278" s="248"/>
+      <c r="E278" s="237"/>
       <c r="F278" s="121"/>
       <c r="G278" s="121"/>
       <c r="H278" s="121"/>
@@ -12559,10 +12609,10 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="166"/>
-      <c r="B279" s="256"/>
-      <c r="C279" s="256"/>
+      <c r="B279" s="239"/>
+      <c r="C279" s="239"/>
       <c r="D279" s="159"/>
-      <c r="E279" s="248"/>
+      <c r="E279" s="237"/>
       <c r="F279" s="121"/>
       <c r="G279" s="121"/>
       <c r="H279" s="121"/>
@@ -12590,10 +12640,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="166"/>
-      <c r="B280" s="256"/>
-      <c r="C280" s="256"/>
+      <c r="B280" s="239"/>
+      <c r="C280" s="239"/>
       <c r="D280" s="159"/>
-      <c r="E280" s="248"/>
+      <c r="E280" s="237"/>
       <c r="F280" s="182"/>
       <c r="G280" s="182"/>
       <c r="H280" s="182"/>
@@ -12621,10 +12671,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="166"/>
-      <c r="B281" s="256"/>
-      <c r="C281" s="256"/>
+      <c r="B281" s="239"/>
+      <c r="C281" s="239"/>
       <c r="D281" s="159"/>
-      <c r="E281" s="248"/>
+      <c r="E281" s="237"/>
       <c r="F281" s="121"/>
       <c r="G281" s="121"/>
       <c r="H281" s="121"/>
@@ -12652,10 +12702,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="166"/>
-      <c r="B282" s="256"/>
-      <c r="C282" s="256"/>
+      <c r="B282" s="239"/>
+      <c r="C282" s="239"/>
       <c r="D282" s="159"/>
-      <c r="E282" s="248"/>
+      <c r="E282" s="237"/>
       <c r="F282" s="121"/>
       <c r="G282" s="121"/>
       <c r="H282" s="121"/>
@@ -12683,8 +12733,8 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="166"/>
-      <c r="B283" s="256"/>
-      <c r="C283" s="256"/>
+      <c r="B283" s="239"/>
+      <c r="C283" s="239"/>
       <c r="D283" s="159"/>
       <c r="E283" s="163"/>
       <c r="F283" s="117"/>
@@ -12714,8 +12764,8 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="166"/>
-      <c r="B284" s="256"/>
-      <c r="C284" s="256"/>
+      <c r="B284" s="239"/>
+      <c r="C284" s="239"/>
       <c r="D284" s="159"/>
       <c r="E284" s="163"/>
       <c r="F284" s="118"/>
@@ -12745,10 +12795,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="166"/>
-      <c r="B285" s="256"/>
-      <c r="C285" s="256"/>
+      <c r="B285" s="239"/>
+      <c r="C285" s="239"/>
       <c r="D285" s="183"/>
-      <c r="E285" s="248"/>
+      <c r="E285" s="237"/>
       <c r="F285" s="128"/>
       <c r="G285" s="128"/>
       <c r="H285" s="128"/>
@@ -12776,10 +12826,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="166"/>
-      <c r="B286" s="256"/>
-      <c r="C286" s="256"/>
+      <c r="B286" s="239"/>
+      <c r="C286" s="239"/>
       <c r="D286" s="206"/>
-      <c r="E286" s="248"/>
+      <c r="E286" s="237"/>
       <c r="F286" s="118"/>
       <c r="G286" s="118"/>
       <c r="H286" s="118"/>
@@ -12807,10 +12857,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="166"/>
-      <c r="B287" s="256"/>
-      <c r="C287" s="256"/>
+      <c r="B287" s="239"/>
+      <c r="C287" s="239"/>
       <c r="D287" s="206"/>
-      <c r="E287" s="248"/>
+      <c r="E287" s="237"/>
       <c r="F287" s="118"/>
       <c r="G287" s="118"/>
       <c r="H287" s="118"/>
@@ -12838,10 +12888,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="166"/>
-      <c r="B288" s="256"/>
-      <c r="C288" s="248"/>
+      <c r="B288" s="239"/>
+      <c r="C288" s="237"/>
       <c r="D288" s="144"/>
-      <c r="E288" s="248"/>
+      <c r="E288" s="237"/>
       <c r="F288" s="118"/>
       <c r="G288" s="118"/>
       <c r="H288" s="118"/>
@@ -12869,7 +12919,7 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="166"/>
-      <c r="B289" s="256"/>
+      <c r="B289" s="239"/>
       <c r="C289" s="159"/>
       <c r="D289" s="206"/>
       <c r="E289" s="206"/>
@@ -12900,10 +12950,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="166"/>
-      <c r="B290" s="256"/>
-      <c r="C290" s="248"/>
+      <c r="B290" s="239"/>
+      <c r="C290" s="237"/>
       <c r="D290" s="183"/>
-      <c r="E290" s="257"/>
+      <c r="E290" s="246"/>
       <c r="F290" s="128"/>
       <c r="G290" s="128"/>
       <c r="H290" s="128"/>
@@ -12931,10 +12981,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="166"/>
-      <c r="B291" s="256"/>
-      <c r="C291" s="256"/>
+      <c r="B291" s="239"/>
+      <c r="C291" s="239"/>
       <c r="D291" s="144"/>
-      <c r="E291" s="257"/>
+      <c r="E291" s="246"/>
       <c r="F291" s="128"/>
       <c r="G291" s="128"/>
       <c r="H291" s="128"/>
@@ -12962,10 +13012,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="166"/>
-      <c r="B292" s="256"/>
-      <c r="C292" s="256"/>
+      <c r="B292" s="239"/>
+      <c r="C292" s="239"/>
       <c r="D292" s="159"/>
-      <c r="E292" s="257"/>
+      <c r="E292" s="246"/>
       <c r="F292" s="128"/>
       <c r="G292" s="128"/>
       <c r="H292" s="128"/>
@@ -12993,10 +13043,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="166"/>
-      <c r="B293" s="256"/>
-      <c r="C293" s="248"/>
+      <c r="B293" s="239"/>
+      <c r="C293" s="237"/>
       <c r="D293" s="159"/>
-      <c r="E293" s="257"/>
+      <c r="E293" s="246"/>
       <c r="F293" s="128"/>
       <c r="G293" s="128"/>
       <c r="H293" s="128"/>
@@ -13024,7 +13074,7 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="166"/>
-      <c r="B294" s="256"/>
+      <c r="B294" s="239"/>
       <c r="C294" s="163"/>
       <c r="D294" s="163"/>
       <c r="E294" s="166"/>
@@ -13055,10 +13105,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="166"/>
-      <c r="B295" s="256"/>
-      <c r="C295" s="248"/>
+      <c r="B295" s="239"/>
+      <c r="C295" s="237"/>
       <c r="D295" s="183"/>
-      <c r="E295" s="248"/>
+      <c r="E295" s="237"/>
       <c r="F295" s="128"/>
       <c r="G295" s="128"/>
       <c r="H295" s="128"/>
@@ -13086,10 +13136,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="166"/>
-      <c r="B296" s="256"/>
-      <c r="C296" s="256"/>
+      <c r="B296" s="239"/>
+      <c r="C296" s="239"/>
       <c r="D296" s="206"/>
-      <c r="E296" s="248"/>
+      <c r="E296" s="237"/>
       <c r="F296" s="128"/>
       <c r="G296" s="128"/>
       <c r="H296" s="128"/>
@@ -13117,10 +13167,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="166"/>
-      <c r="B297" s="256"/>
-      <c r="C297" s="256"/>
+      <c r="B297" s="239"/>
+      <c r="C297" s="239"/>
       <c r="D297" s="206"/>
-      <c r="E297" s="248"/>
+      <c r="E297" s="237"/>
       <c r="F297" s="128"/>
       <c r="G297" s="128"/>
       <c r="H297" s="128"/>
@@ -13148,10 +13198,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="166"/>
-      <c r="B298" s="256"/>
-      <c r="C298" s="256"/>
+      <c r="B298" s="239"/>
+      <c r="C298" s="239"/>
       <c r="D298" s="206"/>
-      <c r="E298" s="248"/>
+      <c r="E298" s="237"/>
       <c r="F298" s="128"/>
       <c r="G298" s="128"/>
       <c r="H298" s="128"/>
@@ -13179,10 +13229,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="166"/>
-      <c r="B299" s="256"/>
-      <c r="C299" s="256"/>
+      <c r="B299" s="239"/>
+      <c r="C299" s="239"/>
       <c r="D299" s="206"/>
-      <c r="E299" s="248"/>
+      <c r="E299" s="237"/>
       <c r="F299" s="121"/>
       <c r="G299" s="121"/>
       <c r="H299" s="121"/>
@@ -13210,10 +13260,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="166"/>
-      <c r="B300" s="256"/>
-      <c r="C300" s="256"/>
+      <c r="B300" s="239"/>
+      <c r="C300" s="239"/>
       <c r="D300" s="144"/>
-      <c r="E300" s="248"/>
+      <c r="E300" s="237"/>
       <c r="F300" s="121"/>
       <c r="G300" s="121"/>
       <c r="H300" s="121"/>
@@ -13241,10 +13291,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="166"/>
-      <c r="B301" s="256"/>
-      <c r="C301" s="256"/>
+      <c r="B301" s="239"/>
+      <c r="C301" s="239"/>
       <c r="D301" s="183"/>
-      <c r="E301" s="248"/>
+      <c r="E301" s="237"/>
       <c r="F301" s="128"/>
       <c r="G301" s="128"/>
       <c r="H301" s="128"/>
@@ -13272,10 +13322,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="166"/>
-      <c r="B302" s="256"/>
-      <c r="C302" s="256"/>
+      <c r="B302" s="239"/>
+      <c r="C302" s="239"/>
       <c r="D302" s="206"/>
-      <c r="E302" s="248"/>
+      <c r="E302" s="237"/>
       <c r="F302" s="118"/>
       <c r="G302" s="118"/>
       <c r="H302" s="118"/>
@@ -13303,10 +13353,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="166"/>
-      <c r="B303" s="256"/>
-      <c r="C303" s="256"/>
+      <c r="B303" s="239"/>
+      <c r="C303" s="239"/>
       <c r="D303" s="206"/>
-      <c r="E303" s="248"/>
+      <c r="E303" s="237"/>
       <c r="F303" s="118"/>
       <c r="G303" s="118"/>
       <c r="H303" s="118"/>
@@ -13334,10 +13384,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="166"/>
-      <c r="B304" s="256"/>
-      <c r="C304" s="256"/>
+      <c r="B304" s="239"/>
+      <c r="C304" s="239"/>
       <c r="D304" s="144"/>
-      <c r="E304" s="248"/>
+      <c r="E304" s="237"/>
       <c r="F304" s="118"/>
       <c r="G304" s="118"/>
       <c r="H304" s="118"/>
@@ -15473,34 +15523,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D19:D46"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="B275:B304"/>
-    <mergeCell ref="C275:C288"/>
-    <mergeCell ref="C295:C304"/>
-    <mergeCell ref="D172:D180"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="E295:E300"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="E275:E282"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="E290:E291"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="K223:K225"/>
-    <mergeCell ref="L223:L225"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D160:D170"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="M160:M167"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -15517,11 +15544,34 @@
     <mergeCell ref="D93:D102"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="D10:D17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K223:K225"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D160:D170"/>
+    <mergeCell ref="E295:E300"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="E275:E282"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="D19:D46"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="B275:B304"/>
+    <mergeCell ref="C275:C288"/>
+    <mergeCell ref="C295:C304"/>
+    <mergeCell ref="D172:D180"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <conditionalFormatting sqref="K206:K211 K213:K214 K251 K265:K274 L81:L91 L93:L96 L98:L102 L104:L105 L107:L111 L113 L115:L372 L48:L52 L58:L79 L19:L46">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
@@ -15850,6 +15900,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/RFL_Best_Buy.xlsx
+++ b/RFL_Best_Buy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="4" r:id="rId1"/>
@@ -2247,23 +2247,86 @@
     <xf numFmtId="0" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2271,69 +2334,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3159,9 +3159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC372"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3183,10 +3183,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="263"/>
+      <c r="B1" s="234"/>
       <c r="C1" s="225" t="s">
         <v>181</v>
       </c>
@@ -3206,10 +3206,10 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="264" t="s">
+      <c r="L1" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="264"/>
+      <c r="M1" s="235"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -3228,10 +3228,10 @@
       <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="263"/>
+      <c r="B2" s="234"/>
       <c r="C2" s="9" t="s">
         <v>186</v>
       </c>
@@ -3276,10 +3276,10 @@
       <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="263"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10" t="s">
         <v>15</v>
@@ -3322,10 +3322,10 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
         <v>19</v>
@@ -3366,17 +3366,17 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" s="20" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="253"/>
-      <c r="C5" s="254" t="s">
+      <c r="B5" s="237"/>
+      <c r="C5" s="238" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3580,13 +3580,13 @@
       <c r="A10" s="47">
         <v>2</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="256" t="s">
+      <c r="C10" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="234" t="s">
+      <c r="D10" s="247" t="s">
         <v>198</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -3631,9 +3631,9 @@
       <c r="A11" s="47">
         <v>3</v>
       </c>
-      <c r="B11" s="255"/>
-      <c r="C11" s="256"/>
-      <c r="D11" s="235"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="32" t="s">
         <v>190</v>
       </c>
@@ -3676,9 +3676,9 @@
       <c r="A12" s="47">
         <v>4</v>
       </c>
-      <c r="B12" s="255"/>
-      <c r="C12" s="256"/>
-      <c r="D12" s="235"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="248"/>
       <c r="E12" s="32" t="s">
         <v>48</v>
       </c>
@@ -3721,9 +3721,9 @@
       <c r="A13" s="47">
         <v>5</v>
       </c>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="235"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="248"/>
       <c r="E13" s="32" t="s">
         <v>50</v>
       </c>
@@ -3766,9 +3766,9 @@
       <c r="A14" s="47">
         <v>6</v>
       </c>
-      <c r="B14" s="255"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="235"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="248"/>
       <c r="E14" s="32" t="s">
         <v>52</v>
       </c>
@@ -3811,9 +3811,9 @@
       <c r="A15" s="47">
         <v>7</v>
       </c>
-      <c r="B15" s="255"/>
-      <c r="C15" s="256"/>
-      <c r="D15" s="235"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="248"/>
       <c r="E15" s="32" t="s">
         <v>195</v>
       </c>
@@ -3856,9 +3856,9 @@
       <c r="A16" s="47">
         <v>8</v>
       </c>
-      <c r="B16" s="255"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="235"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="248"/>
       <c r="E16" s="32" t="s">
         <v>55</v>
       </c>
@@ -3901,9 +3901,9 @@
       <c r="A17" s="47">
         <v>9</v>
       </c>
-      <c r="B17" s="255"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="235"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="32" t="s">
         <v>56</v>
       </c>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="18" spans="1:29" s="61" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="227"/>
       <c r="D18" s="229"/>
       <c r="E18" s="228"/>
@@ -3977,11 +3977,11 @@
       <c r="A19" s="62">
         <v>10</v>
       </c>
-      <c r="B19" s="255"/>
-      <c r="C19" s="255" t="s">
+      <c r="B19" s="239"/>
+      <c r="C19" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="234" t="s">
+      <c r="D19" s="247" t="s">
         <v>187</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -4026,9 +4026,9 @@
       <c r="A20" s="62">
         <v>11</v>
       </c>
-      <c r="B20" s="255"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="235"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="248"/>
       <c r="E20" s="63" t="s">
         <v>61</v>
       </c>
@@ -4071,9 +4071,9 @@
       <c r="A21" s="62">
         <v>12</v>
       </c>
-      <c r="B21" s="255"/>
-      <c r="C21" s="255"/>
-      <c r="D21" s="235"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="248"/>
       <c r="E21" s="71" t="s">
         <v>204</v>
       </c>
@@ -4116,9 +4116,9 @@
       <c r="A22" s="62">
         <v>13</v>
       </c>
-      <c r="B22" s="255"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="235"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="71" t="s">
         <v>66</v>
       </c>
@@ -4161,9 +4161,9 @@
       <c r="A23" s="62">
         <v>14</v>
       </c>
-      <c r="B23" s="255"/>
-      <c r="C23" s="255"/>
-      <c r="D23" s="235"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="71" t="s">
         <v>68</v>
       </c>
@@ -4206,9 +4206,9 @@
       <c r="A24" s="62">
         <v>15</v>
       </c>
-      <c r="B24" s="255"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="235"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="63" t="s">
         <v>70</v>
       </c>
@@ -4253,9 +4253,9 @@
       <c r="A25" s="62">
         <v>16</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="235"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="63" t="s">
         <v>73</v>
       </c>
@@ -4300,9 +4300,9 @@
       <c r="A26" s="62">
         <v>17</v>
       </c>
-      <c r="B26" s="255"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="235"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="63" t="s">
         <v>76</v>
       </c>
@@ -4347,9 +4347,9 @@
       <c r="A27" s="62">
         <v>18</v>
       </c>
-      <c r="B27" s="255"/>
-      <c r="C27" s="255"/>
-      <c r="D27" s="235"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="63" t="s">
         <v>79</v>
       </c>
@@ -4392,9 +4392,9 @@
       <c r="A28" s="62">
         <v>19</v>
       </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="255"/>
-      <c r="D28" s="235"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="63" t="s">
         <v>81</v>
       </c>
@@ -4437,9 +4437,9 @@
       <c r="A29" s="62">
         <v>20</v>
       </c>
-      <c r="B29" s="255"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="235"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="248"/>
       <c r="E29" s="63" t="s">
         <v>82</v>
       </c>
@@ -4482,9 +4482,9 @@
       <c r="A30" s="62">
         <v>21</v>
       </c>
-      <c r="B30" s="255"/>
-      <c r="C30" s="255"/>
-      <c r="D30" s="235"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="248"/>
       <c r="E30" s="63" t="s">
         <v>84</v>
       </c>
@@ -4527,9 +4527,9 @@
       <c r="A31" s="62">
         <v>23</v>
       </c>
-      <c r="B31" s="255"/>
-      <c r="C31" s="255"/>
-      <c r="D31" s="235"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="248"/>
       <c r="E31" s="63" t="s">
         <v>86</v>
       </c>
@@ -4572,9 +4572,9 @@
       <c r="A32" s="62">
         <v>24</v>
       </c>
-      <c r="B32" s="255"/>
-      <c r="C32" s="255"/>
-      <c r="D32" s="235"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="248"/>
       <c r="E32" s="71" t="s">
         <v>89</v>
       </c>
@@ -4617,9 +4617,9 @@
       <c r="A33" s="62">
         <v>25</v>
       </c>
-      <c r="B33" s="255"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="235"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="239"/>
+      <c r="D33" s="248"/>
       <c r="E33" s="71" t="s">
         <v>92</v>
       </c>
@@ -4662,9 +4662,9 @@
       <c r="A34" s="62">
         <v>26</v>
       </c>
-      <c r="B34" s="255"/>
-      <c r="C34" s="255"/>
-      <c r="D34" s="235"/>
+      <c r="B34" s="239"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="248"/>
       <c r="E34" s="32" t="s">
         <v>93</v>
       </c>
@@ -4707,9 +4707,9 @@
       <c r="A35" s="62">
         <v>27</v>
       </c>
-      <c r="B35" s="255"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="235"/>
+      <c r="B35" s="239"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="248"/>
       <c r="E35" s="32" t="s">
         <v>96</v>
       </c>
@@ -4752,9 +4752,9 @@
       <c r="A36" s="62">
         <v>28</v>
       </c>
-      <c r="B36" s="255"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="235"/>
+      <c r="B36" s="239"/>
+      <c r="C36" s="239"/>
+      <c r="D36" s="248"/>
       <c r="E36" s="32" t="s">
         <v>98</v>
       </c>
@@ -4797,9 +4797,9 @@
       <c r="A37" s="62">
         <v>29</v>
       </c>
-      <c r="B37" s="255"/>
-      <c r="C37" s="255"/>
-      <c r="D37" s="235"/>
+      <c r="B37" s="239"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="248"/>
       <c r="E37" s="32" t="s">
         <v>101</v>
       </c>
@@ -4842,9 +4842,9 @@
       <c r="A38" s="62">
         <v>30</v>
       </c>
-      <c r="B38" s="255"/>
-      <c r="C38" s="255"/>
-      <c r="D38" s="235"/>
+      <c r="B38" s="239"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="248"/>
       <c r="E38" s="32" t="s">
         <v>103</v>
       </c>
@@ -4887,9 +4887,9 @@
       <c r="A39" s="62">
         <v>31</v>
       </c>
-      <c r="B39" s="255"/>
-      <c r="C39" s="255"/>
-      <c r="D39" s="235"/>
+      <c r="B39" s="239"/>
+      <c r="C39" s="239"/>
+      <c r="D39" s="248"/>
       <c r="E39" s="32" t="s">
         <v>105</v>
       </c>
@@ -4932,9 +4932,9 @@
       <c r="A40" s="62">
         <v>32</v>
       </c>
-      <c r="B40" s="255"/>
-      <c r="C40" s="255"/>
-      <c r="D40" s="235"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="248"/>
       <c r="E40" s="32" t="s">
         <v>107</v>
       </c>
@@ -4977,9 +4977,9 @@
       <c r="A41" s="62">
         <v>44</v>
       </c>
-      <c r="B41" s="255"/>
-      <c r="C41" s="255"/>
-      <c r="D41" s="235"/>
+      <c r="B41" s="239"/>
+      <c r="C41" s="239"/>
+      <c r="D41" s="248"/>
       <c r="E41" s="64" t="s">
         <v>109</v>
       </c>
@@ -5022,9 +5022,9 @@
       <c r="A42" s="62">
         <v>45</v>
       </c>
-      <c r="B42" s="255"/>
-      <c r="C42" s="255"/>
-      <c r="D42" s="235"/>
+      <c r="B42" s="239"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="248"/>
       <c r="E42" s="64" t="s">
         <v>111</v>
       </c>
@@ -5065,9 +5065,9 @@
     </row>
     <row r="43" spans="1:29" s="79" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="75"/>
-      <c r="B43" s="255"/>
+      <c r="B43" s="239"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="235"/>
+      <c r="D43" s="248"/>
       <c r="E43" s="77"/>
       <c r="F43" s="55"/>
       <c r="G43" s="55"/>
@@ -5098,11 +5098,11 @@
       <c r="A44" s="62">
         <v>48</v>
       </c>
-      <c r="B44" s="255"/>
-      <c r="C44" s="255" t="s">
+      <c r="B44" s="239"/>
+      <c r="C44" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="235"/>
+      <c r="D44" s="248"/>
       <c r="E44" s="71" t="s">
         <v>113</v>
       </c>
@@ -5145,9 +5145,9 @@
       <c r="A45" s="62">
         <v>49</v>
       </c>
-      <c r="B45" s="255"/>
-      <c r="C45" s="255"/>
-      <c r="D45" s="235"/>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="248"/>
       <c r="E45" s="80" t="s">
         <v>117</v>
       </c>
@@ -5190,9 +5190,9 @@
       <c r="A46" s="62">
         <v>50</v>
       </c>
-      <c r="B46" s="255"/>
-      <c r="C46" s="255"/>
-      <c r="D46" s="236"/>
+      <c r="B46" s="239"/>
+      <c r="C46" s="239"/>
+      <c r="D46" s="260"/>
       <c r="E46" s="80" t="s">
         <v>120</v>
       </c>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="47" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="231"/>
-      <c r="B47" s="255"/>
+      <c r="B47" s="239"/>
       <c r="C47" s="81"/>
       <c r="D47" s="82"/>
       <c r="E47" s="83"/>
@@ -5266,11 +5266,11 @@
       <c r="A48" s="62">
         <v>51</v>
       </c>
-      <c r="B48" s="255"/>
-      <c r="C48" s="257" t="s">
+      <c r="B48" s="239"/>
+      <c r="C48" s="241" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="257" t="s">
+      <c r="D48" s="241" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="64" t="s">
@@ -5315,9 +5315,9 @@
       <c r="A49" s="62">
         <v>52</v>
       </c>
-      <c r="B49" s="255"/>
-      <c r="C49" s="257"/>
-      <c r="D49" s="257"/>
+      <c r="B49" s="239"/>
+      <c r="C49" s="241"/>
+      <c r="D49" s="241"/>
       <c r="E49" s="71" t="s">
         <v>127</v>
       </c>
@@ -5360,9 +5360,9 @@
       <c r="A50" s="62">
         <v>53</v>
       </c>
-      <c r="B50" s="255"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="257"/>
+      <c r="B50" s="239"/>
+      <c r="C50" s="241"/>
+      <c r="D50" s="241"/>
       <c r="E50" s="71" t="s">
         <v>128</v>
       </c>
@@ -5405,9 +5405,9 @@
       <c r="A51" s="62">
         <v>54</v>
       </c>
-      <c r="B51" s="255"/>
-      <c r="C51" s="257"/>
-      <c r="D51" s="257"/>
+      <c r="B51" s="239"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="241"/>
       <c r="E51" s="71" t="s">
         <v>130</v>
       </c>
@@ -5450,9 +5450,9 @@
       <c r="A52" s="62">
         <v>55</v>
       </c>
-      <c r="B52" s="255"/>
-      <c r="C52" s="257"/>
-      <c r="D52" s="257"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="241"/>
       <c r="E52" s="71" t="s">
         <v>132</v>
       </c>
@@ -5495,9 +5495,9 @@
       <c r="A53" s="62">
         <v>56</v>
       </c>
-      <c r="B53" s="255"/>
-      <c r="C53" s="257"/>
-      <c r="D53" s="257"/>
+      <c r="B53" s="239"/>
+      <c r="C53" s="241"/>
+      <c r="D53" s="241"/>
       <c r="E53" s="49" t="s">
         <v>134</v>
       </c>
@@ -5540,9 +5540,9 @@
       <c r="A54" s="62">
         <v>57</v>
       </c>
-      <c r="B54" s="255"/>
-      <c r="C54" s="257"/>
-      <c r="D54" s="257"/>
+      <c r="B54" s="239"/>
+      <c r="C54" s="241"/>
+      <c r="D54" s="241"/>
       <c r="E54" s="71" t="s">
         <v>137</v>
       </c>
@@ -5585,9 +5585,9 @@
       <c r="A55" s="62">
         <v>58</v>
       </c>
-      <c r="B55" s="255"/>
-      <c r="C55" s="257"/>
-      <c r="D55" s="257"/>
+      <c r="B55" s="239"/>
+      <c r="C55" s="241"/>
+      <c r="D55" s="241"/>
       <c r="E55" s="71" t="s">
         <v>139</v>
       </c>
@@ -5630,9 +5630,9 @@
       <c r="A56" s="62">
         <v>59</v>
       </c>
-      <c r="B56" s="255"/>
-      <c r="C56" s="257"/>
-      <c r="D56" s="257"/>
+      <c r="B56" s="239"/>
+      <c r="C56" s="241"/>
+      <c r="D56" s="241"/>
       <c r="E56" s="71" t="s">
         <v>141</v>
       </c>
@@ -5675,9 +5675,9 @@
       <c r="A57" s="62">
         <v>60</v>
       </c>
-      <c r="B57" s="255"/>
-      <c r="C57" s="257"/>
-      <c r="D57" s="257"/>
+      <c r="B57" s="239"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="241"/>
       <c r="E57" s="71" t="s">
         <v>144</v>
       </c>
@@ -5720,9 +5720,9 @@
       <c r="A58" s="62">
         <v>61</v>
       </c>
-      <c r="B58" s="255"/>
-      <c r="C58" s="257"/>
-      <c r="D58" s="257"/>
+      <c r="B58" s="239"/>
+      <c r="C58" s="241"/>
+      <c r="D58" s="241"/>
       <c r="E58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5765,9 +5765,9 @@
       <c r="A59" s="62">
         <v>62</v>
       </c>
-      <c r="B59" s="255"/>
-      <c r="C59" s="257"/>
-      <c r="D59" s="257"/>
+      <c r="B59" s="239"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="241"/>
       <c r="E59" s="71" t="s">
         <v>148</v>
       </c>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="60" spans="1:29" s="79" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="75"/>
-      <c r="B60" s="255"/>
+      <c r="B60" s="239"/>
       <c r="C60" s="90"/>
       <c r="D60" s="91"/>
       <c r="E60" s="92"/>
@@ -5839,9 +5839,9 @@
     </row>
     <row r="61" spans="1:29" s="69" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="62"/>
-      <c r="B61" s="255"/>
-      <c r="C61" s="241"/>
-      <c r="D61" s="258" t="s">
+      <c r="B61" s="239"/>
+      <c r="C61" s="262"/>
+      <c r="D61" s="242" t="s">
         <v>150</v>
       </c>
       <c r="E61" s="71" t="s">
@@ -5874,9 +5874,9 @@
     </row>
     <row r="62" spans="1:29" s="69" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="62"/>
-      <c r="B62" s="255"/>
-      <c r="C62" s="242"/>
-      <c r="D62" s="258"/>
+      <c r="B62" s="239"/>
+      <c r="C62" s="263"/>
+      <c r="D62" s="242"/>
       <c r="E62" s="71" t="s">
         <v>152</v>
       </c>
@@ -5907,9 +5907,9 @@
     </row>
     <row r="63" spans="1:29" s="69" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="62"/>
-      <c r="B63" s="255"/>
-      <c r="C63" s="242"/>
-      <c r="D63" s="258"/>
+      <c r="B63" s="239"/>
+      <c r="C63" s="263"/>
+      <c r="D63" s="242"/>
       <c r="E63" s="64" t="s">
         <v>153</v>
       </c>
@@ -5940,9 +5940,9 @@
     </row>
     <row r="64" spans="1:29" s="69" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="62"/>
-      <c r="B64" s="255"/>
-      <c r="C64" s="243"/>
-      <c r="D64" s="258"/>
+      <c r="B64" s="239"/>
+      <c r="C64" s="264"/>
+      <c r="D64" s="242"/>
       <c r="E64" s="64" t="s">
         <v>154</v>
       </c>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="65" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="62"/>
-      <c r="B65" s="255"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="230"/>
       <c r="D65" s="95"/>
       <c r="E65" s="96"/>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="66" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="97"/>
-      <c r="B66" s="255"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="94"/>
       <c r="D66" s="95"/>
       <c r="E66" s="96"/>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="67" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="97"/>
-      <c r="B67" s="255"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="94"/>
       <c r="D67" s="95"/>
       <c r="E67" s="98"/>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="68" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="97"/>
-      <c r="B68" s="255"/>
+      <c r="B68" s="239"/>
       <c r="C68" s="94"/>
       <c r="D68" s="95"/>
       <c r="E68" s="98"/>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="69" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="97"/>
-      <c r="B69" s="255"/>
+      <c r="B69" s="239"/>
       <c r="C69" s="94"/>
       <c r="D69" s="95"/>
       <c r="E69" s="98"/>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="70" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="97"/>
-      <c r="B70" s="255"/>
+      <c r="B70" s="239"/>
       <c r="C70" s="94"/>
       <c r="D70" s="95"/>
       <c r="E70" s="98"/>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="71" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="97"/>
-      <c r="B71" s="255"/>
+      <c r="B71" s="239"/>
       <c r="C71" s="94"/>
       <c r="D71" s="99"/>
       <c r="E71" s="98"/>
@@ -6190,9 +6190,9 @@
     </row>
     <row r="72" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="97"/>
-      <c r="B72" s="255"/>
+      <c r="B72" s="239"/>
       <c r="C72" s="94"/>
-      <c r="D72" s="259"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="98"/>
       <c r="F72" s="47"/>
       <c r="G72" s="64"/>
@@ -6221,9 +6221,9 @@
     </row>
     <row r="73" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="97"/>
-      <c r="B73" s="255"/>
+      <c r="B73" s="239"/>
       <c r="C73" s="94"/>
-      <c r="D73" s="259"/>
+      <c r="D73" s="243"/>
       <c r="E73" s="98"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
@@ -6252,9 +6252,9 @@
     </row>
     <row r="74" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="97"/>
-      <c r="B74" s="255"/>
+      <c r="B74" s="239"/>
       <c r="C74" s="94"/>
-      <c r="D74" s="259"/>
+      <c r="D74" s="243"/>
       <c r="E74" s="100"/>
       <c r="F74" s="32"/>
       <c r="G74" s="64"/>
@@ -6283,9 +6283,9 @@
     </row>
     <row r="75" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="97"/>
-      <c r="B75" s="255"/>
+      <c r="B75" s="239"/>
       <c r="C75" s="94"/>
-      <c r="D75" s="259"/>
+      <c r="D75" s="243"/>
       <c r="E75" s="100"/>
       <c r="F75" s="32"/>
       <c r="G75" s="64"/>
@@ -6314,9 +6314,9 @@
     </row>
     <row r="76" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="97"/>
-      <c r="B76" s="255"/>
+      <c r="B76" s="239"/>
       <c r="C76" s="94"/>
-      <c r="D76" s="259"/>
+      <c r="D76" s="243"/>
       <c r="E76" s="100"/>
       <c r="F76" s="32"/>
       <c r="G76" s="64"/>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="77" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="97"/>
-      <c r="B77" s="255"/>
+      <c r="B77" s="239"/>
       <c r="C77" s="94"/>
       <c r="D77" s="101"/>
       <c r="E77" s="102"/>
@@ -6376,9 +6376,9 @@
     </row>
     <row r="78" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="97"/>
-      <c r="B78" s="255"/>
+      <c r="B78" s="239"/>
       <c r="C78" s="94"/>
-      <c r="D78" s="259"/>
+      <c r="D78" s="243"/>
       <c r="E78" s="96"/>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
@@ -6407,9 +6407,9 @@
     </row>
     <row r="79" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="97"/>
-      <c r="B79" s="255"/>
+      <c r="B79" s="239"/>
       <c r="C79" s="94"/>
-      <c r="D79" s="259"/>
+      <c r="D79" s="243"/>
       <c r="E79" s="96"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="80" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="97"/>
-      <c r="B80" s="255"/>
+      <c r="B80" s="239"/>
       <c r="C80" s="94"/>
       <c r="D80" s="103"/>
       <c r="E80" s="98"/>
@@ -6469,9 +6469,9 @@
     </row>
     <row r="81" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="97"/>
-      <c r="B81" s="255"/>
+      <c r="B81" s="239"/>
       <c r="C81" s="94"/>
-      <c r="D81" s="260"/>
+      <c r="D81" s="244"/>
       <c r="E81" s="98"/>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
@@ -6500,9 +6500,9 @@
     </row>
     <row r="82" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="97"/>
-      <c r="B82" s="255"/>
+      <c r="B82" s="239"/>
       <c r="C82" s="94"/>
-      <c r="D82" s="260"/>
+      <c r="D82" s="244"/>
       <c r="E82" s="98"/>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
@@ -6531,9 +6531,9 @@
     </row>
     <row r="83" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="97"/>
-      <c r="B83" s="255"/>
+      <c r="B83" s="239"/>
       <c r="C83" s="94"/>
-      <c r="D83" s="260"/>
+      <c r="D83" s="244"/>
       <c r="E83" s="100"/>
       <c r="F83" s="32"/>
       <c r="G83" s="64"/>
@@ -6562,9 +6562,9 @@
     </row>
     <row r="84" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="97"/>
-      <c r="B84" s="255"/>
+      <c r="B84" s="239"/>
       <c r="C84" s="94"/>
-      <c r="D84" s="260"/>
+      <c r="D84" s="244"/>
       <c r="E84" s="96"/>
       <c r="F84" s="64"/>
       <c r="G84" s="64"/>
@@ -6593,9 +6593,9 @@
     </row>
     <row r="85" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="97"/>
-      <c r="B85" s="255"/>
+      <c r="B85" s="239"/>
       <c r="C85" s="94"/>
-      <c r="D85" s="260"/>
+      <c r="D85" s="244"/>
       <c r="E85" s="96"/>
       <c r="F85" s="64"/>
       <c r="G85" s="64"/>
@@ -6624,9 +6624,9 @@
     </row>
     <row r="86" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="97"/>
-      <c r="B86" s="255"/>
+      <c r="B86" s="239"/>
       <c r="C86" s="94"/>
-      <c r="D86" s="260"/>
+      <c r="D86" s="244"/>
       <c r="E86" s="98"/>
       <c r="F86" s="64"/>
       <c r="G86" s="64"/>
@@ -6655,9 +6655,9 @@
     </row>
     <row r="87" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="97"/>
-      <c r="B87" s="255"/>
+      <c r="B87" s="239"/>
       <c r="C87" s="94"/>
-      <c r="D87" s="260"/>
+      <c r="D87" s="244"/>
       <c r="E87" s="98"/>
       <c r="F87" s="64"/>
       <c r="G87" s="64"/>
@@ -6686,9 +6686,9 @@
     </row>
     <row r="88" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="97"/>
-      <c r="B88" s="255"/>
+      <c r="B88" s="239"/>
       <c r="C88" s="94"/>
-      <c r="D88" s="260"/>
+      <c r="D88" s="244"/>
       <c r="E88" s="98"/>
       <c r="F88" s="64"/>
       <c r="G88" s="64"/>
@@ -6717,9 +6717,9 @@
     </row>
     <row r="89" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="97"/>
-      <c r="B89" s="255"/>
+      <c r="B89" s="239"/>
       <c r="C89" s="94"/>
-      <c r="D89" s="260"/>
+      <c r="D89" s="244"/>
       <c r="E89" s="100"/>
       <c r="F89" s="32"/>
       <c r="G89" s="64"/>
@@ -6748,9 +6748,9 @@
     </row>
     <row r="90" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="97"/>
-      <c r="B90" s="255"/>
+      <c r="B90" s="239"/>
       <c r="C90" s="94"/>
-      <c r="D90" s="260"/>
+      <c r="D90" s="244"/>
       <c r="E90" s="102"/>
       <c r="F90" s="70"/>
       <c r="G90" s="70"/>
@@ -6779,9 +6779,9 @@
     </row>
     <row r="91" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="97"/>
-      <c r="B91" s="255"/>
+      <c r="B91" s="239"/>
       <c r="C91" s="94"/>
-      <c r="D91" s="260"/>
+      <c r="D91" s="244"/>
       <c r="E91" s="96"/>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="92" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="97"/>
-      <c r="B92" s="255"/>
+      <c r="B92" s="239"/>
       <c r="C92" s="94"/>
       <c r="D92" s="103"/>
       <c r="E92" s="96"/>
@@ -6841,9 +6841,9 @@
     </row>
     <row r="93" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="97"/>
-      <c r="B93" s="255"/>
+      <c r="B93" s="239"/>
       <c r="C93" s="94"/>
-      <c r="D93" s="261"/>
+      <c r="D93" s="245"/>
       <c r="E93" s="98"/>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
@@ -6872,9 +6872,9 @@
     </row>
     <row r="94" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="97"/>
-      <c r="B94" s="255"/>
+      <c r="B94" s="239"/>
       <c r="C94" s="94"/>
-      <c r="D94" s="261"/>
+      <c r="D94" s="245"/>
       <c r="E94" s="98"/>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
@@ -6903,9 +6903,9 @@
     </row>
     <row r="95" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="97"/>
-      <c r="B95" s="255"/>
+      <c r="B95" s="239"/>
       <c r="C95" s="94"/>
-      <c r="D95" s="261"/>
+      <c r="D95" s="245"/>
       <c r="E95" s="98"/>
       <c r="F95" s="64"/>
       <c r="G95" s="64"/>
@@ -6934,9 +6934,9 @@
     </row>
     <row r="96" spans="1:29" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="97"/>
-      <c r="B96" s="255"/>
+      <c r="B96" s="239"/>
       <c r="C96" s="94"/>
-      <c r="D96" s="261"/>
+      <c r="D96" s="245"/>
       <c r="E96" s="100"/>
       <c r="F96" s="32"/>
       <c r="G96" s="64"/>
@@ -6965,9 +6965,9 @@
     </row>
     <row r="97" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="105"/>
-      <c r="B97" s="255"/>
+      <c r="B97" s="239"/>
       <c r="C97" s="106"/>
-      <c r="D97" s="261"/>
+      <c r="D97" s="245"/>
       <c r="E97" s="107"/>
       <c r="F97" s="108"/>
       <c r="G97" s="108"/>
@@ -6996,9 +6996,9 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="112"/>
-      <c r="B98" s="255"/>
+      <c r="B98" s="239"/>
       <c r="C98" s="106"/>
-      <c r="D98" s="261"/>
+      <c r="D98" s="245"/>
       <c r="E98" s="113"/>
       <c r="F98" s="114"/>
       <c r="G98" s="115"/>
@@ -7027,9 +7027,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="112"/>
-      <c r="B99" s="255"/>
+      <c r="B99" s="239"/>
       <c r="C99" s="106"/>
-      <c r="D99" s="261"/>
+      <c r="D99" s="245"/>
       <c r="E99" s="120"/>
       <c r="F99" s="121"/>
       <c r="G99" s="121"/>
@@ -7058,9 +7058,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="112"/>
-      <c r="B100" s="255"/>
+      <c r="B100" s="239"/>
       <c r="C100" s="106"/>
-      <c r="D100" s="261"/>
+      <c r="D100" s="245"/>
       <c r="E100" s="120"/>
       <c r="F100" s="121"/>
       <c r="G100" s="121"/>
@@ -7089,9 +7089,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="112"/>
-      <c r="B101" s="255"/>
+      <c r="B101" s="239"/>
       <c r="C101" s="106"/>
-      <c r="D101" s="261"/>
+      <c r="D101" s="245"/>
       <c r="E101" s="124"/>
       <c r="F101" s="121"/>
       <c r="G101" s="121"/>
@@ -7120,9 +7120,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="112"/>
-      <c r="B102" s="255"/>
+      <c r="B102" s="239"/>
       <c r="C102" s="106"/>
-      <c r="D102" s="261"/>
+      <c r="D102" s="245"/>
       <c r="E102" s="125"/>
       <c r="F102" s="114"/>
       <c r="G102" s="115"/>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="112"/>
-      <c r="B103" s="255"/>
+      <c r="B103" s="239"/>
       <c r="C103" s="106"/>
       <c r="D103" s="126"/>
       <c r="E103" s="113"/>
@@ -7182,9 +7182,9 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="112"/>
-      <c r="B104" s="255"/>
+      <c r="B104" s="239"/>
       <c r="C104" s="106"/>
-      <c r="D104" s="262"/>
+      <c r="D104" s="246"/>
       <c r="E104" s="127"/>
       <c r="F104" s="114"/>
       <c r="G104" s="115"/>
@@ -7213,9 +7213,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="112"/>
-      <c r="B105" s="255"/>
+      <c r="B105" s="239"/>
       <c r="C105" s="106"/>
-      <c r="D105" s="262"/>
+      <c r="D105" s="246"/>
       <c r="E105" s="129"/>
       <c r="F105" s="121"/>
       <c r="G105" s="121"/>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="112"/>
-      <c r="B106" s="255"/>
+      <c r="B106" s="239"/>
       <c r="C106" s="106"/>
       <c r="D106" s="2"/>
       <c r="E106" s="130"/>
@@ -7275,9 +7275,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="112"/>
-      <c r="B107" s="255"/>
+      <c r="B107" s="239"/>
       <c r="C107" s="106"/>
-      <c r="D107" s="249"/>
+      <c r="D107" s="252"/>
       <c r="E107" s="129"/>
       <c r="F107" s="121"/>
       <c r="G107" s="121"/>
@@ -7306,9 +7306,9 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="112"/>
-      <c r="B108" s="255"/>
+      <c r="B108" s="239"/>
       <c r="C108" s="106"/>
-      <c r="D108" s="249"/>
+      <c r="D108" s="252"/>
       <c r="E108" s="127"/>
       <c r="F108" s="121"/>
       <c r="G108" s="121"/>
@@ -7337,9 +7337,9 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="112"/>
-      <c r="B109" s="255"/>
+      <c r="B109" s="239"/>
       <c r="C109" s="106"/>
-      <c r="D109" s="249"/>
+      <c r="D109" s="252"/>
       <c r="E109" s="129"/>
       <c r="F109" s="121"/>
       <c r="G109" s="121"/>
@@ -7368,9 +7368,9 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="112"/>
-      <c r="B110" s="255"/>
+      <c r="B110" s="239"/>
       <c r="C110" s="106"/>
-      <c r="D110" s="249"/>
+      <c r="D110" s="252"/>
       <c r="E110" s="127"/>
       <c r="F110" s="114"/>
       <c r="G110" s="115"/>
@@ -7399,9 +7399,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="112"/>
-      <c r="B111" s="255"/>
+      <c r="B111" s="239"/>
       <c r="C111" s="106"/>
-      <c r="D111" s="249"/>
+      <c r="D111" s="252"/>
       <c r="E111" s="131"/>
       <c r="F111" s="132"/>
       <c r="G111" s="123"/>
@@ -7430,9 +7430,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="112"/>
-      <c r="B112" s="255"/>
+      <c r="B112" s="239"/>
       <c r="C112" s="106"/>
-      <c r="D112" s="249"/>
+      <c r="D112" s="252"/>
       <c r="E112" s="127"/>
       <c r="F112" s="133"/>
       <c r="G112" s="115"/>
@@ -7461,9 +7461,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="112"/>
-      <c r="B113" s="255"/>
+      <c r="B113" s="239"/>
       <c r="C113" s="106"/>
-      <c r="D113" s="249"/>
+      <c r="D113" s="252"/>
       <c r="E113" s="131"/>
       <c r="F113" s="134"/>
       <c r="G113" s="123"/>
@@ -7492,7 +7492,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="112"/>
-      <c r="B114" s="255"/>
+      <c r="B114" s="239"/>
       <c r="C114" s="106"/>
       <c r="D114" s="135"/>
       <c r="E114" s="131"/>
@@ -7523,9 +7523,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="112"/>
-      <c r="B115" s="255"/>
+      <c r="B115" s="239"/>
       <c r="C115" s="106"/>
-      <c r="D115" s="250"/>
+      <c r="D115" s="253"/>
       <c r="E115" s="136"/>
       <c r="F115" s="137"/>
       <c r="G115" s="123"/>
@@ -7554,9 +7554,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="112"/>
-      <c r="B116" s="255"/>
+      <c r="B116" s="239"/>
       <c r="C116" s="106"/>
-      <c r="D116" s="250"/>
+      <c r="D116" s="253"/>
       <c r="E116" s="131"/>
       <c r="F116" s="137"/>
       <c r="G116" s="123"/>
@@ -7585,9 +7585,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="112"/>
-      <c r="B117" s="255"/>
+      <c r="B117" s="239"/>
       <c r="C117" s="106"/>
-      <c r="D117" s="250"/>
+      <c r="D117" s="253"/>
       <c r="E117" s="138"/>
       <c r="F117" s="128"/>
       <c r="G117" s="128"/>
@@ -7616,9 +7616,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="112"/>
-      <c r="B118" s="255"/>
+      <c r="B118" s="239"/>
       <c r="C118" s="106"/>
-      <c r="D118" s="250"/>
+      <c r="D118" s="253"/>
       <c r="E118" s="138"/>
       <c r="F118" s="128"/>
       <c r="G118" s="128"/>
@@ -7647,9 +7647,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="112"/>
-      <c r="B119" s="255"/>
+      <c r="B119" s="239"/>
       <c r="C119" s="106"/>
-      <c r="D119" s="250"/>
+      <c r="D119" s="253"/>
       <c r="E119" s="138"/>
       <c r="F119" s="128"/>
       <c r="G119" s="128"/>
@@ -7678,9 +7678,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="112"/>
-      <c r="B120" s="255"/>
+      <c r="B120" s="239"/>
       <c r="C120" s="106"/>
-      <c r="D120" s="250"/>
+      <c r="D120" s="253"/>
       <c r="E120" s="138"/>
       <c r="F120" s="128"/>
       <c r="G120" s="128"/>
@@ -7709,9 +7709,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="112"/>
-      <c r="B121" s="255"/>
+      <c r="B121" s="239"/>
       <c r="C121" s="106"/>
-      <c r="D121" s="250"/>
+      <c r="D121" s="253"/>
       <c r="E121" s="138"/>
       <c r="F121" s="128"/>
       <c r="G121" s="128"/>
@@ -7740,9 +7740,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="112"/>
-      <c r="B122" s="255"/>
+      <c r="B122" s="239"/>
       <c r="C122" s="106"/>
-      <c r="D122" s="250"/>
+      <c r="D122" s="253"/>
       <c r="E122" s="138"/>
       <c r="F122" s="128"/>
       <c r="G122" s="128"/>
@@ -7771,9 +7771,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="112"/>
-      <c r="B123" s="255"/>
+      <c r="B123" s="239"/>
       <c r="C123" s="106"/>
-      <c r="D123" s="250"/>
+      <c r="D123" s="253"/>
       <c r="E123" s="138"/>
       <c r="F123" s="128"/>
       <c r="G123" s="128"/>
@@ -7802,7 +7802,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="112"/>
-      <c r="B124" s="255"/>
+      <c r="B124" s="239"/>
       <c r="C124" s="139"/>
       <c r="D124" s="140"/>
       <c r="E124" s="138"/>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="112"/>
-      <c r="B125" s="255"/>
+      <c r="B125" s="239"/>
       <c r="C125" s="141"/>
       <c r="D125" s="140"/>
       <c r="E125" s="138"/>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="112"/>
-      <c r="B126" s="255"/>
+      <c r="B126" s="239"/>
       <c r="C126" s="141"/>
       <c r="D126" s="142"/>
       <c r="E126" s="138"/>
@@ -7895,9 +7895,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="112"/>
-      <c r="B127" s="255"/>
+      <c r="B127" s="239"/>
       <c r="C127" s="141"/>
-      <c r="D127" s="251"/>
+      <c r="D127" s="254"/>
       <c r="E127" s="143"/>
       <c r="F127" s="128"/>
       <c r="G127" s="128"/>
@@ -7926,9 +7926,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="112"/>
-      <c r="B128" s="255"/>
+      <c r="B128" s="239"/>
       <c r="C128" s="141"/>
-      <c r="D128" s="251"/>
+      <c r="D128" s="254"/>
       <c r="E128" s="143"/>
       <c r="F128" s="128"/>
       <c r="G128" s="128"/>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="112"/>
-      <c r="B129" s="255"/>
+      <c r="B129" s="239"/>
       <c r="C129" s="141"/>
       <c r="D129" s="144"/>
       <c r="E129" s="138"/>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="112"/>
-      <c r="B130" s="255"/>
+      <c r="B130" s="239"/>
       <c r="C130" s="141"/>
       <c r="D130" s="145"/>
       <c r="E130" s="138"/>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="112"/>
-      <c r="B131" s="255"/>
+      <c r="B131" s="239"/>
       <c r="C131" s="141"/>
       <c r="D131" s="145"/>
       <c r="E131" s="146"/>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="112"/>
-      <c r="B132" s="255"/>
+      <c r="B132" s="239"/>
       <c r="C132" s="141"/>
       <c r="D132" s="145"/>
       <c r="E132" s="138"/>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="112"/>
-      <c r="B133" s="255"/>
+      <c r="B133" s="239"/>
       <c r="C133" s="141"/>
       <c r="D133" s="145"/>
       <c r="E133" s="138"/>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="112"/>
-      <c r="B134" s="255"/>
+      <c r="B134" s="239"/>
       <c r="C134" s="141"/>
       <c r="D134" s="145"/>
       <c r="E134" s="138"/>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="112"/>
-      <c r="B135" s="255"/>
+      <c r="B135" s="239"/>
       <c r="C135" s="141"/>
       <c r="D135" s="145"/>
       <c r="E135" s="138"/>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="112"/>
-      <c r="B136" s="255"/>
+      <c r="B136" s="239"/>
       <c r="C136" s="141"/>
       <c r="D136" s="145"/>
       <c r="E136" s="146"/>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="112"/>
-      <c r="B137" s="255"/>
+      <c r="B137" s="239"/>
       <c r="C137" s="141"/>
       <c r="D137" s="145"/>
       <c r="E137" s="146"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="112"/>
-      <c r="B138" s="255"/>
+      <c r="B138" s="239"/>
       <c r="C138" s="141"/>
       <c r="D138" s="145"/>
       <c r="E138" s="146"/>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="112"/>
-      <c r="B139" s="255"/>
+      <c r="B139" s="239"/>
       <c r="C139" s="141"/>
       <c r="D139" s="145"/>
       <c r="E139" s="138"/>
@@ -8298,7 +8298,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="112"/>
-      <c r="B140" s="255"/>
+      <c r="B140" s="239"/>
       <c r="C140" s="141"/>
       <c r="D140" s="145"/>
       <c r="E140" s="138"/>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="112"/>
-      <c r="B141" s="255"/>
+      <c r="B141" s="239"/>
       <c r="C141" s="141"/>
       <c r="D141" s="145"/>
       <c r="E141" s="138"/>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="112"/>
-      <c r="B142" s="255"/>
+      <c r="B142" s="239"/>
       <c r="C142" s="141"/>
       <c r="D142" s="145"/>
       <c r="E142" s="138"/>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="112"/>
-      <c r="B143" s="255"/>
+      <c r="B143" s="239"/>
       <c r="C143" s="141"/>
       <c r="D143" s="145"/>
       <c r="E143" s="138"/>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="112"/>
-      <c r="B144" s="255"/>
+      <c r="B144" s="239"/>
       <c r="C144" s="141"/>
       <c r="D144" s="145"/>
       <c r="E144" s="138"/>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="151"/>
-      <c r="B145" s="255"/>
+      <c r="B145" s="239"/>
       <c r="C145" s="141"/>
       <c r="D145" s="152"/>
       <c r="E145" s="153"/>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="151"/>
-      <c r="B146" s="255"/>
+      <c r="B146" s="239"/>
       <c r="C146" s="141"/>
       <c r="D146" s="154"/>
       <c r="E146" s="138"/>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="151"/>
-      <c r="B147" s="255"/>
+      <c r="B147" s="239"/>
       <c r="C147" s="141"/>
       <c r="D147" s="154"/>
       <c r="E147" s="138"/>
@@ -8546,7 +8546,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="151"/>
-      <c r="B148" s="255"/>
+      <c r="B148" s="239"/>
       <c r="C148" s="141"/>
       <c r="D148" s="154"/>
       <c r="E148" s="155"/>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="151"/>
-      <c r="B149" s="255"/>
+      <c r="B149" s="239"/>
       <c r="C149" s="141"/>
       <c r="D149" s="154"/>
       <c r="E149" s="156"/>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="151"/>
-      <c r="B150" s="255"/>
+      <c r="B150" s="239"/>
       <c r="C150" s="141"/>
       <c r="D150" s="154"/>
       <c r="E150" s="156"/>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="151"/>
-      <c r="B151" s="255"/>
+      <c r="B151" s="239"/>
       <c r="C151" s="141"/>
       <c r="D151" s="154"/>
       <c r="E151" s="156"/>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="151"/>
-      <c r="B152" s="255"/>
+      <c r="B152" s="239"/>
       <c r="C152" s="141"/>
       <c r="D152" s="154"/>
       <c r="E152" s="156"/>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="151"/>
-      <c r="B153" s="255"/>
+      <c r="B153" s="239"/>
       <c r="C153" s="141"/>
       <c r="D153" s="154"/>
       <c r="E153" s="138"/>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="151"/>
-      <c r="B154" s="255"/>
+      <c r="B154" s="239"/>
       <c r="C154" s="141"/>
       <c r="D154" s="154"/>
       <c r="E154" s="138"/>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="151"/>
-      <c r="B155" s="255"/>
+      <c r="B155" s="239"/>
       <c r="C155" s="141"/>
       <c r="D155" s="154"/>
       <c r="E155" s="138"/>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="151"/>
-      <c r="B156" s="255"/>
+      <c r="B156" s="239"/>
       <c r="C156" s="141"/>
       <c r="D156" s="154"/>
       <c r="E156" s="138"/>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="151"/>
-      <c r="B157" s="255"/>
+      <c r="B157" s="239"/>
       <c r="C157" s="141"/>
       <c r="D157" s="154"/>
       <c r="E157" s="153"/>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="151"/>
-      <c r="B158" s="255"/>
+      <c r="B158" s="239"/>
       <c r="C158" s="141"/>
       <c r="D158" s="157"/>
       <c r="E158" s="158"/>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="151"/>
-      <c r="B159" s="255"/>
+      <c r="B159" s="239"/>
       <c r="C159" s="141"/>
       <c r="D159" s="159"/>
       <c r="E159" s="153"/>
@@ -8918,9 +8918,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="151"/>
-      <c r="B160" s="255"/>
+      <c r="B160" s="239"/>
       <c r="C160" s="141"/>
-      <c r="D160" s="252"/>
+      <c r="D160" s="255"/>
       <c r="E160" s="138"/>
       <c r="F160" s="128"/>
       <c r="G160" s="128"/>
@@ -8929,7 +8929,7 @@
       <c r="J160" s="128"/>
       <c r="K160" s="128"/>
       <c r="L160" s="118"/>
-      <c r="M160" s="247"/>
+      <c r="M160" s="236"/>
       <c r="N160" s="119"/>
       <c r="O160" s="119"/>
       <c r="P160" s="119"/>
@@ -8949,9 +8949,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="112"/>
-      <c r="B161" s="255"/>
+      <c r="B161" s="239"/>
       <c r="C161" s="141"/>
-      <c r="D161" s="252"/>
+      <c r="D161" s="255"/>
       <c r="E161" s="138"/>
       <c r="F161" s="128"/>
       <c r="G161" s="128"/>
@@ -8960,7 +8960,7 @@
       <c r="J161" s="128"/>
       <c r="K161" s="128"/>
       <c r="L161" s="118"/>
-      <c r="M161" s="247"/>
+      <c r="M161" s="236"/>
       <c r="N161" s="119"/>
       <c r="O161" s="119"/>
       <c r="P161" s="119"/>
@@ -8980,9 +8980,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="112"/>
-      <c r="B162" s="255"/>
+      <c r="B162" s="239"/>
       <c r="C162" s="141"/>
-      <c r="D162" s="252"/>
+      <c r="D162" s="255"/>
       <c r="E162" s="155"/>
       <c r="F162" s="128"/>
       <c r="G162" s="128"/>
@@ -8991,7 +8991,7 @@
       <c r="J162" s="128"/>
       <c r="K162" s="128"/>
       <c r="L162" s="118"/>
-      <c r="M162" s="247"/>
+      <c r="M162" s="236"/>
       <c r="N162" s="119"/>
       <c r="O162" s="119"/>
       <c r="P162" s="119"/>
@@ -9011,9 +9011,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="112"/>
-      <c r="B163" s="255"/>
+      <c r="B163" s="239"/>
       <c r="C163" s="141"/>
-      <c r="D163" s="252"/>
+      <c r="D163" s="255"/>
       <c r="E163" s="156"/>
       <c r="F163" s="128"/>
       <c r="G163" s="128"/>
@@ -9022,7 +9022,7 @@
       <c r="J163" s="128"/>
       <c r="K163" s="128"/>
       <c r="L163" s="118"/>
-      <c r="M163" s="247"/>
+      <c r="M163" s="236"/>
       <c r="N163" s="119"/>
       <c r="O163" s="119"/>
       <c r="P163" s="119"/>
@@ -9042,9 +9042,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="112"/>
-      <c r="B164" s="255"/>
+      <c r="B164" s="239"/>
       <c r="C164" s="141"/>
-      <c r="D164" s="252"/>
+      <c r="D164" s="255"/>
       <c r="E164" s="156"/>
       <c r="F164" s="128"/>
       <c r="G164" s="128"/>
@@ -9053,7 +9053,7 @@
       <c r="J164" s="128"/>
       <c r="K164" s="128"/>
       <c r="L164" s="118"/>
-      <c r="M164" s="247"/>
+      <c r="M164" s="236"/>
       <c r="N164" s="119"/>
       <c r="O164" s="119"/>
       <c r="P164" s="119"/>
@@ -9073,9 +9073,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="112"/>
-      <c r="B165" s="255"/>
+      <c r="B165" s="239"/>
       <c r="C165" s="141"/>
-      <c r="D165" s="252"/>
+      <c r="D165" s="255"/>
       <c r="E165" s="156"/>
       <c r="F165" s="128"/>
       <c r="G165" s="128"/>
@@ -9084,7 +9084,7 @@
       <c r="J165" s="128"/>
       <c r="K165" s="128"/>
       <c r="L165" s="118"/>
-      <c r="M165" s="247"/>
+      <c r="M165" s="236"/>
       <c r="N165" s="119"/>
       <c r="O165" s="119"/>
       <c r="P165" s="119"/>
@@ -9104,9 +9104,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="112"/>
-      <c r="B166" s="255"/>
+      <c r="B166" s="239"/>
       <c r="C166" s="141"/>
-      <c r="D166" s="252"/>
+      <c r="D166" s="255"/>
       <c r="E166" s="156"/>
       <c r="F166" s="128"/>
       <c r="G166" s="128"/>
@@ -9115,7 +9115,7 @@
       <c r="J166" s="128"/>
       <c r="K166" s="128"/>
       <c r="L166" s="118"/>
-      <c r="M166" s="247"/>
+      <c r="M166" s="236"/>
       <c r="N166" s="119"/>
       <c r="O166" s="119"/>
       <c r="P166" s="119"/>
@@ -9135,9 +9135,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="112"/>
-      <c r="B167" s="255"/>
+      <c r="B167" s="239"/>
       <c r="C167" s="141"/>
-      <c r="D167" s="252"/>
+      <c r="D167" s="255"/>
       <c r="E167" s="138"/>
       <c r="F167" s="128"/>
       <c r="G167" s="128"/>
@@ -9146,7 +9146,7 @@
       <c r="J167" s="128"/>
       <c r="K167" s="128"/>
       <c r="L167" s="118"/>
-      <c r="M167" s="247"/>
+      <c r="M167" s="236"/>
       <c r="N167" s="119"/>
       <c r="O167" s="119"/>
       <c r="P167" s="119"/>
@@ -9166,9 +9166,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="112"/>
-      <c r="B168" s="255"/>
+      <c r="B168" s="239"/>
       <c r="C168" s="141"/>
-      <c r="D168" s="252"/>
+      <c r="D168" s="255"/>
       <c r="E168" s="138"/>
       <c r="F168" s="128"/>
       <c r="G168" s="128"/>
@@ -9197,9 +9197,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="112"/>
-      <c r="B169" s="255"/>
+      <c r="B169" s="239"/>
       <c r="C169" s="141"/>
-      <c r="D169" s="252"/>
+      <c r="D169" s="255"/>
       <c r="E169" s="138"/>
       <c r="F169" s="128"/>
       <c r="G169" s="128"/>
@@ -9228,9 +9228,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="112"/>
-      <c r="B170" s="255"/>
+      <c r="B170" s="239"/>
       <c r="C170" s="141"/>
-      <c r="D170" s="252"/>
+      <c r="D170" s="255"/>
       <c r="E170" s="138"/>
       <c r="F170" s="128"/>
       <c r="G170" s="128"/>
@@ -9294,7 +9294,7 @@
       <c r="C172" s="162" t="s">
         <v>155</v>
       </c>
-      <c r="D172" s="240"/>
+      <c r="D172" s="261"/>
       <c r="E172" s="138"/>
       <c r="F172" s="128"/>
       <c r="G172" s="150"/>
@@ -9325,7 +9325,7 @@
       <c r="A173" s="160"/>
       <c r="B173" s="159"/>
       <c r="C173" s="164"/>
-      <c r="D173" s="240"/>
+      <c r="D173" s="261"/>
       <c r="E173" s="138"/>
       <c r="F173" s="128"/>
       <c r="G173" s="150"/>
@@ -9356,7 +9356,7 @@
       <c r="A174" s="160"/>
       <c r="B174" s="159"/>
       <c r="C174" s="164"/>
-      <c r="D174" s="240"/>
+      <c r="D174" s="261"/>
       <c r="E174" s="138"/>
       <c r="F174" s="128"/>
       <c r="G174" s="150"/>
@@ -9387,7 +9387,7 @@
       <c r="A175" s="160"/>
       <c r="B175" s="159"/>
       <c r="C175" s="159"/>
-      <c r="D175" s="240"/>
+      <c r="D175" s="261"/>
       <c r="E175" s="146"/>
       <c r="F175" s="128"/>
       <c r="G175" s="150"/>
@@ -9418,7 +9418,7 @@
       <c r="A176" s="160"/>
       <c r="B176" s="163"/>
       <c r="C176" s="159"/>
-      <c r="D176" s="240"/>
+      <c r="D176" s="261"/>
       <c r="E176" s="146"/>
       <c r="F176" s="128"/>
       <c r="G176" s="150"/>
@@ -9449,7 +9449,7 @@
       <c r="A177" s="160"/>
       <c r="B177" s="163"/>
       <c r="C177" s="159"/>
-      <c r="D177" s="240"/>
+      <c r="D177" s="261"/>
       <c r="E177" s="146"/>
       <c r="F177" s="128"/>
       <c r="G177" s="150"/>
@@ -9480,7 +9480,7 @@
       <c r="A178" s="160"/>
       <c r="B178" s="163"/>
       <c r="C178" s="159"/>
-      <c r="D178" s="240"/>
+      <c r="D178" s="261"/>
       <c r="E178" s="138"/>
       <c r="F178" s="128"/>
       <c r="G178" s="150"/>
@@ -9511,7 +9511,7 @@
       <c r="A179" s="160"/>
       <c r="B179" s="163"/>
       <c r="C179" s="159"/>
-      <c r="D179" s="240"/>
+      <c r="D179" s="261"/>
       <c r="E179" s="138"/>
       <c r="F179" s="128"/>
       <c r="G179" s="150"/>
@@ -9542,7 +9542,7 @@
       <c r="A180" s="160"/>
       <c r="B180" s="163"/>
       <c r="C180" s="163"/>
-      <c r="D180" s="240"/>
+      <c r="D180" s="261"/>
       <c r="E180" s="138"/>
       <c r="F180" s="128"/>
       <c r="G180" s="150"/>
@@ -10882,8 +10882,8 @@
       <c r="H223" s="184"/>
       <c r="I223" s="184"/>
       <c r="J223" s="184"/>
-      <c r="K223" s="245"/>
-      <c r="L223" s="247"/>
+      <c r="K223" s="249"/>
+      <c r="L223" s="236"/>
       <c r="M223" s="179"/>
       <c r="N223" s="119"/>
       <c r="O223" s="119"/>
@@ -10913,8 +10913,8 @@
       <c r="H224" s="185"/>
       <c r="I224" s="185"/>
       <c r="J224" s="185"/>
-      <c r="K224" s="245"/>
-      <c r="L224" s="247"/>
+      <c r="K224" s="249"/>
+      <c r="L224" s="236"/>
       <c r="M224" s="179"/>
       <c r="N224" s="119"/>
       <c r="O224" s="119"/>
@@ -10944,8 +10944,8 @@
       <c r="H225" s="108"/>
       <c r="I225" s="108"/>
       <c r="J225" s="108"/>
-      <c r="K225" s="245"/>
-      <c r="L225" s="247"/>
+      <c r="K225" s="249"/>
+      <c r="L225" s="236"/>
       <c r="M225" s="179"/>
       <c r="N225" s="119"/>
       <c r="O225" s="119"/>
@@ -11153,9 +11153,9 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="160"/>
       <c r="B232" s="171"/>
-      <c r="C232" s="237"/>
+      <c r="C232" s="250"/>
       <c r="D232" s="159"/>
-      <c r="E232" s="248"/>
+      <c r="E232" s="251"/>
       <c r="F232" s="121"/>
       <c r="G232" s="121"/>
       <c r="H232" s="121"/>
@@ -11184,9 +11184,9 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="160"/>
       <c r="B233" s="171"/>
-      <c r="C233" s="237"/>
+      <c r="C233" s="250"/>
       <c r="D233" s="159"/>
-      <c r="E233" s="248"/>
+      <c r="E233" s="251"/>
       <c r="F233" s="121"/>
       <c r="G233" s="121"/>
       <c r="H233" s="121"/>
@@ -11215,9 +11215,9 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="160"/>
       <c r="B234" s="171"/>
-      <c r="C234" s="237"/>
+      <c r="C234" s="250"/>
       <c r="D234" s="159"/>
-      <c r="E234" s="248"/>
+      <c r="E234" s="251"/>
       <c r="F234" s="121"/>
       <c r="G234" s="121"/>
       <c r="H234" s="121"/>
@@ -11246,7 +11246,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="160"/>
       <c r="B235" s="171"/>
-      <c r="C235" s="237"/>
+      <c r="C235" s="250"/>
       <c r="D235" s="159"/>
       <c r="E235" s="129"/>
       <c r="F235" s="121"/>
@@ -11277,7 +11277,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="160"/>
       <c r="B236" s="171"/>
-      <c r="C236" s="237"/>
+      <c r="C236" s="250"/>
       <c r="D236" s="159"/>
       <c r="E236" s="129"/>
       <c r="F236" s="121"/>
@@ -11308,7 +11308,7 @@
     <row r="237" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="160"/>
       <c r="B237" s="171"/>
-      <c r="C237" s="237"/>
+      <c r="C237" s="250"/>
       <c r="D237" s="159"/>
       <c r="E237" s="129"/>
       <c r="F237" s="182"/>
@@ -11339,7 +11339,7 @@
     <row r="238" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="160"/>
       <c r="B238" s="171"/>
-      <c r="C238" s="237"/>
+      <c r="C238" s="250"/>
       <c r="D238" s="159"/>
       <c r="E238" s="129"/>
       <c r="F238" s="121"/>
@@ -11370,7 +11370,7 @@
     <row r="239" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="160"/>
       <c r="B239" s="171"/>
-      <c r="C239" s="238"/>
+      <c r="C239" s="256"/>
       <c r="D239" s="169"/>
       <c r="E239" s="129"/>
       <c r="F239" s="182"/>
@@ -11401,7 +11401,7 @@
     <row r="240" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="160"/>
       <c r="B240" s="171"/>
-      <c r="C240" s="238"/>
+      <c r="C240" s="256"/>
       <c r="D240" s="190"/>
       <c r="E240" s="129"/>
       <c r="F240" s="182"/>
@@ -11463,7 +11463,7 @@
     <row r="242" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="160"/>
       <c r="B242" s="171"/>
-      <c r="C242" s="238"/>
+      <c r="C242" s="256"/>
       <c r="D242" s="169"/>
       <c r="E242" s="129"/>
       <c r="F242" s="121"/>
@@ -11494,7 +11494,7 @@
     <row r="243" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="160"/>
       <c r="B243" s="171"/>
-      <c r="C243" s="238"/>
+      <c r="C243" s="256"/>
       <c r="D243" s="170"/>
       <c r="E243" s="129"/>
       <c r="F243" s="121"/>
@@ -11525,7 +11525,7 @@
     <row r="244" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="160"/>
       <c r="B244" s="171"/>
-      <c r="C244" s="238"/>
+      <c r="C244" s="256"/>
       <c r="D244" s="170"/>
       <c r="E244" s="129"/>
       <c r="F244" s="121"/>
@@ -11556,7 +11556,7 @@
     <row r="245" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="160"/>
       <c r="B245" s="171"/>
-      <c r="C245" s="238"/>
+      <c r="C245" s="256"/>
       <c r="D245" s="170"/>
       <c r="E245" s="129"/>
       <c r="F245" s="182"/>
@@ -11587,7 +11587,7 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="160"/>
       <c r="B246" s="171"/>
-      <c r="C246" s="238"/>
+      <c r="C246" s="256"/>
       <c r="D246" s="170"/>
       <c r="E246" s="192"/>
       <c r="F246" s="121"/>
@@ -11967,7 +11967,7 @@
       <c r="H258" s="182"/>
       <c r="I258" s="182"/>
       <c r="J258" s="182"/>
-      <c r="K258" s="244"/>
+      <c r="K258" s="257"/>
       <c r="L258" s="118"/>
       <c r="M258" s="148"/>
       <c r="N258" s="119"/>
@@ -11998,7 +11998,7 @@
       <c r="H259" s="182"/>
       <c r="I259" s="182"/>
       <c r="J259" s="182"/>
-      <c r="K259" s="244"/>
+      <c r="K259" s="257"/>
       <c r="L259" s="118"/>
       <c r="M259" s="148"/>
       <c r="N259" s="119"/>
@@ -12083,7 +12083,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="160"/>
       <c r="B262" s="171"/>
-      <c r="C262" s="238"/>
+      <c r="C262" s="256"/>
       <c r="D262" s="169"/>
       <c r="E262" s="129"/>
       <c r="F262" s="182"/>
@@ -12091,7 +12091,7 @@
       <c r="H262" s="182"/>
       <c r="I262" s="182"/>
       <c r="J262" s="182"/>
-      <c r="K262" s="245"/>
+      <c r="K262" s="249"/>
       <c r="L262" s="118"/>
       <c r="M262" s="148"/>
       <c r="N262" s="119"/>
@@ -12114,7 +12114,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="160"/>
       <c r="B263" s="171"/>
-      <c r="C263" s="238"/>
+      <c r="C263" s="256"/>
       <c r="D263" s="190"/>
       <c r="E263" s="129"/>
       <c r="F263" s="182"/>
@@ -12122,7 +12122,7 @@
       <c r="H263" s="182"/>
       <c r="I263" s="182"/>
       <c r="J263" s="182"/>
-      <c r="K263" s="245"/>
+      <c r="K263" s="249"/>
       <c r="L263" s="118"/>
       <c r="M263" s="148"/>
       <c r="N263" s="119"/>
@@ -12145,7 +12145,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="160"/>
       <c r="B264" s="171"/>
-      <c r="C264" s="237"/>
+      <c r="C264" s="250"/>
       <c r="D264" s="183"/>
       <c r="E264" s="146"/>
       <c r="F264" s="128"/>
@@ -12176,7 +12176,7 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="160"/>
       <c r="B265" s="171"/>
-      <c r="C265" s="237"/>
+      <c r="C265" s="250"/>
       <c r="D265" s="144"/>
       <c r="E265" s="146"/>
       <c r="F265" s="128"/>
@@ -12238,7 +12238,7 @@
     <row r="267" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="160"/>
       <c r="B267" s="171"/>
-      <c r="C267" s="238"/>
+      <c r="C267" s="256"/>
       <c r="D267" s="169"/>
       <c r="E267" s="146"/>
       <c r="F267" s="128"/>
@@ -12269,7 +12269,7 @@
     <row r="268" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="160"/>
       <c r="B268" s="171"/>
-      <c r="C268" s="238"/>
+      <c r="C268" s="256"/>
       <c r="D268" s="170"/>
       <c r="E268" s="146"/>
       <c r="F268" s="128"/>
@@ -12300,7 +12300,7 @@
     <row r="269" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="160"/>
       <c r="B269" s="171"/>
-      <c r="C269" s="238"/>
+      <c r="C269" s="256"/>
       <c r="D269" s="190"/>
       <c r="E269" s="146"/>
       <c r="F269" s="128"/>
@@ -12485,10 +12485,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="166"/>
-      <c r="B275" s="239"/>
-      <c r="C275" s="237"/>
+      <c r="B275" s="258"/>
+      <c r="C275" s="250"/>
       <c r="D275" s="159"/>
-      <c r="E275" s="237"/>
+      <c r="E275" s="250"/>
       <c r="F275" s="121"/>
       <c r="G275" s="121"/>
       <c r="H275" s="121"/>
@@ -12516,10 +12516,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="166"/>
-      <c r="B276" s="239"/>
-      <c r="C276" s="239"/>
+      <c r="B276" s="258"/>
+      <c r="C276" s="258"/>
       <c r="D276" s="159"/>
-      <c r="E276" s="237"/>
+      <c r="E276" s="250"/>
       <c r="F276" s="121"/>
       <c r="G276" s="121"/>
       <c r="H276" s="121"/>
@@ -12547,10 +12547,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="166"/>
-      <c r="B277" s="239"/>
-      <c r="C277" s="239"/>
+      <c r="B277" s="258"/>
+      <c r="C277" s="258"/>
       <c r="D277" s="159"/>
-      <c r="E277" s="237"/>
+      <c r="E277" s="250"/>
       <c r="F277" s="121"/>
       <c r="G277" s="121"/>
       <c r="H277" s="121"/>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="166"/>
-      <c r="B278" s="239"/>
-      <c r="C278" s="239"/>
+      <c r="B278" s="258"/>
+      <c r="C278" s="258"/>
       <c r="D278" s="159"/>
-      <c r="E278" s="237"/>
+      <c r="E278" s="250"/>
       <c r="F278" s="121"/>
       <c r="G278" s="121"/>
       <c r="H278" s="121"/>
@@ -12609,10 +12609,10 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="166"/>
-      <c r="B279" s="239"/>
-      <c r="C279" s="239"/>
+      <c r="B279" s="258"/>
+      <c r="C279" s="258"/>
       <c r="D279" s="159"/>
-      <c r="E279" s="237"/>
+      <c r="E279" s="250"/>
       <c r="F279" s="121"/>
       <c r="G279" s="121"/>
       <c r="H279" s="121"/>
@@ -12640,10 +12640,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="166"/>
-      <c r="B280" s="239"/>
-      <c r="C280" s="239"/>
+      <c r="B280" s="258"/>
+      <c r="C280" s="258"/>
       <c r="D280" s="159"/>
-      <c r="E280" s="237"/>
+      <c r="E280" s="250"/>
       <c r="F280" s="182"/>
       <c r="G280" s="182"/>
       <c r="H280" s="182"/>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="166"/>
-      <c r="B281" s="239"/>
-      <c r="C281" s="239"/>
+      <c r="B281" s="258"/>
+      <c r="C281" s="258"/>
       <c r="D281" s="159"/>
-      <c r="E281" s="237"/>
+      <c r="E281" s="250"/>
       <c r="F281" s="121"/>
       <c r="G281" s="121"/>
       <c r="H281" s="121"/>
@@ -12702,10 +12702,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="166"/>
-      <c r="B282" s="239"/>
-      <c r="C282" s="239"/>
+      <c r="B282" s="258"/>
+      <c r="C282" s="258"/>
       <c r="D282" s="159"/>
-      <c r="E282" s="237"/>
+      <c r="E282" s="250"/>
       <c r="F282" s="121"/>
       <c r="G282" s="121"/>
       <c r="H282" s="121"/>
@@ -12733,8 +12733,8 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="166"/>
-      <c r="B283" s="239"/>
-      <c r="C283" s="239"/>
+      <c r="B283" s="258"/>
+      <c r="C283" s="258"/>
       <c r="D283" s="159"/>
       <c r="E283" s="163"/>
       <c r="F283" s="117"/>
@@ -12764,8 +12764,8 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="166"/>
-      <c r="B284" s="239"/>
-      <c r="C284" s="239"/>
+      <c r="B284" s="258"/>
+      <c r="C284" s="258"/>
       <c r="D284" s="159"/>
       <c r="E284" s="163"/>
       <c r="F284" s="118"/>
@@ -12795,10 +12795,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="166"/>
-      <c r="B285" s="239"/>
-      <c r="C285" s="239"/>
+      <c r="B285" s="258"/>
+      <c r="C285" s="258"/>
       <c r="D285" s="183"/>
-      <c r="E285" s="237"/>
+      <c r="E285" s="250"/>
       <c r="F285" s="128"/>
       <c r="G285" s="128"/>
       <c r="H285" s="128"/>
@@ -12826,10 +12826,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="166"/>
-      <c r="B286" s="239"/>
-      <c r="C286" s="239"/>
+      <c r="B286" s="258"/>
+      <c r="C286" s="258"/>
       <c r="D286" s="206"/>
-      <c r="E286" s="237"/>
+      <c r="E286" s="250"/>
       <c r="F286" s="118"/>
       <c r="G286" s="118"/>
       <c r="H286" s="118"/>
@@ -12857,10 +12857,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="166"/>
-      <c r="B287" s="239"/>
-      <c r="C287" s="239"/>
+      <c r="B287" s="258"/>
+      <c r="C287" s="258"/>
       <c r="D287" s="206"/>
-      <c r="E287" s="237"/>
+      <c r="E287" s="250"/>
       <c r="F287" s="118"/>
       <c r="G287" s="118"/>
       <c r="H287" s="118"/>
@@ -12888,10 +12888,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="166"/>
-      <c r="B288" s="239"/>
-      <c r="C288" s="237"/>
+      <c r="B288" s="258"/>
+      <c r="C288" s="250"/>
       <c r="D288" s="144"/>
-      <c r="E288" s="237"/>
+      <c r="E288" s="250"/>
       <c r="F288" s="118"/>
       <c r="G288" s="118"/>
       <c r="H288" s="118"/>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="166"/>
-      <c r="B289" s="239"/>
+      <c r="B289" s="258"/>
       <c r="C289" s="159"/>
       <c r="D289" s="206"/>
       <c r="E289" s="206"/>
@@ -12950,10 +12950,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="166"/>
-      <c r="B290" s="239"/>
-      <c r="C290" s="237"/>
+      <c r="B290" s="258"/>
+      <c r="C290" s="250"/>
       <c r="D290" s="183"/>
-      <c r="E290" s="246"/>
+      <c r="E290" s="259"/>
       <c r="F290" s="128"/>
       <c r="G290" s="128"/>
       <c r="H290" s="128"/>
@@ -12981,10 +12981,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="166"/>
-      <c r="B291" s="239"/>
-      <c r="C291" s="239"/>
+      <c r="B291" s="258"/>
+      <c r="C291" s="258"/>
       <c r="D291" s="144"/>
-      <c r="E291" s="246"/>
+      <c r="E291" s="259"/>
       <c r="F291" s="128"/>
       <c r="G291" s="128"/>
       <c r="H291" s="128"/>
@@ -13012,10 +13012,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="166"/>
-      <c r="B292" s="239"/>
-      <c r="C292" s="239"/>
+      <c r="B292" s="258"/>
+      <c r="C292" s="258"/>
       <c r="D292" s="159"/>
-      <c r="E292" s="246"/>
+      <c r="E292" s="259"/>
       <c r="F292" s="128"/>
       <c r="G292" s="128"/>
       <c r="H292" s="128"/>
@@ -13043,10 +13043,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="166"/>
-      <c r="B293" s="239"/>
-      <c r="C293" s="237"/>
+      <c r="B293" s="258"/>
+      <c r="C293" s="250"/>
       <c r="D293" s="159"/>
-      <c r="E293" s="246"/>
+      <c r="E293" s="259"/>
       <c r="F293" s="128"/>
       <c r="G293" s="128"/>
       <c r="H293" s="128"/>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="166"/>
-      <c r="B294" s="239"/>
+      <c r="B294" s="258"/>
       <c r="C294" s="163"/>
       <c r="D294" s="163"/>
       <c r="E294" s="166"/>
@@ -13105,10 +13105,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="166"/>
-      <c r="B295" s="239"/>
-      <c r="C295" s="237"/>
+      <c r="B295" s="258"/>
+      <c r="C295" s="250"/>
       <c r="D295" s="183"/>
-      <c r="E295" s="237"/>
+      <c r="E295" s="250"/>
       <c r="F295" s="128"/>
       <c r="G295" s="128"/>
       <c r="H295" s="128"/>
@@ -13136,10 +13136,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="166"/>
-      <c r="B296" s="239"/>
-      <c r="C296" s="239"/>
+      <c r="B296" s="258"/>
+      <c r="C296" s="258"/>
       <c r="D296" s="206"/>
-      <c r="E296" s="237"/>
+      <c r="E296" s="250"/>
       <c r="F296" s="128"/>
       <c r="G296" s="128"/>
       <c r="H296" s="128"/>
@@ -13167,10 +13167,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="166"/>
-      <c r="B297" s="239"/>
-      <c r="C297" s="239"/>
+      <c r="B297" s="258"/>
+      <c r="C297" s="258"/>
       <c r="D297" s="206"/>
-      <c r="E297" s="237"/>
+      <c r="E297" s="250"/>
       <c r="F297" s="128"/>
       <c r="G297" s="128"/>
       <c r="H297" s="128"/>
@@ -13198,10 +13198,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="166"/>
-      <c r="B298" s="239"/>
-      <c r="C298" s="239"/>
+      <c r="B298" s="258"/>
+      <c r="C298" s="258"/>
       <c r="D298" s="206"/>
-      <c r="E298" s="237"/>
+      <c r="E298" s="250"/>
       <c r="F298" s="128"/>
       <c r="G298" s="128"/>
       <c r="H298" s="128"/>
@@ -13229,10 +13229,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="166"/>
-      <c r="B299" s="239"/>
-      <c r="C299" s="239"/>
+      <c r="B299" s="258"/>
+      <c r="C299" s="258"/>
       <c r="D299" s="206"/>
-      <c r="E299" s="237"/>
+      <c r="E299" s="250"/>
       <c r="F299" s="121"/>
       <c r="G299" s="121"/>
       <c r="H299" s="121"/>
@@ -13260,10 +13260,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="166"/>
-      <c r="B300" s="239"/>
-      <c r="C300" s="239"/>
+      <c r="B300" s="258"/>
+      <c r="C300" s="258"/>
       <c r="D300" s="144"/>
-      <c r="E300" s="237"/>
+      <c r="E300" s="250"/>
       <c r="F300" s="121"/>
       <c r="G300" s="121"/>
       <c r="H300" s="121"/>
@@ -13291,10 +13291,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="166"/>
-      <c r="B301" s="239"/>
-      <c r="C301" s="239"/>
+      <c r="B301" s="258"/>
+      <c r="C301" s="258"/>
       <c r="D301" s="183"/>
-      <c r="E301" s="237"/>
+      <c r="E301" s="250"/>
       <c r="F301" s="128"/>
       <c r="G301" s="128"/>
       <c r="H301" s="128"/>
@@ -13322,10 +13322,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="166"/>
-      <c r="B302" s="239"/>
-      <c r="C302" s="239"/>
+      <c r="B302" s="258"/>
+      <c r="C302" s="258"/>
       <c r="D302" s="206"/>
-      <c r="E302" s="237"/>
+      <c r="E302" s="250"/>
       <c r="F302" s="118"/>
       <c r="G302" s="118"/>
       <c r="H302" s="118"/>
@@ -13353,10 +13353,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="166"/>
-      <c r="B303" s="239"/>
-      <c r="C303" s="239"/>
+      <c r="B303" s="258"/>
+      <c r="C303" s="258"/>
       <c r="D303" s="206"/>
-      <c r="E303" s="237"/>
+      <c r="E303" s="250"/>
       <c r="F303" s="118"/>
       <c r="G303" s="118"/>
       <c r="H303" s="118"/>
@@ -13384,10 +13384,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="166"/>
-      <c r="B304" s="239"/>
-      <c r="C304" s="239"/>
+      <c r="B304" s="258"/>
+      <c r="C304" s="258"/>
       <c r="D304" s="144"/>
-      <c r="E304" s="237"/>
+      <c r="E304" s="250"/>
       <c r="F304" s="118"/>
       <c r="G304" s="118"/>
       <c r="H304" s="118"/>
@@ -15523,11 +15523,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D19:D46"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="B275:B304"/>
+    <mergeCell ref="C275:C288"/>
+    <mergeCell ref="C295:C304"/>
+    <mergeCell ref="D172:D180"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="E295:E300"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="E275:E282"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="K223:K225"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D160:D170"/>
     <mergeCell ref="M160:M167"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -15544,34 +15567,11 @@
     <mergeCell ref="D93:D102"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="D10:D17"/>
-    <mergeCell ref="K223:K225"/>
-    <mergeCell ref="L223:L225"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D160:D170"/>
-    <mergeCell ref="E295:E300"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="E275:E282"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="E290:E291"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="D19:D46"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="B275:B304"/>
-    <mergeCell ref="C275:C288"/>
-    <mergeCell ref="C295:C304"/>
-    <mergeCell ref="D172:D180"/>
-    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="K206:K211 K213:K214 K251 K265:K274 L81:L91 L93:L96 L98:L102 L104:L105 L107:L111 L113 L115:L372 L48:L52 L58:L79 L19:L46">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
@@ -15902,7 +15902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/RFL_Best_Buy.xlsx
+++ b/RFL_Best_Buy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps" sheetId="2" r:id="rId1"/>
@@ -3045,20 +3045,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3070,62 +3067,20 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3133,44 +3088,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3178,6 +3106,78 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4163,14 +4163,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>14451</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4191,8 +4191,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9768702" cy="7224143"/>
+          <a:off x="0" y="212926"/>
+          <a:ext cx="11890374" cy="8939012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4508,7 +4508,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="96" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
@@ -4547,39 +4547,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="280" t="s">
+      <c r="C5" s="287" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="287" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4595,13 +4595,13 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="280">
+      <c r="C7" s="287">
         <v>1</v>
       </c>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="287"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>41</v>
@@ -4616,13 +4616,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="280" t="s">
+      <c r="C8" s="287" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="280"/>
-      <c r="E8" s="280"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="280"/>
+      <c r="D8" s="287"/>
+      <c r="E8" s="287"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>7</v>
@@ -4637,13 +4637,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="280" t="s">
+      <c r="C9" s="287" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="280"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="280"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="287"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -4670,11 +4670,11 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -4690,22 +4690,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="281" t="s">
+      <c r="B11" s="288" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="281"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="281"/>
-      <c r="C12" s="281"/>
-      <c r="D12" s="281"/>
-      <c r="E12" s="281"/>
-      <c r="F12" s="281"/>
-      <c r="G12" s="281"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="288"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="288"/>
+      <c r="F12" s="288"/>
+      <c r="G12" s="288"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -4840,21 +4840,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="282" t="s">
+      <c r="B18" s="289" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="282"/>
-      <c r="G18" s="282"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289"/>
+      <c r="G18" s="289"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="283" t="s">
+      <c r="B19" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="283"/>
-      <c r="D19" s="283"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>25</v>
@@ -4864,11 +4864,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="284" t="s">
+      <c r="B20" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="284"/>
-      <c r="D20" s="284"/>
+      <c r="C20" s="283"/>
+      <c r="D20" s="283"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>28</v>
@@ -4878,11 +4878,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="284"/>
-      <c r="D21" s="284"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>28</v>
@@ -4893,306 +4893,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="285"/>
-      <c r="C23" s="286" t="s">
+      <c r="B23" s="284"/>
+      <c r="C23" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="287" t="s">
+      <c r="D23" s="286" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="287"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="287"/>
+      <c r="E23" s="286"/>
+      <c r="F23" s="286"/>
+      <c r="G23" s="286"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="285"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
+      <c r="B24" s="284"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="286"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="285"/>
-      <c r="C25" s="285"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
+      <c r="B25" s="284"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="286"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="286"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="285"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="287"/>
+      <c r="B26" s="284"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="286"/>
+      <c r="F26" s="286"/>
+      <c r="G26" s="286"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="288" t="s">
+      <c r="B27" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="289" t="s">
+      <c r="C27" s="282" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="290" t="s">
+      <c r="D27" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="288"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="279"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="281"/>
+      <c r="G28" s="281"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="288"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="290"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="279"/>
+      <c r="D29" s="281"/>
+      <c r="E29" s="281"/>
+      <c r="F29" s="281"/>
+      <c r="G29" s="281"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="288"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="279"/>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="281"/>
+      <c r="G30" s="281"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="288" t="s">
+      <c r="B31" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="289" t="s">
+      <c r="C31" s="282" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="290"/>
+      <c r="E31" s="281"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="281"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="288"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="290"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="279"/>
+      <c r="D32" s="281"/>
+      <c r="E32" s="281"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="281"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="288"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="279"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="281"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="288"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="290"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="290"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="279"/>
+      <c r="D34" s="281"/>
+      <c r="E34" s="281"/>
+      <c r="F34" s="281"/>
+      <c r="G34" s="281"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="289" t="s">
+      <c r="C35" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="281" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
+      <c r="E35" s="281"/>
+      <c r="F35" s="281"/>
+      <c r="G35" s="281"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="288"/>
-      <c r="C36" s="288"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="279"/>
+      <c r="D36" s="281"/>
+      <c r="E36" s="281"/>
+      <c r="F36" s="281"/>
+      <c r="G36" s="281"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="288"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="290"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="279"/>
+      <c r="D37" s="281"/>
+      <c r="E37" s="281"/>
+      <c r="F37" s="281"/>
+      <c r="G37" s="281"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="288"/>
-      <c r="C38" s="288"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="281"/>
+      <c r="G38" s="281"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="289" t="s">
+      <c r="C39" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="290"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="288"/>
-      <c r="C40" s="288"/>
-      <c r="D40" s="290"/>
-      <c r="E40" s="290"/>
-      <c r="F40" s="290"/>
-      <c r="G40" s="290"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="279"/>
+      <c r="D40" s="281"/>
+      <c r="E40" s="281"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="281"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="288"/>
-      <c r="C41" s="288"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="279"/>
+      <c r="D41" s="281"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="288"/>
-      <c r="C42" s="288"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="279"/>
+      <c r="D42" s="281"/>
+      <c r="E42" s="281"/>
+      <c r="F42" s="281"/>
+      <c r="G42" s="281"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="291" t="s">
+      <c r="C43" s="280" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="281" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="290"/>
-      <c r="F43" s="290"/>
-      <c r="G43" s="290"/>
+      <c r="E43" s="281"/>
+      <c r="F43" s="281"/>
+      <c r="G43" s="281"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="288"/>
-      <c r="C44" s="288"/>
-      <c r="D44" s="290"/>
-      <c r="E44" s="290"/>
-      <c r="F44" s="290"/>
-      <c r="G44" s="290"/>
+      <c r="B44" s="279"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="281"/>
+      <c r="E44" s="281"/>
+      <c r="F44" s="281"/>
+      <c r="G44" s="281"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="288"/>
-      <c r="C45" s="288"/>
-      <c r="D45" s="290"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="290"/>
-      <c r="G45" s="290"/>
+      <c r="B45" s="279"/>
+      <c r="C45" s="279"/>
+      <c r="D45" s="281"/>
+      <c r="E45" s="281"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="281"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="288"/>
-      <c r="C46" s="288"/>
-      <c r="D46" s="290"/>
-      <c r="E46" s="290"/>
-      <c r="F46" s="290"/>
-      <c r="G46" s="290"/>
+      <c r="B46" s="279"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="281"/>
+      <c r="E46" s="281"/>
+      <c r="F46" s="281"/>
+      <c r="G46" s="281"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="288" t="s">
+      <c r="B47" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="291" t="s">
+      <c r="C47" s="280" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="290"/>
-      <c r="F47" s="290"/>
-      <c r="G47" s="290"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="281"/>
+      <c r="G47" s="281"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="288"/>
-      <c r="C48" s="288"/>
-      <c r="D48" s="290"/>
-      <c r="E48" s="290"/>
-      <c r="F48" s="290"/>
-      <c r="G48" s="290"/>
+      <c r="B48" s="279"/>
+      <c r="C48" s="279"/>
+      <c r="D48" s="281"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="281"/>
+      <c r="G48" s="281"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="288"/>
-      <c r="C49" s="288"/>
-      <c r="D49" s="290"/>
-      <c r="E49" s="290"/>
-      <c r="F49" s="290"/>
-      <c r="G49" s="290"/>
+      <c r="B49" s="279"/>
+      <c r="C49" s="279"/>
+      <c r="D49" s="281"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="281"/>
+      <c r="G49" s="281"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="288"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="290"/>
-      <c r="E50" s="290"/>
-      <c r="F50" s="290"/>
-      <c r="G50" s="290"/>
+      <c r="B50" s="279"/>
+      <c r="C50" s="279"/>
+      <c r="D50" s="281"/>
+      <c r="E50" s="281"/>
+      <c r="F50" s="281"/>
+      <c r="G50" s="281"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="288" t="s">
+      <c r="B51" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="291" t="s">
+      <c r="C51" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="290" t="s">
+      <c r="D51" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="290"/>
-      <c r="F51" s="290"/>
-      <c r="G51" s="290"/>
+      <c r="E51" s="281"/>
+      <c r="F51" s="281"/>
+      <c r="G51" s="281"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="288"/>
-      <c r="C52" s="288"/>
-      <c r="D52" s="290"/>
-      <c r="E52" s="290"/>
-      <c r="F52" s="290"/>
-      <c r="G52" s="290"/>
+      <c r="B52" s="279"/>
+      <c r="C52" s="279"/>
+      <c r="D52" s="281"/>
+      <c r="E52" s="281"/>
+      <c r="F52" s="281"/>
+      <c r="G52" s="281"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="288"/>
-      <c r="C53" s="288"/>
-      <c r="D53" s="290"/>
-      <c r="E53" s="290"/>
-      <c r="F53" s="290"/>
-      <c r="G53" s="290"/>
+      <c r="B53" s="279"/>
+      <c r="C53" s="279"/>
+      <c r="D53" s="281"/>
+      <c r="E53" s="281"/>
+      <c r="F53" s="281"/>
+      <c r="G53" s="281"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="288"/>
-      <c r="C54" s="288"/>
-      <c r="D54" s="290"/>
-      <c r="E54" s="290"/>
-      <c r="F54" s="290"/>
-      <c r="G54" s="290"/>
+      <c r="B54" s="279"/>
+      <c r="C54" s="279"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="281"/>
+      <c r="F54" s="281"/>
+      <c r="G54" s="281"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -5393,6 +5393,33 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:G54"/>
@@ -5402,33 +5429,6 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5465,10 +5465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="324" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="292"/>
+      <c r="B1" s="324"/>
       <c r="C1" s="260" t="s">
         <v>213</v>
       </c>
@@ -5488,10 +5488,10 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="293" t="s">
+      <c r="L1" s="325" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="293"/>
+      <c r="M1" s="325"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -5510,10 +5510,10 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="324" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="292"/>
+      <c r="B2" s="324"/>
       <c r="C2" s="39" t="s">
         <v>218</v>
       </c>
@@ -5558,10 +5558,10 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="324" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="292"/>
+      <c r="B3" s="324"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
         <v>55</v>
@@ -5604,10 +5604,10 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="292"/>
+      <c r="B4" s="324"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
         <v>59</v>
@@ -5648,15 +5648,15 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" s="50" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="297" t="s">
+      <c r="A5" s="314" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="298"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
@@ -5860,13 +5860,13 @@
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="317" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="307" t="s">
+      <c r="D10" s="292" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="62" t="s">
@@ -5911,9 +5911,9 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="299"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="308"/>
+      <c r="B11" s="316"/>
+      <c r="C11" s="317"/>
+      <c r="D11" s="293"/>
       <c r="E11" s="62" t="s">
         <v>222</v>
       </c>
@@ -5956,9 +5956,9 @@
       <c r="A12" s="77">
         <v>4</v>
       </c>
-      <c r="B12" s="299"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="308"/>
+      <c r="B12" s="316"/>
+      <c r="C12" s="317"/>
+      <c r="D12" s="293"/>
       <c r="E12" s="62" t="s">
         <v>87</v>
       </c>
@@ -6001,9 +6001,9 @@
       <c r="A13" s="77">
         <v>5</v>
       </c>
-      <c r="B13" s="299"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="308"/>
+      <c r="B13" s="316"/>
+      <c r="C13" s="317"/>
+      <c r="D13" s="293"/>
       <c r="E13" s="62" t="s">
         <v>89</v>
       </c>
@@ -6046,9 +6046,9 @@
       <c r="A14" s="77">
         <v>6</v>
       </c>
-      <c r="B14" s="299"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="308"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="317"/>
+      <c r="D14" s="293"/>
       <c r="E14" s="62" t="s">
         <v>91</v>
       </c>
@@ -6091,9 +6091,9 @@
       <c r="A15" s="77">
         <v>7</v>
       </c>
-      <c r="B15" s="299"/>
-      <c r="C15" s="300"/>
-      <c r="D15" s="308"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="293"/>
       <c r="E15" s="62" t="s">
         <v>227</v>
       </c>
@@ -6136,9 +6136,9 @@
       <c r="A16" s="77">
         <v>8</v>
       </c>
-      <c r="B16" s="299"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="308"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="317"/>
+      <c r="D16" s="293"/>
       <c r="E16" s="62" t="s">
         <v>94</v>
       </c>
@@ -6181,9 +6181,9 @@
       <c r="A17" s="77">
         <v>9</v>
       </c>
-      <c r="B17" s="299"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="308"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="293"/>
       <c r="E17" s="62" t="s">
         <v>95</v>
       </c>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="18" spans="1:29" s="91" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="69"/>
-      <c r="B18" s="299"/>
+      <c r="B18" s="316"/>
       <c r="C18" s="262"/>
       <c r="D18" s="264"/>
       <c r="E18" s="263"/>
@@ -6257,11 +6257,11 @@
       <c r="A19" s="92">
         <v>10</v>
       </c>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299" t="s">
+      <c r="B19" s="316"/>
+      <c r="C19" s="316" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="307" t="s">
+      <c r="D19" s="292" t="s">
         <v>219</v>
       </c>
       <c r="E19" s="93" t="s">
@@ -6306,9 +6306,9 @@
       <c r="A20" s="92">
         <v>11</v>
       </c>
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="308"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="293"/>
       <c r="E20" s="93" t="s">
         <v>100</v>
       </c>
@@ -6351,9 +6351,9 @@
       <c r="A21" s="92">
         <v>12</v>
       </c>
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="308"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="101" t="s">
         <v>236</v>
       </c>
@@ -6398,9 +6398,9 @@
       <c r="A22" s="92">
         <v>13</v>
       </c>
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="308"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="316"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="101" t="s">
         <v>104</v>
       </c>
@@ -6445,9 +6445,9 @@
       <c r="A23" s="92">
         <v>14</v>
       </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="308"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="293"/>
       <c r="E23" s="101" t="s">
         <v>289</v>
       </c>
@@ -6490,9 +6490,9 @@
       <c r="A24" s="92">
         <v>15</v>
       </c>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="308"/>
+      <c r="B24" s="316"/>
+      <c r="C24" s="316"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="93" t="s">
         <v>106</v>
       </c>
@@ -6537,9 +6537,9 @@
       <c r="A25" s="92">
         <v>16</v>
       </c>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="308"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="293"/>
       <c r="E25" s="93" t="s">
         <v>107</v>
       </c>
@@ -6584,9 +6584,9 @@
       <c r="A26" s="92">
         <v>17</v>
       </c>
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="308"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="93" t="s">
         <v>108</v>
       </c>
@@ -6631,9 +6631,9 @@
       <c r="A27" s="92">
         <v>18</v>
       </c>
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="308"/>
+      <c r="B27" s="316"/>
+      <c r="C27" s="316"/>
+      <c r="D27" s="293"/>
       <c r="E27" s="93" t="s">
         <v>109</v>
       </c>
@@ -6678,9 +6678,9 @@
       <c r="A28" s="92">
         <v>19</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="308"/>
+      <c r="B28" s="316"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="293"/>
       <c r="E28" s="93" t="s">
         <v>110</v>
       </c>
@@ -6723,9 +6723,9 @@
       <c r="A29" s="92">
         <v>20</v>
       </c>
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="308"/>
+      <c r="B29" s="316"/>
+      <c r="C29" s="316"/>
+      <c r="D29" s="293"/>
       <c r="E29" s="93" t="s">
         <v>111</v>
       </c>
@@ -6770,9 +6770,9 @@
       <c r="A30" s="92">
         <v>21</v>
       </c>
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="308"/>
+      <c r="B30" s="316"/>
+      <c r="C30" s="316"/>
+      <c r="D30" s="293"/>
       <c r="E30" s="93" t="s">
         <v>112</v>
       </c>
@@ -6815,9 +6815,9 @@
       <c r="A31" s="92">
         <v>23</v>
       </c>
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="308"/>
+      <c r="B31" s="316"/>
+      <c r="C31" s="316"/>
+      <c r="D31" s="293"/>
       <c r="E31" s="93" t="s">
         <v>114</v>
       </c>
@@ -6860,9 +6860,9 @@
       <c r="A32" s="92">
         <v>24</v>
       </c>
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="308"/>
+      <c r="B32" s="316"/>
+      <c r="C32" s="316"/>
+      <c r="D32" s="293"/>
       <c r="E32" s="101" t="s">
         <v>117</v>
       </c>
@@ -6905,9 +6905,9 @@
       <c r="A33" s="92">
         <v>25</v>
       </c>
-      <c r="B33" s="299"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="308"/>
+      <c r="B33" s="316"/>
+      <c r="C33" s="316"/>
+      <c r="D33" s="293"/>
       <c r="E33" s="101" t="s">
         <v>120</v>
       </c>
@@ -6950,9 +6950,9 @@
       <c r="A34" s="92">
         <v>26</v>
       </c>
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="308"/>
+      <c r="B34" s="316"/>
+      <c r="C34" s="316"/>
+      <c r="D34" s="293"/>
       <c r="E34" s="62" t="s">
         <v>121</v>
       </c>
@@ -6995,9 +6995,9 @@
       <c r="A35" s="92">
         <v>27</v>
       </c>
-      <c r="B35" s="299"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="308"/>
+      <c r="B35" s="316"/>
+      <c r="C35" s="316"/>
+      <c r="D35" s="293"/>
       <c r="E35" s="62" t="s">
         <v>124</v>
       </c>
@@ -7040,9 +7040,9 @@
       <c r="A36" s="92">
         <v>28</v>
       </c>
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="308"/>
+      <c r="B36" s="316"/>
+      <c r="C36" s="316"/>
+      <c r="D36" s="293"/>
       <c r="E36" s="62" t="s">
         <v>126</v>
       </c>
@@ -7085,9 +7085,9 @@
       <c r="A37" s="92">
         <v>29</v>
       </c>
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="308"/>
+      <c r="B37" s="316"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="293"/>
       <c r="E37" s="62" t="s">
         <v>129</v>
       </c>
@@ -7130,9 +7130,9 @@
       <c r="A38" s="92">
         <v>30</v>
       </c>
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="308"/>
+      <c r="B38" s="316"/>
+      <c r="C38" s="316"/>
+      <c r="D38" s="293"/>
       <c r="E38" s="62" t="s">
         <v>131</v>
       </c>
@@ -7175,9 +7175,9 @@
       <c r="A39" s="92">
         <v>31</v>
       </c>
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="308"/>
+      <c r="B39" s="316"/>
+      <c r="C39" s="316"/>
+      <c r="D39" s="293"/>
       <c r="E39" s="62" t="s">
         <v>133</v>
       </c>
@@ -7220,9 +7220,9 @@
       <c r="A40" s="92">
         <v>32</v>
       </c>
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="308"/>
+      <c r="B40" s="316"/>
+      <c r="C40" s="316"/>
+      <c r="D40" s="293"/>
       <c r="E40" s="62" t="s">
         <v>135</v>
       </c>
@@ -7265,9 +7265,9 @@
       <c r="A41" s="92">
         <v>44</v>
       </c>
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="308"/>
+      <c r="B41" s="316"/>
+      <c r="C41" s="316"/>
+      <c r="D41" s="293"/>
       <c r="E41" s="94" t="s">
         <v>137</v>
       </c>
@@ -7310,9 +7310,9 @@
       <c r="A42" s="92">
         <v>45</v>
       </c>
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="308"/>
+      <c r="B42" s="316"/>
+      <c r="C42" s="316"/>
+      <c r="D42" s="293"/>
       <c r="E42" s="94" t="s">
         <v>139</v>
       </c>
@@ -7353,9 +7353,9 @@
     </row>
     <row r="43" spans="1:29" s="108" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="104"/>
-      <c r="B43" s="299"/>
+      <c r="B43" s="316"/>
       <c r="C43" s="105"/>
-      <c r="D43" s="308"/>
+      <c r="D43" s="293"/>
       <c r="E43" s="106"/>
       <c r="F43" s="85"/>
       <c r="G43" s="85"/>
@@ -7386,11 +7386,11 @@
       <c r="A44" s="92">
         <v>48</v>
       </c>
-      <c r="B44" s="299"/>
-      <c r="C44" s="299" t="s">
+      <c r="B44" s="316"/>
+      <c r="C44" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="308"/>
+      <c r="D44" s="293"/>
       <c r="E44" s="101" t="s">
         <v>141</v>
       </c>
@@ -7433,9 +7433,9 @@
       <c r="A45" s="92">
         <v>49</v>
       </c>
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="308"/>
+      <c r="B45" s="316"/>
+      <c r="C45" s="316"/>
+      <c r="D45" s="293"/>
       <c r="E45" s="109" t="s">
         <v>145</v>
       </c>
@@ -7478,9 +7478,9 @@
       <c r="A46" s="92">
         <v>50</v>
       </c>
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="321"/>
+      <c r="B46" s="316"/>
+      <c r="C46" s="316"/>
+      <c r="D46" s="294"/>
       <c r="E46" s="109" t="s">
         <v>148</v>
       </c>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="47" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="266"/>
-      <c r="B47" s="299"/>
+      <c r="B47" s="316"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="112"/>
@@ -7554,11 +7554,11 @@
       <c r="A48" s="92">
         <v>51</v>
       </c>
-      <c r="B48" s="299"/>
-      <c r="C48" s="301" t="s">
+      <c r="B48" s="316"/>
+      <c r="C48" s="318" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="318" t="s">
         <v>152</v>
       </c>
       <c r="E48" s="94" t="s">
@@ -7603,9 +7603,9 @@
       <c r="A49" s="92">
         <v>52</v>
       </c>
-      <c r="B49" s="299"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="301"/>
+      <c r="B49" s="316"/>
+      <c r="C49" s="318"/>
+      <c r="D49" s="318"/>
       <c r="E49" s="101" t="s">
         <v>155</v>
       </c>
@@ -7648,9 +7648,9 @@
       <c r="A50" s="92">
         <v>53</v>
       </c>
-      <c r="B50" s="299"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="301"/>
+      <c r="B50" s="316"/>
+      <c r="C50" s="318"/>
+      <c r="D50" s="318"/>
       <c r="E50" s="101" t="s">
         <v>156</v>
       </c>
@@ -7693,9 +7693,9 @@
       <c r="A51" s="92">
         <v>54</v>
       </c>
-      <c r="B51" s="299"/>
-      <c r="C51" s="301"/>
-      <c r="D51" s="301"/>
+      <c r="B51" s="316"/>
+      <c r="C51" s="318"/>
+      <c r="D51" s="318"/>
       <c r="E51" s="101" t="s">
         <v>158</v>
       </c>
@@ -7738,9 +7738,9 @@
       <c r="A52" s="92">
         <v>55</v>
       </c>
-      <c r="B52" s="299"/>
-      <c r="C52" s="301"/>
-      <c r="D52" s="301"/>
+      <c r="B52" s="316"/>
+      <c r="C52" s="318"/>
+      <c r="D52" s="318"/>
       <c r="E52" s="101" t="s">
         <v>160</v>
       </c>
@@ -7783,9 +7783,9 @@
       <c r="A53" s="92">
         <v>56</v>
       </c>
-      <c r="B53" s="299"/>
-      <c r="C53" s="301"/>
-      <c r="D53" s="301"/>
+      <c r="B53" s="316"/>
+      <c r="C53" s="318"/>
+      <c r="D53" s="318"/>
       <c r="E53" s="79" t="s">
         <v>162</v>
       </c>
@@ -7828,9 +7828,9 @@
       <c r="A54" s="92">
         <v>57</v>
       </c>
-      <c r="B54" s="299"/>
-      <c r="C54" s="301"/>
-      <c r="D54" s="301"/>
+      <c r="B54" s="316"/>
+      <c r="C54" s="318"/>
+      <c r="D54" s="318"/>
       <c r="E54" s="101" t="s">
         <v>165</v>
       </c>
@@ -7873,9 +7873,9 @@
       <c r="A55" s="92">
         <v>58</v>
       </c>
-      <c r="B55" s="299"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="301"/>
+      <c r="B55" s="316"/>
+      <c r="C55" s="318"/>
+      <c r="D55" s="318"/>
       <c r="E55" s="101" t="s">
         <v>167</v>
       </c>
@@ -7918,9 +7918,9 @@
       <c r="A56" s="92">
         <v>59</v>
       </c>
-      <c r="B56" s="299"/>
-      <c r="C56" s="301"/>
-      <c r="D56" s="301"/>
+      <c r="B56" s="316"/>
+      <c r="C56" s="318"/>
+      <c r="D56" s="318"/>
       <c r="E56" s="101" t="s">
         <v>169</v>
       </c>
@@ -7963,9 +7963,9 @@
       <c r="A57" s="92">
         <v>60</v>
       </c>
-      <c r="B57" s="299"/>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
+      <c r="B57" s="316"/>
+      <c r="C57" s="318"/>
+      <c r="D57" s="318"/>
       <c r="E57" s="101" t="s">
         <v>172</v>
       </c>
@@ -8008,9 +8008,9 @@
       <c r="A58" s="92">
         <v>61</v>
       </c>
-      <c r="B58" s="299"/>
-      <c r="C58" s="301"/>
-      <c r="D58" s="301"/>
+      <c r="B58" s="316"/>
+      <c r="C58" s="318"/>
+      <c r="D58" s="318"/>
       <c r="E58" s="93" t="s">
         <v>174</v>
       </c>
@@ -8053,9 +8053,9 @@
       <c r="A59" s="92">
         <v>62</v>
       </c>
-      <c r="B59" s="299"/>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
+      <c r="B59" s="316"/>
+      <c r="C59" s="318"/>
+      <c r="D59" s="318"/>
       <c r="E59" s="101" t="s">
         <v>176</v>
       </c>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="60" spans="1:29" s="108" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="104"/>
-      <c r="B60" s="299"/>
+      <c r="B60" s="316"/>
       <c r="C60" s="119"/>
       <c r="D60" s="120"/>
       <c r="E60" s="121"/>
@@ -8127,9 +8127,9 @@
     </row>
     <row r="61" spans="1:29" s="99" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="92"/>
-      <c r="B61" s="299"/>
-      <c r="C61" s="323"/>
-      <c r="D61" s="302" t="s">
+      <c r="B61" s="316"/>
+      <c r="C61" s="299"/>
+      <c r="D61" s="319" t="s">
         <v>178</v>
       </c>
       <c r="E61" s="101" t="s">
@@ -8162,9 +8162,9 @@
     </row>
     <row r="62" spans="1:29" s="99" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A62" s="92"/>
-      <c r="B62" s="299"/>
-      <c r="C62" s="324"/>
-      <c r="D62" s="302"/>
+      <c r="B62" s="316"/>
+      <c r="C62" s="300"/>
+      <c r="D62" s="319"/>
       <c r="E62" s="101" t="s">
         <v>180</v>
       </c>
@@ -8195,9 +8195,9 @@
     </row>
     <row r="63" spans="1:29" s="99" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A63" s="92"/>
-      <c r="B63" s="299"/>
-      <c r="C63" s="324"/>
-      <c r="D63" s="302"/>
+      <c r="B63" s="316"/>
+      <c r="C63" s="300"/>
+      <c r="D63" s="319"/>
       <c r="E63" s="94" t="s">
         <v>181</v>
       </c>
@@ -8228,9 +8228,9 @@
     </row>
     <row r="64" spans="1:29" s="99" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="92"/>
-      <c r="B64" s="299"/>
-      <c r="C64" s="325"/>
-      <c r="D64" s="302"/>
+      <c r="B64" s="316"/>
+      <c r="C64" s="301"/>
+      <c r="D64" s="319"/>
       <c r="E64" s="94" t="s">
         <v>182</v>
       </c>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="65" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="92"/>
-      <c r="B65" s="299"/>
+      <c r="B65" s="316"/>
       <c r="C65" s="265"/>
       <c r="D65" s="124"/>
       <c r="E65" s="125"/>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="66" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="126"/>
-      <c r="B66" s="299"/>
+      <c r="B66" s="316"/>
       <c r="C66" s="123"/>
       <c r="D66" s="124"/>
       <c r="E66" s="125"/>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="67" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="126"/>
-      <c r="B67" s="299"/>
+      <c r="B67" s="316"/>
       <c r="C67" s="123"/>
       <c r="D67" s="124"/>
       <c r="E67" s="127"/>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="68" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="126"/>
-      <c r="B68" s="299"/>
+      <c r="B68" s="316"/>
       <c r="C68" s="123"/>
       <c r="D68" s="124"/>
       <c r="E68" s="127"/>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="69" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="126"/>
-      <c r="B69" s="299"/>
+      <c r="B69" s="316"/>
       <c r="C69" s="123"/>
       <c r="D69" s="124"/>
       <c r="E69" s="127"/>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="70" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="126"/>
-      <c r="B70" s="299"/>
+      <c r="B70" s="316"/>
       <c r="C70" s="123"/>
       <c r="D70" s="124"/>
       <c r="E70" s="127"/>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="71" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="126"/>
-      <c r="B71" s="299"/>
+      <c r="B71" s="316"/>
       <c r="C71" s="123"/>
       <c r="D71" s="128"/>
       <c r="E71" s="127"/>
@@ -8478,9 +8478,9 @@
     </row>
     <row r="72" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="126"/>
-      <c r="B72" s="299"/>
+      <c r="B72" s="316"/>
       <c r="C72" s="123"/>
-      <c r="D72" s="303"/>
+      <c r="D72" s="320"/>
       <c r="E72" s="127"/>
       <c r="F72" s="77"/>
       <c r="G72" s="94"/>
@@ -8509,9 +8509,9 @@
     </row>
     <row r="73" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="126"/>
-      <c r="B73" s="299"/>
+      <c r="B73" s="316"/>
       <c r="C73" s="123"/>
-      <c r="D73" s="303"/>
+      <c r="D73" s="320"/>
       <c r="E73" s="127"/>
       <c r="F73" s="94"/>
       <c r="G73" s="94"/>
@@ -8540,9 +8540,9 @@
     </row>
     <row r="74" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="126"/>
-      <c r="B74" s="299"/>
+      <c r="B74" s="316"/>
       <c r="C74" s="123"/>
-      <c r="D74" s="303"/>
+      <c r="D74" s="320"/>
       <c r="E74" s="129"/>
       <c r="F74" s="62"/>
       <c r="G74" s="94"/>
@@ -8571,9 +8571,9 @@
     </row>
     <row r="75" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="126"/>
-      <c r="B75" s="299"/>
+      <c r="B75" s="316"/>
       <c r="C75" s="123"/>
-      <c r="D75" s="303"/>
+      <c r="D75" s="320"/>
       <c r="E75" s="129"/>
       <c r="F75" s="62"/>
       <c r="G75" s="94"/>
@@ -8602,9 +8602,9 @@
     </row>
     <row r="76" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="126"/>
-      <c r="B76" s="299"/>
+      <c r="B76" s="316"/>
       <c r="C76" s="123"/>
-      <c r="D76" s="303"/>
+      <c r="D76" s="320"/>
       <c r="E76" s="129"/>
       <c r="F76" s="62"/>
       <c r="G76" s="94"/>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="77" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="126"/>
-      <c r="B77" s="299"/>
+      <c r="B77" s="316"/>
       <c r="C77" s="123"/>
       <c r="D77" s="130"/>
       <c r="E77" s="131"/>
@@ -8664,9 +8664,9 @@
     </row>
     <row r="78" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="126"/>
-      <c r="B78" s="299"/>
+      <c r="B78" s="316"/>
       <c r="C78" s="123"/>
-      <c r="D78" s="303"/>
+      <c r="D78" s="320"/>
       <c r="E78" s="125"/>
       <c r="F78" s="94"/>
       <c r="G78" s="94"/>
@@ -8695,9 +8695,9 @@
     </row>
     <row r="79" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="126"/>
-      <c r="B79" s="299"/>
+      <c r="B79" s="316"/>
       <c r="C79" s="123"/>
-      <c r="D79" s="303"/>
+      <c r="D79" s="320"/>
       <c r="E79" s="125"/>
       <c r="F79" s="94"/>
       <c r="G79" s="94"/>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="80" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="126"/>
-      <c r="B80" s="299"/>
+      <c r="B80" s="316"/>
       <c r="C80" s="123"/>
       <c r="D80" s="132"/>
       <c r="E80" s="127"/>
@@ -8757,9 +8757,9 @@
     </row>
     <row r="81" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="126"/>
-      <c r="B81" s="299"/>
+      <c r="B81" s="316"/>
       <c r="C81" s="123"/>
-      <c r="D81" s="304"/>
+      <c r="D81" s="321"/>
       <c r="E81" s="127"/>
       <c r="F81" s="94"/>
       <c r="G81" s="94"/>
@@ -8788,9 +8788,9 @@
     </row>
     <row r="82" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="126"/>
-      <c r="B82" s="299"/>
+      <c r="B82" s="316"/>
       <c r="C82" s="123"/>
-      <c r="D82" s="304"/>
+      <c r="D82" s="321"/>
       <c r="E82" s="127"/>
       <c r="F82" s="94"/>
       <c r="G82" s="94"/>
@@ -8819,9 +8819,9 @@
     </row>
     <row r="83" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="126"/>
-      <c r="B83" s="299"/>
+      <c r="B83" s="316"/>
       <c r="C83" s="123"/>
-      <c r="D83" s="304"/>
+      <c r="D83" s="321"/>
       <c r="E83" s="129"/>
       <c r="F83" s="62"/>
       <c r="G83" s="94"/>
@@ -8850,9 +8850,9 @@
     </row>
     <row r="84" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="126"/>
-      <c r="B84" s="299"/>
+      <c r="B84" s="316"/>
       <c r="C84" s="123"/>
-      <c r="D84" s="304"/>
+      <c r="D84" s="321"/>
       <c r="E84" s="125"/>
       <c r="F84" s="94"/>
       <c r="G84" s="94"/>
@@ -8881,9 +8881,9 @@
     </row>
     <row r="85" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="126"/>
-      <c r="B85" s="299"/>
+      <c r="B85" s="316"/>
       <c r="C85" s="123"/>
-      <c r="D85" s="304"/>
+      <c r="D85" s="321"/>
       <c r="E85" s="125"/>
       <c r="F85" s="94"/>
       <c r="G85" s="94"/>
@@ -8912,9 +8912,9 @@
     </row>
     <row r="86" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="126"/>
-      <c r="B86" s="299"/>
+      <c r="B86" s="316"/>
       <c r="C86" s="123"/>
-      <c r="D86" s="304"/>
+      <c r="D86" s="321"/>
       <c r="E86" s="127"/>
       <c r="F86" s="94"/>
       <c r="G86" s="94"/>
@@ -8943,9 +8943,9 @@
     </row>
     <row r="87" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="126"/>
-      <c r="B87" s="299"/>
+      <c r="B87" s="316"/>
       <c r="C87" s="123"/>
-      <c r="D87" s="304"/>
+      <c r="D87" s="321"/>
       <c r="E87" s="127"/>
       <c r="F87" s="94"/>
       <c r="G87" s="94"/>
@@ -8974,9 +8974,9 @@
     </row>
     <row r="88" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="126"/>
-      <c r="B88" s="299"/>
+      <c r="B88" s="316"/>
       <c r="C88" s="123"/>
-      <c r="D88" s="304"/>
+      <c r="D88" s="321"/>
       <c r="E88" s="127"/>
       <c r="F88" s="94"/>
       <c r="G88" s="94"/>
@@ -9005,9 +9005,9 @@
     </row>
     <row r="89" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" s="126"/>
-      <c r="B89" s="299"/>
+      <c r="B89" s="316"/>
       <c r="C89" s="123"/>
-      <c r="D89" s="304"/>
+      <c r="D89" s="321"/>
       <c r="E89" s="129"/>
       <c r="F89" s="62"/>
       <c r="G89" s="94"/>
@@ -9036,9 +9036,9 @@
     </row>
     <row r="90" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="126"/>
-      <c r="B90" s="299"/>
+      <c r="B90" s="316"/>
       <c r="C90" s="123"/>
-      <c r="D90" s="304"/>
+      <c r="D90" s="321"/>
       <c r="E90" s="131"/>
       <c r="F90" s="100"/>
       <c r="G90" s="100"/>
@@ -9067,9 +9067,9 @@
     </row>
     <row r="91" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A91" s="126"/>
-      <c r="B91" s="299"/>
+      <c r="B91" s="316"/>
       <c r="C91" s="123"/>
-      <c r="D91" s="304"/>
+      <c r="D91" s="321"/>
       <c r="E91" s="125"/>
       <c r="F91" s="94"/>
       <c r="G91" s="94"/>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="92" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A92" s="126"/>
-      <c r="B92" s="299"/>
+      <c r="B92" s="316"/>
       <c r="C92" s="123"/>
       <c r="D92" s="132"/>
       <c r="E92" s="125"/>
@@ -9129,9 +9129,9 @@
     </row>
     <row r="93" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A93" s="126"/>
-      <c r="B93" s="299"/>
+      <c r="B93" s="316"/>
       <c r="C93" s="123"/>
-      <c r="D93" s="305"/>
+      <c r="D93" s="322"/>
       <c r="E93" s="127"/>
       <c r="F93" s="94"/>
       <c r="G93" s="94"/>
@@ -9160,9 +9160,9 @@
     </row>
     <row r="94" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A94" s="126"/>
-      <c r="B94" s="299"/>
+      <c r="B94" s="316"/>
       <c r="C94" s="123"/>
-      <c r="D94" s="305"/>
+      <c r="D94" s="322"/>
       <c r="E94" s="127"/>
       <c r="F94" s="94"/>
       <c r="G94" s="94"/>
@@ -9191,9 +9191,9 @@
     </row>
     <row r="95" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A95" s="126"/>
-      <c r="B95" s="299"/>
+      <c r="B95" s="316"/>
       <c r="C95" s="123"/>
-      <c r="D95" s="305"/>
+      <c r="D95" s="322"/>
       <c r="E95" s="127"/>
       <c r="F95" s="94"/>
       <c r="G95" s="94"/>
@@ -9222,9 +9222,9 @@
     </row>
     <row r="96" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A96" s="126"/>
-      <c r="B96" s="299"/>
+      <c r="B96" s="316"/>
       <c r="C96" s="123"/>
-      <c r="D96" s="305"/>
+      <c r="D96" s="322"/>
       <c r="E96" s="129"/>
       <c r="F96" s="62"/>
       <c r="G96" s="94"/>
@@ -9253,9 +9253,9 @@
     </row>
     <row r="97" spans="1:29" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A97" s="134"/>
-      <c r="B97" s="299"/>
+      <c r="B97" s="316"/>
       <c r="C97" s="135"/>
-      <c r="D97" s="305"/>
+      <c r="D97" s="322"/>
       <c r="E97" s="136"/>
       <c r="F97" s="137"/>
       <c r="G97" s="137"/>
@@ -9284,9 +9284,9 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A98" s="141"/>
-      <c r="B98" s="299"/>
+      <c r="B98" s="316"/>
       <c r="C98" s="135"/>
-      <c r="D98" s="305"/>
+      <c r="D98" s="322"/>
       <c r="E98" s="142"/>
       <c r="F98" s="143"/>
       <c r="G98" s="144"/>
@@ -9315,9 +9315,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A99" s="141"/>
-      <c r="B99" s="299"/>
+      <c r="B99" s="316"/>
       <c r="C99" s="135"/>
-      <c r="D99" s="305"/>
+      <c r="D99" s="322"/>
       <c r="E99" s="149"/>
       <c r="F99" s="150"/>
       <c r="G99" s="150"/>
@@ -9346,9 +9346,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A100" s="141"/>
-      <c r="B100" s="299"/>
+      <c r="B100" s="316"/>
       <c r="C100" s="135"/>
-      <c r="D100" s="305"/>
+      <c r="D100" s="322"/>
       <c r="E100" s="149"/>
       <c r="F100" s="150"/>
       <c r="G100" s="150"/>
@@ -9377,9 +9377,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A101" s="141"/>
-      <c r="B101" s="299"/>
+      <c r="B101" s="316"/>
       <c r="C101" s="135"/>
-      <c r="D101" s="305"/>
+      <c r="D101" s="322"/>
       <c r="E101" s="153"/>
       <c r="F101" s="150"/>
       <c r="G101" s="150"/>
@@ -9408,9 +9408,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A102" s="141"/>
-      <c r="B102" s="299"/>
+      <c r="B102" s="316"/>
       <c r="C102" s="135"/>
-      <c r="D102" s="305"/>
+      <c r="D102" s="322"/>
       <c r="E102" s="154"/>
       <c r="F102" s="143"/>
       <c r="G102" s="144"/>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A103" s="141"/>
-      <c r="B103" s="299"/>
+      <c r="B103" s="316"/>
       <c r="C103" s="135"/>
       <c r="D103" s="155"/>
       <c r="E103" s="142"/>
@@ -9470,9 +9470,9 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A104" s="141"/>
-      <c r="B104" s="299"/>
+      <c r="B104" s="316"/>
       <c r="C104" s="135"/>
-      <c r="D104" s="306"/>
+      <c r="D104" s="323"/>
       <c r="E104" s="156"/>
       <c r="F104" s="143"/>
       <c r="G104" s="144"/>
@@ -9501,9 +9501,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A105" s="141"/>
-      <c r="B105" s="299"/>
+      <c r="B105" s="316"/>
       <c r="C105" s="135"/>
-      <c r="D105" s="306"/>
+      <c r="D105" s="323"/>
       <c r="E105" s="158"/>
       <c r="F105" s="150"/>
       <c r="G105" s="150"/>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A106" s="141"/>
-      <c r="B106" s="299"/>
+      <c r="B106" s="316"/>
       <c r="C106" s="135"/>
       <c r="D106" s="9"/>
       <c r="E106" s="159"/>
@@ -9563,9 +9563,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" s="141"/>
-      <c r="B107" s="299"/>
+      <c r="B107" s="316"/>
       <c r="C107" s="135"/>
-      <c r="D107" s="313"/>
+      <c r="D107" s="307"/>
       <c r="E107" s="158"/>
       <c r="F107" s="150"/>
       <c r="G107" s="150"/>
@@ -9594,9 +9594,9 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A108" s="141"/>
-      <c r="B108" s="299"/>
+      <c r="B108" s="316"/>
       <c r="C108" s="135"/>
-      <c r="D108" s="313"/>
+      <c r="D108" s="307"/>
       <c r="E108" s="156"/>
       <c r="F108" s="150"/>
       <c r="G108" s="150"/>
@@ -9625,9 +9625,9 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A109" s="141"/>
-      <c r="B109" s="299"/>
+      <c r="B109" s="316"/>
       <c r="C109" s="135"/>
-      <c r="D109" s="313"/>
+      <c r="D109" s="307"/>
       <c r="E109" s="158"/>
       <c r="F109" s="150"/>
       <c r="G109" s="150"/>
@@ -9656,9 +9656,9 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A110" s="141"/>
-      <c r="B110" s="299"/>
+      <c r="B110" s="316"/>
       <c r="C110" s="135"/>
-      <c r="D110" s="313"/>
+      <c r="D110" s="307"/>
       <c r="E110" s="156"/>
       <c r="F110" s="143"/>
       <c r="G110" s="144"/>
@@ -9687,9 +9687,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A111" s="141"/>
-      <c r="B111" s="299"/>
+      <c r="B111" s="316"/>
       <c r="C111" s="135"/>
-      <c r="D111" s="313"/>
+      <c r="D111" s="307"/>
       <c r="E111" s="160"/>
       <c r="F111" s="161"/>
       <c r="G111" s="152"/>
@@ -9718,9 +9718,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A112" s="141"/>
-      <c r="B112" s="299"/>
+      <c r="B112" s="316"/>
       <c r="C112" s="135"/>
-      <c r="D112" s="313"/>
+      <c r="D112" s="307"/>
       <c r="E112" s="156"/>
       <c r="F112" s="162"/>
       <c r="G112" s="144"/>
@@ -9749,9 +9749,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A113" s="141"/>
-      <c r="B113" s="299"/>
+      <c r="B113" s="316"/>
       <c r="C113" s="135"/>
-      <c r="D113" s="313"/>
+      <c r="D113" s="307"/>
       <c r="E113" s="160"/>
       <c r="F113" s="163"/>
       <c r="G113" s="152"/>
@@ -9780,7 +9780,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A114" s="141"/>
-      <c r="B114" s="299"/>
+      <c r="B114" s="316"/>
       <c r="C114" s="135"/>
       <c r="D114" s="164"/>
       <c r="E114" s="160"/>
@@ -9811,9 +9811,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A115" s="141"/>
-      <c r="B115" s="299"/>
+      <c r="B115" s="316"/>
       <c r="C115" s="135"/>
-      <c r="D115" s="314"/>
+      <c r="D115" s="308"/>
       <c r="E115" s="165"/>
       <c r="F115" s="166"/>
       <c r="G115" s="152"/>
@@ -9842,9 +9842,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A116" s="141"/>
-      <c r="B116" s="299"/>
+      <c r="B116" s="316"/>
       <c r="C116" s="135"/>
-      <c r="D116" s="314"/>
+      <c r="D116" s="308"/>
       <c r="E116" s="160"/>
       <c r="F116" s="166"/>
       <c r="G116" s="152"/>
@@ -9873,9 +9873,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A117" s="141"/>
-      <c r="B117" s="299"/>
+      <c r="B117" s="316"/>
       <c r="C117" s="135"/>
-      <c r="D117" s="314"/>
+      <c r="D117" s="308"/>
       <c r="E117" s="167"/>
       <c r="F117" s="157"/>
       <c r="G117" s="157"/>
@@ -9904,9 +9904,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A118" s="141"/>
-      <c r="B118" s="299"/>
+      <c r="B118" s="316"/>
       <c r="C118" s="135"/>
-      <c r="D118" s="314"/>
+      <c r="D118" s="308"/>
       <c r="E118" s="167"/>
       <c r="F118" s="157"/>
       <c r="G118" s="157"/>
@@ -9935,9 +9935,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A119" s="141"/>
-      <c r="B119" s="299"/>
+      <c r="B119" s="316"/>
       <c r="C119" s="135"/>
-      <c r="D119" s="314"/>
+      <c r="D119" s="308"/>
       <c r="E119" s="167"/>
       <c r="F119" s="157"/>
       <c r="G119" s="157"/>
@@ -9966,9 +9966,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A120" s="141"/>
-      <c r="B120" s="299"/>
+      <c r="B120" s="316"/>
       <c r="C120" s="135"/>
-      <c r="D120" s="314"/>
+      <c r="D120" s="308"/>
       <c r="E120" s="167"/>
       <c r="F120" s="157"/>
       <c r="G120" s="157"/>
@@ -9997,9 +9997,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A121" s="141"/>
-      <c r="B121" s="299"/>
+      <c r="B121" s="316"/>
       <c r="C121" s="135"/>
-      <c r="D121" s="314"/>
+      <c r="D121" s="308"/>
       <c r="E121" s="167"/>
       <c r="F121" s="157"/>
       <c r="G121" s="157"/>
@@ -10028,9 +10028,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A122" s="141"/>
-      <c r="B122" s="299"/>
+      <c r="B122" s="316"/>
       <c r="C122" s="135"/>
-      <c r="D122" s="314"/>
+      <c r="D122" s="308"/>
       <c r="E122" s="167"/>
       <c r="F122" s="157"/>
       <c r="G122" s="157"/>
@@ -10059,9 +10059,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A123" s="141"/>
-      <c r="B123" s="299"/>
+      <c r="B123" s="316"/>
       <c r="C123" s="135"/>
-      <c r="D123" s="314"/>
+      <c r="D123" s="308"/>
       <c r="E123" s="167"/>
       <c r="F123" s="157"/>
       <c r="G123" s="157"/>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A124" s="141"/>
-      <c r="B124" s="299"/>
+      <c r="B124" s="316"/>
       <c r="C124" s="168"/>
       <c r="D124" s="169"/>
       <c r="E124" s="167"/>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A125" s="141"/>
-      <c r="B125" s="299"/>
+      <c r="B125" s="316"/>
       <c r="C125" s="170"/>
       <c r="D125" s="169"/>
       <c r="E125" s="167"/>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A126" s="141"/>
-      <c r="B126" s="299"/>
+      <c r="B126" s="316"/>
       <c r="C126" s="170"/>
       <c r="D126" s="171"/>
       <c r="E126" s="167"/>
@@ -10183,9 +10183,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A127" s="141"/>
-      <c r="B127" s="299"/>
+      <c r="B127" s="316"/>
       <c r="C127" s="170"/>
-      <c r="D127" s="315"/>
+      <c r="D127" s="309"/>
       <c r="E127" s="172"/>
       <c r="F127" s="157"/>
       <c r="G127" s="157"/>
@@ -10214,9 +10214,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A128" s="141"/>
-      <c r="B128" s="299"/>
+      <c r="B128" s="316"/>
       <c r="C128" s="170"/>
-      <c r="D128" s="315"/>
+      <c r="D128" s="309"/>
       <c r="E128" s="172"/>
       <c r="F128" s="157"/>
       <c r="G128" s="157"/>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A129" s="141"/>
-      <c r="B129" s="299"/>
+      <c r="B129" s="316"/>
       <c r="C129" s="170"/>
       <c r="D129" s="173"/>
       <c r="E129" s="167"/>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A130" s="141"/>
-      <c r="B130" s="299"/>
+      <c r="B130" s="316"/>
       <c r="C130" s="170"/>
       <c r="D130" s="174"/>
       <c r="E130" s="167"/>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A131" s="141"/>
-      <c r="B131" s="299"/>
+      <c r="B131" s="316"/>
       <c r="C131" s="170"/>
       <c r="D131" s="174"/>
       <c r="E131" s="175"/>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A132" s="141"/>
-      <c r="B132" s="299"/>
+      <c r="B132" s="316"/>
       <c r="C132" s="170"/>
       <c r="D132" s="174"/>
       <c r="E132" s="167"/>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A133" s="141"/>
-      <c r="B133" s="299"/>
+      <c r="B133" s="316"/>
       <c r="C133" s="170"/>
       <c r="D133" s="174"/>
       <c r="E133" s="167"/>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A134" s="141"/>
-      <c r="B134" s="299"/>
+      <c r="B134" s="316"/>
       <c r="C134" s="170"/>
       <c r="D134" s="174"/>
       <c r="E134" s="167"/>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A135" s="141"/>
-      <c r="B135" s="299"/>
+      <c r="B135" s="316"/>
       <c r="C135" s="170"/>
       <c r="D135" s="174"/>
       <c r="E135" s="167"/>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A136" s="141"/>
-      <c r="B136" s="299"/>
+      <c r="B136" s="316"/>
       <c r="C136" s="170"/>
       <c r="D136" s="174"/>
       <c r="E136" s="175"/>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A137" s="141"/>
-      <c r="B137" s="299"/>
+      <c r="B137" s="316"/>
       <c r="C137" s="170"/>
       <c r="D137" s="174"/>
       <c r="E137" s="175"/>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A138" s="141"/>
-      <c r="B138" s="299"/>
+      <c r="B138" s="316"/>
       <c r="C138" s="170"/>
       <c r="D138" s="174"/>
       <c r="E138" s="175"/>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A139" s="141"/>
-      <c r="B139" s="299"/>
+      <c r="B139" s="316"/>
       <c r="C139" s="170"/>
       <c r="D139" s="174"/>
       <c r="E139" s="167"/>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A140" s="141"/>
-      <c r="B140" s="299"/>
+      <c r="B140" s="316"/>
       <c r="C140" s="170"/>
       <c r="D140" s="174"/>
       <c r="E140" s="167"/>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A141" s="141"/>
-      <c r="B141" s="299"/>
+      <c r="B141" s="316"/>
       <c r="C141" s="170"/>
       <c r="D141" s="174"/>
       <c r="E141" s="167"/>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A142" s="141"/>
-      <c r="B142" s="299"/>
+      <c r="B142" s="316"/>
       <c r="C142" s="170"/>
       <c r="D142" s="174"/>
       <c r="E142" s="167"/>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A143" s="141"/>
-      <c r="B143" s="299"/>
+      <c r="B143" s="316"/>
       <c r="C143" s="170"/>
       <c r="D143" s="174"/>
       <c r="E143" s="167"/>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A144" s="141"/>
-      <c r="B144" s="299"/>
+      <c r="B144" s="316"/>
       <c r="C144" s="170"/>
       <c r="D144" s="174"/>
       <c r="E144" s="167"/>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A145" s="180"/>
-      <c r="B145" s="299"/>
+      <c r="B145" s="316"/>
       <c r="C145" s="170"/>
       <c r="D145" s="181"/>
       <c r="E145" s="182"/>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A146" s="180"/>
-      <c r="B146" s="299"/>
+      <c r="B146" s="316"/>
       <c r="C146" s="170"/>
       <c r="D146" s="183"/>
       <c r="E146" s="167"/>
@@ -10803,7 +10803,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A147" s="180"/>
-      <c r="B147" s="299"/>
+      <c r="B147" s="316"/>
       <c r="C147" s="170"/>
       <c r="D147" s="183"/>
       <c r="E147" s="167"/>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A148" s="180"/>
-      <c r="B148" s="299"/>
+      <c r="B148" s="316"/>
       <c r="C148" s="170"/>
       <c r="D148" s="183"/>
       <c r="E148" s="184"/>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A149" s="180"/>
-      <c r="B149" s="299"/>
+      <c r="B149" s="316"/>
       <c r="C149" s="170"/>
       <c r="D149" s="183"/>
       <c r="E149" s="185"/>
@@ -10896,7 +10896,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A150" s="180"/>
-      <c r="B150" s="299"/>
+      <c r="B150" s="316"/>
       <c r="C150" s="170"/>
       <c r="D150" s="183"/>
       <c r="E150" s="185"/>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A151" s="180"/>
-      <c r="B151" s="299"/>
+      <c r="B151" s="316"/>
       <c r="C151" s="170"/>
       <c r="D151" s="183"/>
       <c r="E151" s="185"/>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A152" s="180"/>
-      <c r="B152" s="299"/>
+      <c r="B152" s="316"/>
       <c r="C152" s="170"/>
       <c r="D152" s="183"/>
       <c r="E152" s="185"/>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A153" s="180"/>
-      <c r="B153" s="299"/>
+      <c r="B153" s="316"/>
       <c r="C153" s="170"/>
       <c r="D153" s="183"/>
       <c r="E153" s="167"/>
@@ -11020,7 +11020,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A154" s="180"/>
-      <c r="B154" s="299"/>
+      <c r="B154" s="316"/>
       <c r="C154" s="170"/>
       <c r="D154" s="183"/>
       <c r="E154" s="167"/>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A155" s="180"/>
-      <c r="B155" s="299"/>
+      <c r="B155" s="316"/>
       <c r="C155" s="170"/>
       <c r="D155" s="183"/>
       <c r="E155" s="167"/>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A156" s="180"/>
-      <c r="B156" s="299"/>
+      <c r="B156" s="316"/>
       <c r="C156" s="170"/>
       <c r="D156" s="183"/>
       <c r="E156" s="167"/>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A157" s="180"/>
-      <c r="B157" s="299"/>
+      <c r="B157" s="316"/>
       <c r="C157" s="170"/>
       <c r="D157" s="183"/>
       <c r="E157" s="182"/>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A158" s="180"/>
-      <c r="B158" s="299"/>
+      <c r="B158" s="316"/>
       <c r="C158" s="170"/>
       <c r="D158" s="186"/>
       <c r="E158" s="187"/>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A159" s="180"/>
-      <c r="B159" s="299"/>
+      <c r="B159" s="316"/>
       <c r="C159" s="170"/>
       <c r="D159" s="188"/>
       <c r="E159" s="182"/>
@@ -11206,9 +11206,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A160" s="180"/>
-      <c r="B160" s="299"/>
+      <c r="B160" s="316"/>
       <c r="C160" s="170"/>
-      <c r="D160" s="316"/>
+      <c r="D160" s="310"/>
       <c r="E160" s="167"/>
       <c r="F160" s="157"/>
       <c r="G160" s="157"/>
@@ -11217,7 +11217,7 @@
       <c r="J160" s="270"/>
       <c r="K160" s="270"/>
       <c r="L160" s="271"/>
-      <c r="M160" s="294"/>
+      <c r="M160" s="311"/>
       <c r="N160" s="148"/>
       <c r="O160" s="148"/>
       <c r="P160" s="148"/>
@@ -11237,9 +11237,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A161" s="141"/>
-      <c r="B161" s="299"/>
+      <c r="B161" s="316"/>
       <c r="C161" s="170"/>
-      <c r="D161" s="316"/>
+      <c r="D161" s="310"/>
       <c r="E161" s="167"/>
       <c r="F161" s="157"/>
       <c r="G161" s="157"/>
@@ -11248,7 +11248,7 @@
       <c r="J161" s="270"/>
       <c r="K161" s="270"/>
       <c r="L161" s="271"/>
-      <c r="M161" s="295"/>
+      <c r="M161" s="312"/>
       <c r="N161" s="148"/>
       <c r="O161" s="148"/>
       <c r="P161" s="148"/>
@@ -11268,9 +11268,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A162" s="141"/>
-      <c r="B162" s="299"/>
+      <c r="B162" s="316"/>
       <c r="C162" s="170"/>
-      <c r="D162" s="316"/>
+      <c r="D162" s="310"/>
       <c r="E162" s="184"/>
       <c r="F162" s="157"/>
       <c r="G162" s="157"/>
@@ -11279,7 +11279,7 @@
       <c r="J162" s="270"/>
       <c r="K162" s="270"/>
       <c r="L162" s="271"/>
-      <c r="M162" s="295"/>
+      <c r="M162" s="312"/>
       <c r="N162" s="148"/>
       <c r="O162" s="148"/>
       <c r="P162" s="148"/>
@@ -11299,9 +11299,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A163" s="141"/>
-      <c r="B163" s="299"/>
+      <c r="B163" s="316"/>
       <c r="C163" s="170"/>
-      <c r="D163" s="316"/>
+      <c r="D163" s="310"/>
       <c r="E163" s="185"/>
       <c r="F163" s="157"/>
       <c r="G163" s="157"/>
@@ -11310,7 +11310,7 @@
       <c r="J163" s="270"/>
       <c r="K163" s="270"/>
       <c r="L163" s="271"/>
-      <c r="M163" s="295"/>
+      <c r="M163" s="312"/>
       <c r="N163" s="148"/>
       <c r="O163" s="148"/>
       <c r="P163" s="148"/>
@@ -11330,9 +11330,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A164" s="141"/>
-      <c r="B164" s="299"/>
+      <c r="B164" s="316"/>
       <c r="C164" s="170"/>
-      <c r="D164" s="316"/>
+      <c r="D164" s="310"/>
       <c r="E164" s="185"/>
       <c r="F164" s="157"/>
       <c r="G164" s="157"/>
@@ -11341,7 +11341,7 @@
       <c r="J164" s="270"/>
       <c r="K164" s="270"/>
       <c r="L164" s="271"/>
-      <c r="M164" s="295"/>
+      <c r="M164" s="312"/>
       <c r="N164" s="148"/>
       <c r="O164" s="148"/>
       <c r="P164" s="148"/>
@@ -11361,9 +11361,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A165" s="141"/>
-      <c r="B165" s="299"/>
+      <c r="B165" s="316"/>
       <c r="C165" s="170"/>
-      <c r="D165" s="316"/>
+      <c r="D165" s="310"/>
       <c r="E165" s="185"/>
       <c r="F165" s="157"/>
       <c r="G165" s="157"/>
@@ -11372,7 +11372,7 @@
       <c r="J165" s="270"/>
       <c r="K165" s="270"/>
       <c r="L165" s="271"/>
-      <c r="M165" s="295"/>
+      <c r="M165" s="312"/>
       <c r="N165" s="148"/>
       <c r="O165" s="148"/>
       <c r="P165" s="148"/>
@@ -11392,9 +11392,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A166" s="141"/>
-      <c r="B166" s="299"/>
+      <c r="B166" s="316"/>
       <c r="C166" s="170"/>
-      <c r="D166" s="316"/>
+      <c r="D166" s="310"/>
       <c r="E166" s="185"/>
       <c r="F166" s="157"/>
       <c r="G166" s="157"/>
@@ -11403,7 +11403,7 @@
       <c r="J166" s="270"/>
       <c r="K166" s="270"/>
       <c r="L166" s="271"/>
-      <c r="M166" s="295"/>
+      <c r="M166" s="312"/>
       <c r="N166" s="148"/>
       <c r="O166" s="148"/>
       <c r="P166" s="148"/>
@@ -11423,9 +11423,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A167" s="141"/>
-      <c r="B167" s="299"/>
+      <c r="B167" s="316"/>
       <c r="C167" s="170"/>
-      <c r="D167" s="316"/>
+      <c r="D167" s="310"/>
       <c r="E167" s="167"/>
       <c r="F167" s="157"/>
       <c r="G167" s="157"/>
@@ -11434,7 +11434,7 @@
       <c r="J167" s="270"/>
       <c r="K167" s="270"/>
       <c r="L167" s="271"/>
-      <c r="M167" s="296"/>
+      <c r="M167" s="313"/>
       <c r="N167" s="148"/>
       <c r="O167" s="148"/>
       <c r="P167" s="148"/>
@@ -11454,9 +11454,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A168" s="141"/>
-      <c r="B168" s="299"/>
+      <c r="B168" s="316"/>
       <c r="C168" s="170"/>
-      <c r="D168" s="316"/>
+      <c r="D168" s="310"/>
       <c r="E168" s="167"/>
       <c r="F168" s="157"/>
       <c r="G168" s="157"/>
@@ -11485,9 +11485,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A169" s="141"/>
-      <c r="B169" s="299"/>
+      <c r="B169" s="316"/>
       <c r="C169" s="170"/>
-      <c r="D169" s="316"/>
+      <c r="D169" s="310"/>
       <c r="E169" s="167"/>
       <c r="F169" s="157"/>
       <c r="G169" s="157"/>
@@ -11516,9 +11516,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A170" s="141"/>
-      <c r="B170" s="299"/>
+      <c r="B170" s="316"/>
       <c r="C170" s="170"/>
-      <c r="D170" s="316"/>
+      <c r="D170" s="310"/>
       <c r="E170" s="167"/>
       <c r="F170" s="157"/>
       <c r="G170" s="157"/>
@@ -11582,7 +11582,7 @@
       <c r="C172" s="191" t="s">
         <v>183</v>
       </c>
-      <c r="D172" s="322"/>
+      <c r="D172" s="298"/>
       <c r="E172" s="167"/>
       <c r="F172" s="157"/>
       <c r="G172" s="179"/>
@@ -11613,7 +11613,7 @@
       <c r="A173" s="189"/>
       <c r="B173" s="188"/>
       <c r="C173" s="193"/>
-      <c r="D173" s="322"/>
+      <c r="D173" s="298"/>
       <c r="E173" s="167"/>
       <c r="F173" s="157"/>
       <c r="G173" s="179"/>
@@ -11644,7 +11644,7 @@
       <c r="A174" s="189"/>
       <c r="B174" s="188"/>
       <c r="C174" s="193"/>
-      <c r="D174" s="322"/>
+      <c r="D174" s="298"/>
       <c r="E174" s="167"/>
       <c r="F174" s="157"/>
       <c r="G174" s="179"/>
@@ -11675,7 +11675,7 @@
       <c r="A175" s="189"/>
       <c r="B175" s="188"/>
       <c r="C175" s="188"/>
-      <c r="D175" s="322"/>
+      <c r="D175" s="298"/>
       <c r="E175" s="175"/>
       <c r="F175" s="157"/>
       <c r="G175" s="179"/>
@@ -11706,7 +11706,7 @@
       <c r="A176" s="189"/>
       <c r="B176" s="192"/>
       <c r="C176" s="188"/>
-      <c r="D176" s="322"/>
+      <c r="D176" s="298"/>
       <c r="E176" s="175"/>
       <c r="F176" s="157"/>
       <c r="G176" s="179"/>
@@ -11737,7 +11737,7 @@
       <c r="A177" s="189"/>
       <c r="B177" s="192"/>
       <c r="C177" s="188"/>
-      <c r="D177" s="322"/>
+      <c r="D177" s="298"/>
       <c r="E177" s="175"/>
       <c r="F177" s="157"/>
       <c r="G177" s="179"/>
@@ -11768,7 +11768,7 @@
       <c r="A178" s="189"/>
       <c r="B178" s="192"/>
       <c r="C178" s="188"/>
-      <c r="D178" s="322"/>
+      <c r="D178" s="298"/>
       <c r="E178" s="167"/>
       <c r="F178" s="157"/>
       <c r="G178" s="179"/>
@@ -11799,7 +11799,7 @@
       <c r="A179" s="189"/>
       <c r="B179" s="192"/>
       <c r="C179" s="188"/>
-      <c r="D179" s="322"/>
+      <c r="D179" s="298"/>
       <c r="E179" s="167"/>
       <c r="F179" s="157"/>
       <c r="G179" s="179"/>
@@ -11830,7 +11830,7 @@
       <c r="A180" s="189"/>
       <c r="B180" s="192"/>
       <c r="C180" s="192"/>
-      <c r="D180" s="322"/>
+      <c r="D180" s="298"/>
       <c r="E180" s="167"/>
       <c r="F180" s="157"/>
       <c r="G180" s="179"/>
@@ -13170,8 +13170,8 @@
       <c r="H223" s="213"/>
       <c r="I223" s="213"/>
       <c r="J223" s="213"/>
-      <c r="K223" s="309"/>
-      <c r="L223" s="310"/>
+      <c r="K223" s="303"/>
+      <c r="L223" s="305"/>
       <c r="M223" s="208"/>
       <c r="N223" s="148"/>
       <c r="O223" s="148"/>
@@ -13201,8 +13201,8 @@
       <c r="H224" s="214"/>
       <c r="I224" s="214"/>
       <c r="J224" s="214"/>
-      <c r="K224" s="309"/>
-      <c r="L224" s="310"/>
+      <c r="K224" s="303"/>
+      <c r="L224" s="305"/>
       <c r="M224" s="208"/>
       <c r="N224" s="148"/>
       <c r="O224" s="148"/>
@@ -13232,8 +13232,8 @@
       <c r="H225" s="137"/>
       <c r="I225" s="137"/>
       <c r="J225" s="137"/>
-      <c r="K225" s="309"/>
-      <c r="L225" s="310"/>
+      <c r="K225" s="303"/>
+      <c r="L225" s="305"/>
       <c r="M225" s="208"/>
       <c r="N225" s="148"/>
       <c r="O225" s="148"/>
@@ -13441,9 +13441,9 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
       <c r="A232" s="189"/>
       <c r="B232" s="200"/>
-      <c r="C232" s="311"/>
+      <c r="C232" s="295"/>
       <c r="D232" s="188"/>
-      <c r="E232" s="312"/>
+      <c r="E232" s="306"/>
       <c r="F232" s="150"/>
       <c r="G232" s="150"/>
       <c r="H232" s="150"/>
@@ -13472,9 +13472,9 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="189"/>
       <c r="B233" s="200"/>
-      <c r="C233" s="311"/>
+      <c r="C233" s="295"/>
       <c r="D233" s="188"/>
-      <c r="E233" s="312"/>
+      <c r="E233" s="306"/>
       <c r="F233" s="150"/>
       <c r="G233" s="150"/>
       <c r="H233" s="150"/>
@@ -13503,9 +13503,9 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1">
       <c r="A234" s="189"/>
       <c r="B234" s="200"/>
-      <c r="C234" s="311"/>
+      <c r="C234" s="295"/>
       <c r="D234" s="188"/>
-      <c r="E234" s="312"/>
+      <c r="E234" s="306"/>
       <c r="F234" s="150"/>
       <c r="G234" s="150"/>
       <c r="H234" s="150"/>
@@ -13534,7 +13534,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1">
       <c r="A235" s="189"/>
       <c r="B235" s="200"/>
-      <c r="C235" s="311"/>
+      <c r="C235" s="295"/>
       <c r="D235" s="188"/>
       <c r="E235" s="158"/>
       <c r="F235" s="150"/>
@@ -13565,7 +13565,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1">
       <c r="A236" s="189"/>
       <c r="B236" s="200"/>
-      <c r="C236" s="311"/>
+      <c r="C236" s="295"/>
       <c r="D236" s="188"/>
       <c r="E236" s="158"/>
       <c r="F236" s="150"/>
@@ -13596,7 +13596,7 @@
     <row r="237" spans="1:29" ht="15.75" customHeight="1">
       <c r="A237" s="189"/>
       <c r="B237" s="200"/>
-      <c r="C237" s="311"/>
+      <c r="C237" s="295"/>
       <c r="D237" s="188"/>
       <c r="E237" s="158"/>
       <c r="F237" s="211"/>
@@ -13627,7 +13627,7 @@
     <row r="238" spans="1:29" ht="15.75" customHeight="1">
       <c r="A238" s="189"/>
       <c r="B238" s="200"/>
-      <c r="C238" s="311"/>
+      <c r="C238" s="295"/>
       <c r="D238" s="188"/>
       <c r="E238" s="158"/>
       <c r="F238" s="150"/>
@@ -13658,7 +13658,7 @@
     <row r="239" spans="1:29" ht="15.75" customHeight="1">
       <c r="A239" s="189"/>
       <c r="B239" s="200"/>
-      <c r="C239" s="317"/>
+      <c r="C239" s="296"/>
       <c r="D239" s="198"/>
       <c r="E239" s="158"/>
       <c r="F239" s="211"/>
@@ -13689,7 +13689,7 @@
     <row r="240" spans="1:29" ht="15.75" customHeight="1">
       <c r="A240" s="189"/>
       <c r="B240" s="200"/>
-      <c r="C240" s="317"/>
+      <c r="C240" s="296"/>
       <c r="D240" s="219"/>
       <c r="E240" s="158"/>
       <c r="F240" s="211"/>
@@ -13751,7 +13751,7 @@
     <row r="242" spans="1:29" ht="30" customHeight="1">
       <c r="A242" s="189"/>
       <c r="B242" s="200"/>
-      <c r="C242" s="317"/>
+      <c r="C242" s="296"/>
       <c r="D242" s="198"/>
       <c r="E242" s="158"/>
       <c r="F242" s="150"/>
@@ -13782,7 +13782,7 @@
     <row r="243" spans="1:29" ht="15.75" customHeight="1">
       <c r="A243" s="189"/>
       <c r="B243" s="200"/>
-      <c r="C243" s="317"/>
+      <c r="C243" s="296"/>
       <c r="D243" s="199"/>
       <c r="E243" s="158"/>
       <c r="F243" s="150"/>
@@ -13813,7 +13813,7 @@
     <row r="244" spans="1:29" ht="15.75" customHeight="1">
       <c r="A244" s="189"/>
       <c r="B244" s="200"/>
-      <c r="C244" s="317"/>
+      <c r="C244" s="296"/>
       <c r="D244" s="199"/>
       <c r="E244" s="158"/>
       <c r="F244" s="150"/>
@@ -13844,7 +13844,7 @@
     <row r="245" spans="1:29" ht="15.75" customHeight="1">
       <c r="A245" s="189"/>
       <c r="B245" s="200"/>
-      <c r="C245" s="317"/>
+      <c r="C245" s="296"/>
       <c r="D245" s="199"/>
       <c r="E245" s="158"/>
       <c r="F245" s="211"/>
@@ -13875,7 +13875,7 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="189"/>
       <c r="B246" s="200"/>
-      <c r="C246" s="317"/>
+      <c r="C246" s="296"/>
       <c r="D246" s="199"/>
       <c r="E246" s="221"/>
       <c r="F246" s="150"/>
@@ -14255,7 +14255,7 @@
       <c r="H258" s="211"/>
       <c r="I258" s="211"/>
       <c r="J258" s="211"/>
-      <c r="K258" s="318"/>
+      <c r="K258" s="302"/>
       <c r="L258" s="147"/>
       <c r="M258" s="177"/>
       <c r="N258" s="148"/>
@@ -14286,7 +14286,7 @@
       <c r="H259" s="211"/>
       <c r="I259" s="211"/>
       <c r="J259" s="211"/>
-      <c r="K259" s="318"/>
+      <c r="K259" s="302"/>
       <c r="L259" s="147"/>
       <c r="M259" s="177"/>
       <c r="N259" s="148"/>
@@ -14371,7 +14371,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="189"/>
       <c r="B262" s="200"/>
-      <c r="C262" s="317"/>
+      <c r="C262" s="296"/>
       <c r="D262" s="198"/>
       <c r="E262" s="158"/>
       <c r="F262" s="211"/>
@@ -14379,7 +14379,7 @@
       <c r="H262" s="211"/>
       <c r="I262" s="211"/>
       <c r="J262" s="211"/>
-      <c r="K262" s="309"/>
+      <c r="K262" s="303"/>
       <c r="L262" s="147"/>
       <c r="M262" s="177"/>
       <c r="N262" s="148"/>
@@ -14402,7 +14402,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="189"/>
       <c r="B263" s="200"/>
-      <c r="C263" s="317"/>
+      <c r="C263" s="296"/>
       <c r="D263" s="219"/>
       <c r="E263" s="158"/>
       <c r="F263" s="211"/>
@@ -14410,7 +14410,7 @@
       <c r="H263" s="211"/>
       <c r="I263" s="211"/>
       <c r="J263" s="211"/>
-      <c r="K263" s="309"/>
+      <c r="K263" s="303"/>
       <c r="L263" s="147"/>
       <c r="M263" s="177"/>
       <c r="N263" s="148"/>
@@ -14433,7 +14433,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="189"/>
       <c r="B264" s="200"/>
-      <c r="C264" s="311"/>
+      <c r="C264" s="295"/>
       <c r="D264" s="212"/>
       <c r="E264" s="175"/>
       <c r="F264" s="157"/>
@@ -14464,7 +14464,7 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="189"/>
       <c r="B265" s="200"/>
-      <c r="C265" s="311"/>
+      <c r="C265" s="295"/>
       <c r="D265" s="173"/>
       <c r="E265" s="175"/>
       <c r="F265" s="157"/>
@@ -14526,7 +14526,7 @@
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="189"/>
       <c r="B267" s="200"/>
-      <c r="C267" s="317"/>
+      <c r="C267" s="296"/>
       <c r="D267" s="198"/>
       <c r="E267" s="175"/>
       <c r="F267" s="157"/>
@@ -14557,7 +14557,7 @@
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="189"/>
       <c r="B268" s="200"/>
-      <c r="C268" s="317"/>
+      <c r="C268" s="296"/>
       <c r="D268" s="199"/>
       <c r="E268" s="175"/>
       <c r="F268" s="157"/>
@@ -14588,7 +14588,7 @@
     <row r="269" spans="1:29" ht="15.75" customHeight="1">
       <c r="A269" s="189"/>
       <c r="B269" s="200"/>
-      <c r="C269" s="317"/>
+      <c r="C269" s="296"/>
       <c r="D269" s="219"/>
       <c r="E269" s="175"/>
       <c r="F269" s="157"/>
@@ -14773,10 +14773,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
       <c r="A275" s="195"/>
-      <c r="B275" s="319"/>
-      <c r="C275" s="311"/>
+      <c r="B275" s="297"/>
+      <c r="C275" s="295"/>
       <c r="D275" s="188"/>
-      <c r="E275" s="311"/>
+      <c r="E275" s="295"/>
       <c r="F275" s="150"/>
       <c r="G275" s="150"/>
       <c r="H275" s="150"/>
@@ -14804,10 +14804,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="195"/>
-      <c r="B276" s="319"/>
-      <c r="C276" s="319"/>
+      <c r="B276" s="297"/>
+      <c r="C276" s="297"/>
       <c r="D276" s="188"/>
-      <c r="E276" s="311"/>
+      <c r="E276" s="295"/>
       <c r="F276" s="150"/>
       <c r="G276" s="150"/>
       <c r="H276" s="150"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="195"/>
-      <c r="B277" s="319"/>
-      <c r="C277" s="319"/>
+      <c r="B277" s="297"/>
+      <c r="C277" s="297"/>
       <c r="D277" s="188"/>
-      <c r="E277" s="311"/>
+      <c r="E277" s="295"/>
       <c r="F277" s="150"/>
       <c r="G277" s="150"/>
       <c r="H277" s="150"/>
@@ -14866,10 +14866,10 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="195"/>
-      <c r="B278" s="319"/>
-      <c r="C278" s="319"/>
+      <c r="B278" s="297"/>
+      <c r="C278" s="297"/>
       <c r="D278" s="188"/>
-      <c r="E278" s="311"/>
+      <c r="E278" s="295"/>
       <c r="F278" s="150"/>
       <c r="G278" s="150"/>
       <c r="H278" s="150"/>
@@ -14897,10 +14897,10 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="195"/>
-      <c r="B279" s="319"/>
-      <c r="C279" s="319"/>
+      <c r="B279" s="297"/>
+      <c r="C279" s="297"/>
       <c r="D279" s="188"/>
-      <c r="E279" s="311"/>
+      <c r="E279" s="295"/>
       <c r="F279" s="150"/>
       <c r="G279" s="150"/>
       <c r="H279" s="150"/>
@@ -14928,10 +14928,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="195"/>
-      <c r="B280" s="319"/>
-      <c r="C280" s="319"/>
+      <c r="B280" s="297"/>
+      <c r="C280" s="297"/>
       <c r="D280" s="188"/>
-      <c r="E280" s="311"/>
+      <c r="E280" s="295"/>
       <c r="F280" s="211"/>
       <c r="G280" s="211"/>
       <c r="H280" s="211"/>
@@ -14959,10 +14959,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="195"/>
-      <c r="B281" s="319"/>
-      <c r="C281" s="319"/>
+      <c r="B281" s="297"/>
+      <c r="C281" s="297"/>
       <c r="D281" s="188"/>
-      <c r="E281" s="311"/>
+      <c r="E281" s="295"/>
       <c r="F281" s="150"/>
       <c r="G281" s="150"/>
       <c r="H281" s="150"/>
@@ -14990,10 +14990,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="195"/>
-      <c r="B282" s="319"/>
-      <c r="C282" s="319"/>
+      <c r="B282" s="297"/>
+      <c r="C282" s="297"/>
       <c r="D282" s="188"/>
-      <c r="E282" s="311"/>
+      <c r="E282" s="295"/>
       <c r="F282" s="150"/>
       <c r="G282" s="150"/>
       <c r="H282" s="150"/>
@@ -15021,8 +15021,8 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="195"/>
-      <c r="B283" s="319"/>
-      <c r="C283" s="319"/>
+      <c r="B283" s="297"/>
+      <c r="C283" s="297"/>
       <c r="D283" s="188"/>
       <c r="E283" s="192"/>
       <c r="F283" s="146"/>
@@ -15052,8 +15052,8 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="195"/>
-      <c r="B284" s="319"/>
-      <c r="C284" s="319"/>
+      <c r="B284" s="297"/>
+      <c r="C284" s="297"/>
       <c r="D284" s="188"/>
       <c r="E284" s="192"/>
       <c r="F284" s="147"/>
@@ -15083,10 +15083,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="195"/>
-      <c r="B285" s="319"/>
-      <c r="C285" s="319"/>
+      <c r="B285" s="297"/>
+      <c r="C285" s="297"/>
       <c r="D285" s="212"/>
-      <c r="E285" s="311"/>
+      <c r="E285" s="295"/>
       <c r="F285" s="157"/>
       <c r="G285" s="157"/>
       <c r="H285" s="157"/>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="195"/>
-      <c r="B286" s="319"/>
-      <c r="C286" s="319"/>
+      <c r="B286" s="297"/>
+      <c r="C286" s="297"/>
       <c r="D286" s="235"/>
-      <c r="E286" s="311"/>
+      <c r="E286" s="295"/>
       <c r="F286" s="147"/>
       <c r="G286" s="147"/>
       <c r="H286" s="147"/>
@@ -15145,10 +15145,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
       <c r="A287" s="195"/>
-      <c r="B287" s="319"/>
-      <c r="C287" s="319"/>
+      <c r="B287" s="297"/>
+      <c r="C287" s="297"/>
       <c r="D287" s="235"/>
-      <c r="E287" s="311"/>
+      <c r="E287" s="295"/>
       <c r="F287" s="147"/>
       <c r="G287" s="147"/>
       <c r="H287" s="147"/>
@@ -15176,10 +15176,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
       <c r="A288" s="195"/>
-      <c r="B288" s="319"/>
-      <c r="C288" s="311"/>
+      <c r="B288" s="297"/>
+      <c r="C288" s="295"/>
       <c r="D288" s="173"/>
-      <c r="E288" s="311"/>
+      <c r="E288" s="295"/>
       <c r="F288" s="147"/>
       <c r="G288" s="147"/>
       <c r="H288" s="147"/>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="195"/>
-      <c r="B289" s="319"/>
+      <c r="B289" s="297"/>
       <c r="C289" s="188"/>
       <c r="D289" s="235"/>
       <c r="E289" s="235"/>
@@ -15238,10 +15238,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="195"/>
-      <c r="B290" s="319"/>
-      <c r="C290" s="311"/>
+      <c r="B290" s="297"/>
+      <c r="C290" s="295"/>
       <c r="D290" s="212"/>
-      <c r="E290" s="320"/>
+      <c r="E290" s="304"/>
       <c r="F290" s="157"/>
       <c r="G290" s="157"/>
       <c r="H290" s="157"/>
@@ -15269,10 +15269,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="195"/>
-      <c r="B291" s="319"/>
-      <c r="C291" s="319"/>
+      <c r="B291" s="297"/>
+      <c r="C291" s="297"/>
       <c r="D291" s="173"/>
-      <c r="E291" s="320"/>
+      <c r="E291" s="304"/>
       <c r="F291" s="157"/>
       <c r="G291" s="157"/>
       <c r="H291" s="157"/>
@@ -15300,10 +15300,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="195"/>
-      <c r="B292" s="319"/>
-      <c r="C292" s="319"/>
+      <c r="B292" s="297"/>
+      <c r="C292" s="297"/>
       <c r="D292" s="188"/>
-      <c r="E292" s="320"/>
+      <c r="E292" s="304"/>
       <c r="F292" s="157"/>
       <c r="G292" s="157"/>
       <c r="H292" s="157"/>
@@ -15331,10 +15331,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="195"/>
-      <c r="B293" s="319"/>
-      <c r="C293" s="311"/>
+      <c r="B293" s="297"/>
+      <c r="C293" s="295"/>
       <c r="D293" s="188"/>
-      <c r="E293" s="320"/>
+      <c r="E293" s="304"/>
       <c r="F293" s="157"/>
       <c r="G293" s="157"/>
       <c r="H293" s="157"/>
@@ -15362,7 +15362,7 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="195"/>
-      <c r="B294" s="319"/>
+      <c r="B294" s="297"/>
       <c r="C294" s="192"/>
       <c r="D294" s="192"/>
       <c r="E294" s="195"/>
@@ -15393,10 +15393,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="195"/>
-      <c r="B295" s="319"/>
-      <c r="C295" s="311"/>
+      <c r="B295" s="297"/>
+      <c r="C295" s="295"/>
       <c r="D295" s="212"/>
-      <c r="E295" s="311"/>
+      <c r="E295" s="295"/>
       <c r="F295" s="157"/>
       <c r="G295" s="157"/>
       <c r="H295" s="157"/>
@@ -15424,10 +15424,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="195"/>
-      <c r="B296" s="319"/>
-      <c r="C296" s="319"/>
+      <c r="B296" s="297"/>
+      <c r="C296" s="297"/>
       <c r="D296" s="235"/>
-      <c r="E296" s="311"/>
+      <c r="E296" s="295"/>
       <c r="F296" s="157"/>
       <c r="G296" s="157"/>
       <c r="H296" s="157"/>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="195"/>
-      <c r="B297" s="319"/>
-      <c r="C297" s="319"/>
+      <c r="B297" s="297"/>
+      <c r="C297" s="297"/>
       <c r="D297" s="235"/>
-      <c r="E297" s="311"/>
+      <c r="E297" s="295"/>
       <c r="F297" s="157"/>
       <c r="G297" s="157"/>
       <c r="H297" s="157"/>
@@ -15486,10 +15486,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="195"/>
-      <c r="B298" s="319"/>
-      <c r="C298" s="319"/>
+      <c r="B298" s="297"/>
+      <c r="C298" s="297"/>
       <c r="D298" s="235"/>
-      <c r="E298" s="311"/>
+      <c r="E298" s="295"/>
       <c r="F298" s="157"/>
       <c r="G298" s="157"/>
       <c r="H298" s="157"/>
@@ -15517,10 +15517,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="195"/>
-      <c r="B299" s="319"/>
-      <c r="C299" s="319"/>
+      <c r="B299" s="297"/>
+      <c r="C299" s="297"/>
       <c r="D299" s="235"/>
-      <c r="E299" s="311"/>
+      <c r="E299" s="295"/>
       <c r="F299" s="150"/>
       <c r="G299" s="150"/>
       <c r="H299" s="150"/>
@@ -15548,10 +15548,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="195"/>
-      <c r="B300" s="319"/>
-      <c r="C300" s="319"/>
+      <c r="B300" s="297"/>
+      <c r="C300" s="297"/>
       <c r="D300" s="173"/>
-      <c r="E300" s="311"/>
+      <c r="E300" s="295"/>
       <c r="F300" s="150"/>
       <c r="G300" s="150"/>
       <c r="H300" s="150"/>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="195"/>
-      <c r="B301" s="319"/>
-      <c r="C301" s="319"/>
+      <c r="B301" s="297"/>
+      <c r="C301" s="297"/>
       <c r="D301" s="212"/>
-      <c r="E301" s="311"/>
+      <c r="E301" s="295"/>
       <c r="F301" s="157"/>
       <c r="G301" s="157"/>
       <c r="H301" s="157"/>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="195"/>
-      <c r="B302" s="319"/>
-      <c r="C302" s="319"/>
+      <c r="B302" s="297"/>
+      <c r="C302" s="297"/>
       <c r="D302" s="235"/>
-      <c r="E302" s="311"/>
+      <c r="E302" s="295"/>
       <c r="F302" s="147"/>
       <c r="G302" s="147"/>
       <c r="H302" s="147"/>
@@ -15641,10 +15641,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1">
       <c r="A303" s="195"/>
-      <c r="B303" s="319"/>
-      <c r="C303" s="319"/>
+      <c r="B303" s="297"/>
+      <c r="C303" s="297"/>
       <c r="D303" s="235"/>
-      <c r="E303" s="311"/>
+      <c r="E303" s="295"/>
       <c r="F303" s="147"/>
       <c r="G303" s="147"/>
       <c r="H303" s="147"/>
@@ -15672,10 +15672,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="195"/>
-      <c r="B304" s="319"/>
-      <c r="C304" s="319"/>
+      <c r="B304" s="297"/>
+      <c r="C304" s="297"/>
       <c r="D304" s="173"/>
-      <c r="E304" s="311"/>
+      <c r="E304" s="295"/>
       <c r="F304" s="147"/>
       <c r="G304" s="147"/>
       <c r="H304" s="147"/>
@@ -17811,34 +17811,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D19:D46"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="B275:B304"/>
-    <mergeCell ref="C275:C288"/>
-    <mergeCell ref="C295:C304"/>
-    <mergeCell ref="D172:D180"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="E295:E300"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="E275:E282"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="E290:E291"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="K223:K225"/>
-    <mergeCell ref="L223:L225"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D160:D170"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="M160:M167"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -17855,11 +17832,34 @@
     <mergeCell ref="D93:D102"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="D10:D17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K223:K225"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D160:D170"/>
+    <mergeCell ref="E295:E300"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="E275:E282"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="D19:D46"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="B275:B304"/>
+    <mergeCell ref="C275:C288"/>
+    <mergeCell ref="C295:C304"/>
+    <mergeCell ref="D172:D180"/>
+    <mergeCell ref="C61:C64"/>
   </mergeCells>
   <conditionalFormatting sqref="K206:K211 K213:K214 K251 K265:K274 L81:L91 L93:L96 L98:L102 L104:L105 L107:L111 L113 L115:L372 L48:L52 L58:L79 L19:L46">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
@@ -18624,19 +18624,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J3:K6"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D20:E23"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G3:H6"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="M20:N23"/>
     <mergeCell ref="M24:N25"/>
     <mergeCell ref="M26:N27"/>
@@ -18652,6 +18639,19 @@
     <mergeCell ref="J24:K25"/>
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J3:K6"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D20:E23"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G3:H6"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J16" r:id="rId1"/>
@@ -18672,7 +18672,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/RFL_Best_Buy.xlsx
+++ b/RFL_Best_Buy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps" sheetId="2" r:id="rId1"/>
@@ -3045,17 +3045,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,20 +3070,62 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3088,17 +3133,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3106,78 +3178,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4508,7 +4508,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="96" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="96" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
@@ -4547,39 +4547,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="291" t="s">
+      <c r="B4" s="279" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="280" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="287" t="s">
+      <c r="C6" s="280" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
       <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4595,13 +4595,13 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="287">
+      <c r="C7" s="280">
         <v>1</v>
       </c>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>41</v>
@@ -4616,13 +4616,13 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="287" t="s">
+      <c r="C8" s="280" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="280"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>7</v>
@@ -4637,13 +4637,13 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="280" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="287"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="280"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>0</v>
@@ -4670,11 +4670,11 @@
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -4690,22 +4690,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
+      <c r="C11" s="281"/>
+      <c r="D11" s="281"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="288"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
+      <c r="B12" s="281"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="281"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="281"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -4840,21 +4840,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="289" t="s">
+      <c r="B18" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="289"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="282"/>
+      <c r="E18" s="282"/>
+      <c r="F18" s="282"/>
+      <c r="G18" s="282"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="290"/>
-      <c r="D19" s="290"/>
+      <c r="C19" s="283"/>
+      <c r="D19" s="283"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
         <v>25</v>
@@ -4864,11 +4864,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="283" t="s">
+      <c r="B20" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="283"/>
-      <c r="D20" s="283"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32" t="s">
         <v>28</v>
@@ -4878,11 +4878,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="283" t="s">
+      <c r="B21" s="284" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
         <v>28</v>
@@ -4893,306 +4893,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="284"/>
-      <c r="C23" s="285" t="s">
+      <c r="B23" s="285"/>
+      <c r="C23" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="286" t="s">
+      <c r="D23" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="286"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="286"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="287"/>
+      <c r="G23" s="287"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="284"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="286"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="287"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="284"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="286"/>
-      <c r="E25" s="286"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="286"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="284"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="286"/>
-      <c r="E26" s="286"/>
-      <c r="F26" s="286"/>
-      <c r="G26" s="286"/>
+      <c r="B26" s="285"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="287"/>
+      <c r="E26" s="287"/>
+      <c r="F26" s="287"/>
+      <c r="G26" s="287"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="279" t="s">
+      <c r="B27" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="282" t="s">
+      <c r="C27" s="289" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="281" t="s">
+      <c r="D27" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="281"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="290"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="279"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="281"/>
-      <c r="E28" s="281"/>
-      <c r="F28" s="281"/>
-      <c r="G28" s="281"/>
+      <c r="B28" s="288"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="279"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="281"/>
-      <c r="E29" s="281"/>
-      <c r="F29" s="281"/>
-      <c r="G29" s="281"/>
+      <c r="B29" s="288"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="290"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="279"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="281"/>
-      <c r="G30" s="281"/>
+      <c r="B30" s="288"/>
+      <c r="C30" s="288"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="279" t="s">
+      <c r="B31" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="282" t="s">
+      <c r="C31" s="289" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="281" t="s">
+      <c r="D31" s="290" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="281"/>
-      <c r="F31" s="281"/>
-      <c r="G31" s="281"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="279"/>
-      <c r="C32" s="279"/>
-      <c r="D32" s="281"/>
-      <c r="E32" s="281"/>
-      <c r="F32" s="281"/>
-      <c r="G32" s="281"/>
+      <c r="B32" s="288"/>
+      <c r="C32" s="288"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="279"/>
-      <c r="C33" s="279"/>
-      <c r="D33" s="281"/>
-      <c r="E33" s="281"/>
-      <c r="F33" s="281"/>
-      <c r="G33" s="281"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="279"/>
-      <c r="C34" s="279"/>
-      <c r="D34" s="281"/>
-      <c r="E34" s="281"/>
-      <c r="F34" s="281"/>
-      <c r="G34" s="281"/>
+      <c r="B34" s="288"/>
+      <c r="C34" s="288"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="279" t="s">
+      <c r="B35" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="282" t="s">
+      <c r="C35" s="289" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="281" t="s">
+      <c r="D35" s="290" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="281"/>
-      <c r="F35" s="281"/>
-      <c r="G35" s="281"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="290"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="279"/>
-      <c r="C36" s="279"/>
-      <c r="D36" s="281"/>
-      <c r="E36" s="281"/>
-      <c r="F36" s="281"/>
-      <c r="G36" s="281"/>
+      <c r="B36" s="288"/>
+      <c r="C36" s="288"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="279"/>
-      <c r="C37" s="279"/>
-      <c r="D37" s="281"/>
-      <c r="E37" s="281"/>
-      <c r="F37" s="281"/>
-      <c r="G37" s="281"/>
+      <c r="B37" s="288"/>
+      <c r="C37" s="288"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="279"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
+      <c r="B38" s="288"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="279" t="s">
+      <c r="B39" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="282" t="s">
+      <c r="C39" s="289" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="281" t="s">
+      <c r="D39" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="281"/>
-      <c r="F39" s="281"/>
-      <c r="G39" s="281"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="279"/>
-      <c r="C40" s="279"/>
-      <c r="D40" s="281"/>
-      <c r="E40" s="281"/>
-      <c r="F40" s="281"/>
-      <c r="G40" s="281"/>
+      <c r="B40" s="288"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="290"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="279"/>
-      <c r="C41" s="279"/>
-      <c r="D41" s="281"/>
-      <c r="E41" s="281"/>
-      <c r="F41" s="281"/>
-      <c r="G41" s="281"/>
+      <c r="B41" s="288"/>
+      <c r="C41" s="288"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="279"/>
-      <c r="C42" s="279"/>
-      <c r="D42" s="281"/>
-      <c r="E42" s="281"/>
-      <c r="F42" s="281"/>
-      <c r="G42" s="281"/>
+      <c r="B42" s="288"/>
+      <c r="C42" s="288"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="280" t="s">
+      <c r="C43" s="291" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="281" t="s">
+      <c r="D43" s="290" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="281"/>
-      <c r="F43" s="281"/>
-      <c r="G43" s="281"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="290"/>
+      <c r="G43" s="290"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="279"/>
-      <c r="C44" s="279"/>
-      <c r="D44" s="281"/>
-      <c r="E44" s="281"/>
-      <c r="F44" s="281"/>
-      <c r="G44" s="281"/>
+      <c r="B44" s="288"/>
+      <c r="C44" s="288"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="290"/>
+      <c r="F44" s="290"/>
+      <c r="G44" s="290"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="279"/>
-      <c r="C45" s="279"/>
-      <c r="D45" s="281"/>
-      <c r="E45" s="281"/>
-      <c r="F45" s="281"/>
-      <c r="G45" s="281"/>
+      <c r="B45" s="288"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="290"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="279"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="281"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="281"/>
-      <c r="G46" s="281"/>
+      <c r="B46" s="288"/>
+      <c r="C46" s="288"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="290"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="279" t="s">
+      <c r="B47" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="280" t="s">
+      <c r="C47" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="281" t="s">
+      <c r="D47" s="290" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="281"/>
-      <c r="F47" s="281"/>
-      <c r="G47" s="281"/>
+      <c r="E47" s="290"/>
+      <c r="F47" s="290"/>
+      <c r="G47" s="290"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="279"/>
-      <c r="C48" s="279"/>
-      <c r="D48" s="281"/>
-      <c r="E48" s="281"/>
-      <c r="F48" s="281"/>
-      <c r="G48" s="281"/>
+      <c r="B48" s="288"/>
+      <c r="C48" s="288"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="290"/>
+      <c r="F48" s="290"/>
+      <c r="G48" s="290"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="279"/>
-      <c r="C49" s="279"/>
-      <c r="D49" s="281"/>
-      <c r="E49" s="281"/>
-      <c r="F49" s="281"/>
-      <c r="G49" s="281"/>
+      <c r="B49" s="288"/>
+      <c r="C49" s="288"/>
+      <c r="D49" s="290"/>
+      <c r="E49" s="290"/>
+      <c r="F49" s="290"/>
+      <c r="G49" s="290"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="279"/>
-      <c r="C50" s="279"/>
-      <c r="D50" s="281"/>
-      <c r="E50" s="281"/>
-      <c r="F50" s="281"/>
-      <c r="G50" s="281"/>
+      <c r="B50" s="288"/>
+      <c r="C50" s="288"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="290"/>
+      <c r="F50" s="290"/>
+      <c r="G50" s="290"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="279" t="s">
+      <c r="B51" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="280" t="s">
+      <c r="C51" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="281" t="s">
+      <c r="D51" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="281"/>
-      <c r="F51" s="281"/>
-      <c r="G51" s="281"/>
+      <c r="E51" s="290"/>
+      <c r="F51" s="290"/>
+      <c r="G51" s="290"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="279"/>
-      <c r="C52" s="279"/>
-      <c r="D52" s="281"/>
-      <c r="E52" s="281"/>
-      <c r="F52" s="281"/>
-      <c r="G52" s="281"/>
+      <c r="B52" s="288"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="290"/>
+      <c r="F52" s="290"/>
+      <c r="G52" s="290"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="279"/>
-      <c r="C53" s="279"/>
-      <c r="D53" s="281"/>
-      <c r="E53" s="281"/>
-      <c r="F53" s="281"/>
-      <c r="G53" s="281"/>
+      <c r="B53" s="288"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="290"/>
+      <c r="F53" s="290"/>
+      <c r="G53" s="290"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="279"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="281"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="281"/>
-      <c r="G54" s="281"/>
+      <c r="B54" s="288"/>
+      <c r="C54" s="288"/>
+      <c r="D54" s="290"/>
+      <c r="E54" s="290"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="290"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -5393,33 +5393,6 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:G54"/>
@@ -5429,6 +5402,33 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5441,9 +5441,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AC372"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="94" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
@@ -5465,10 +5465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="324"/>
+      <c r="B1" s="292"/>
       <c r="C1" s="260" t="s">
         <v>213</v>
       </c>
@@ -5488,10 +5488,10 @@
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
       <c r="K1" s="37"/>
-      <c r="L1" s="325" t="s">
+      <c r="L1" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="325"/>
+      <c r="M1" s="293"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
@@ -5510,10 +5510,10 @@
       <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="292" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="324"/>
+      <c r="B2" s="292"/>
       <c r="C2" s="39" t="s">
         <v>218</v>
       </c>
@@ -5558,10 +5558,10 @@
       <c r="AC2" s="38"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="324"/>
+      <c r="B3" s="292"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
         <v>55</v>
@@ -5604,10 +5604,10 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="324"/>
+      <c r="B4" s="292"/>
       <c r="C4" s="39"/>
       <c r="D4" s="40" t="s">
         <v>59</v>
@@ -5617,7 +5617,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -5648,15 +5648,15 @@
       <c r="AC4" s="38"/>
     </row>
     <row r="5" spans="1:29" s="50" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="314" t="s">
+      <c r="A5" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="314"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
@@ -5860,13 +5860,13 @@
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="316" t="s">
+      <c r="B10" s="299" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="317" t="s">
+      <c r="C10" s="300" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="292" t="s">
+      <c r="D10" s="307" t="s">
         <v>230</v>
       </c>
       <c r="E10" s="62" t="s">
@@ -5911,9 +5911,9 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="316"/>
-      <c r="C11" s="317"/>
-      <c r="D11" s="293"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="308"/>
       <c r="E11" s="62" t="s">
         <v>222</v>
       </c>
@@ -5956,9 +5956,9 @@
       <c r="A12" s="77">
         <v>4</v>
       </c>
-      <c r="B12" s="316"/>
-      <c r="C12" s="317"/>
-      <c r="D12" s="293"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="308"/>
       <c r="E12" s="62" t="s">
         <v>87</v>
       </c>
@@ -6001,9 +6001,9 @@
       <c r="A13" s="77">
         <v>5</v>
       </c>
-      <c r="B13" s="316"/>
-      <c r="C13" s="317"/>
-      <c r="D13" s="293"/>
+      <c r="B13" s="299"/>
+      <c r="C13" s="300"/>
+      <c r="D13" s="308"/>
       <c r="E13" s="62" t="s">
         <v>89</v>
       </c>
@@ -6046,9 +6046,9 @@
       <c r="A14" s="77">
         <v>6</v>
       </c>
-      <c r="B14" s="316"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="293"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="308"/>
       <c r="E14" s="62" t="s">
         <v>91</v>
       </c>
@@ -6091,9 +6091,9 @@
       <c r="A15" s="77">
         <v>7</v>
       </c>
-      <c r="B15" s="316"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="293"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="308"/>
       <c r="E15" s="62" t="s">
         <v>227</v>
       </c>
@@ -6136,9 +6136,9 @@
       <c r="A16" s="77">
         <v>8</v>
       </c>
-      <c r="B16" s="316"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="293"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="308"/>
       <c r="E16" s="62" t="s">
         <v>94</v>
       </c>
@@ -6181,9 +6181,9 @@
       <c r="A17" s="77">
         <v>9</v>
       </c>
-      <c r="B17" s="316"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="293"/>
+      <c r="B17" s="299"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="308"/>
       <c r="E17" s="62" t="s">
         <v>95</v>
       </c>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="18" spans="1:29" s="91" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="69"/>
-      <c r="B18" s="316"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="262"/>
       <c r="D18" s="264"/>
       <c r="E18" s="263"/>
@@ -6257,11 +6257,11 @@
       <c r="A19" s="92">
         <v>10</v>
       </c>
-      <c r="B19" s="316"/>
-      <c r="C19" s="316" t="s">
+      <c r="B19" s="299"/>
+      <c r="C19" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="292" t="s">
+      <c r="D19" s="307" t="s">
         <v>219</v>
       </c>
       <c r="E19" s="93" t="s">
@@ -6306,9 +6306,9 @@
       <c r="A20" s="92">
         <v>11</v>
       </c>
-      <c r="B20" s="316"/>
-      <c r="C20" s="316"/>
-      <c r="D20" s="293"/>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="308"/>
       <c r="E20" s="93" t="s">
         <v>100</v>
       </c>
@@ -6351,9 +6351,9 @@
       <c r="A21" s="92">
         <v>12</v>
       </c>
-      <c r="B21" s="316"/>
-      <c r="C21" s="316"/>
-      <c r="D21" s="293"/>
+      <c r="B21" s="299"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="308"/>
       <c r="E21" s="101" t="s">
         <v>236</v>
       </c>
@@ -6398,9 +6398,9 @@
       <c r="A22" s="92">
         <v>13</v>
       </c>
-      <c r="B22" s="316"/>
-      <c r="C22" s="316"/>
-      <c r="D22" s="293"/>
+      <c r="B22" s="299"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="308"/>
       <c r="E22" s="101" t="s">
         <v>104</v>
       </c>
@@ -6445,9 +6445,9 @@
       <c r="A23" s="92">
         <v>14</v>
       </c>
-      <c r="B23" s="316"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="293"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="308"/>
       <c r="E23" s="101" t="s">
         <v>289</v>
       </c>
@@ -6490,9 +6490,9 @@
       <c r="A24" s="92">
         <v>15</v>
       </c>
-      <c r="B24" s="316"/>
-      <c r="C24" s="316"/>
-      <c r="D24" s="293"/>
+      <c r="B24" s="299"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="308"/>
       <c r="E24" s="93" t="s">
         <v>106</v>
       </c>
@@ -6537,9 +6537,9 @@
       <c r="A25" s="92">
         <v>16</v>
       </c>
-      <c r="B25" s="316"/>
-      <c r="C25" s="316"/>
-      <c r="D25" s="293"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="93" t="s">
         <v>107</v>
       </c>
@@ -6584,9 +6584,9 @@
       <c r="A26" s="92">
         <v>17</v>
       </c>
-      <c r="B26" s="316"/>
-      <c r="C26" s="316"/>
-      <c r="D26" s="293"/>
+      <c r="B26" s="299"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="93" t="s">
         <v>108</v>
       </c>
@@ -6631,9 +6631,9 @@
       <c r="A27" s="92">
         <v>18</v>
       </c>
-      <c r="B27" s="316"/>
-      <c r="C27" s="316"/>
-      <c r="D27" s="293"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="93" t="s">
         <v>109</v>
       </c>
@@ -6678,9 +6678,9 @@
       <c r="A28" s="92">
         <v>19</v>
       </c>
-      <c r="B28" s="316"/>
-      <c r="C28" s="316"/>
-      <c r="D28" s="293"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="308"/>
       <c r="E28" s="93" t="s">
         <v>110</v>
       </c>
@@ -6723,9 +6723,9 @@
       <c r="A29" s="92">
         <v>20</v>
       </c>
-      <c r="B29" s="316"/>
-      <c r="C29" s="316"/>
-      <c r="D29" s="293"/>
+      <c r="B29" s="299"/>
+      <c r="C29" s="299"/>
+      <c r="D29" s="308"/>
       <c r="E29" s="93" t="s">
         <v>111</v>
       </c>
@@ -6770,9 +6770,9 @@
       <c r="A30" s="92">
         <v>21</v>
       </c>
-      <c r="B30" s="316"/>
-      <c r="C30" s="316"/>
-      <c r="D30" s="293"/>
+      <c r="B30" s="299"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="308"/>
       <c r="E30" s="93" t="s">
         <v>112</v>
       </c>
@@ -6815,9 +6815,9 @@
       <c r="A31" s="92">
         <v>23</v>
       </c>
-      <c r="B31" s="316"/>
-      <c r="C31" s="316"/>
-      <c r="D31" s="293"/>
+      <c r="B31" s="299"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="308"/>
       <c r="E31" s="93" t="s">
         <v>114</v>
       </c>
@@ -6860,9 +6860,9 @@
       <c r="A32" s="92">
         <v>24</v>
       </c>
-      <c r="B32" s="316"/>
-      <c r="C32" s="316"/>
-      <c r="D32" s="293"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="308"/>
       <c r="E32" s="101" t="s">
         <v>117</v>
       </c>
@@ -6905,9 +6905,9 @@
       <c r="A33" s="92">
         <v>25</v>
       </c>
-      <c r="B33" s="316"/>
-      <c r="C33" s="316"/>
-      <c r="D33" s="293"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="308"/>
       <c r="E33" s="101" t="s">
         <v>120</v>
       </c>
@@ -6950,9 +6950,9 @@
       <c r="A34" s="92">
         <v>26</v>
       </c>
-      <c r="B34" s="316"/>
-      <c r="C34" s="316"/>
-      <c r="D34" s="293"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="308"/>
       <c r="E34" s="62" t="s">
         <v>121</v>
       </c>
@@ -6995,9 +6995,9 @@
       <c r="A35" s="92">
         <v>27</v>
       </c>
-      <c r="B35" s="316"/>
-      <c r="C35" s="316"/>
-      <c r="D35" s="293"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="308"/>
       <c r="E35" s="62" t="s">
         <v>124</v>
       </c>
@@ -7040,9 +7040,9 @@
       <c r="A36" s="92">
         <v>28</v>
       </c>
-      <c r="B36" s="316"/>
-      <c r="C36" s="316"/>
-      <c r="D36" s="293"/>
+      <c r="B36" s="299"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="308"/>
       <c r="E36" s="62" t="s">
         <v>126</v>
       </c>
@@ -7085,9 +7085,9 @@
       <c r="A37" s="92">
         <v>29</v>
       </c>
-      <c r="B37" s="316"/>
-      <c r="C37" s="316"/>
-      <c r="D37" s="293"/>
+      <c r="B37" s="299"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="308"/>
       <c r="E37" s="62" t="s">
         <v>129</v>
       </c>
@@ -7130,9 +7130,9 @@
       <c r="A38" s="92">
         <v>30</v>
       </c>
-      <c r="B38" s="316"/>
-      <c r="C38" s="316"/>
-      <c r="D38" s="293"/>
+      <c r="B38" s="299"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="308"/>
       <c r="E38" s="62" t="s">
         <v>131</v>
       </c>
@@ -7175,9 +7175,9 @@
       <c r="A39" s="92">
         <v>31</v>
       </c>
-      <c r="B39" s="316"/>
-      <c r="C39" s="316"/>
-      <c r="D39" s="293"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="308"/>
       <c r="E39" s="62" t="s">
         <v>133</v>
       </c>
@@ -7220,9 +7220,9 @@
       <c r="A40" s="92">
         <v>32</v>
       </c>
-      <c r="B40" s="316"/>
-      <c r="C40" s="316"/>
-      <c r="D40" s="293"/>
+      <c r="B40" s="299"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="308"/>
       <c r="E40" s="62" t="s">
         <v>135</v>
       </c>
@@ -7265,9 +7265,9 @@
       <c r="A41" s="92">
         <v>44</v>
       </c>
-      <c r="B41" s="316"/>
-      <c r="C41" s="316"/>
-      <c r="D41" s="293"/>
+      <c r="B41" s="299"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="308"/>
       <c r="E41" s="94" t="s">
         <v>137</v>
       </c>
@@ -7310,9 +7310,9 @@
       <c r="A42" s="92">
         <v>45</v>
       </c>
-      <c r="B42" s="316"/>
-      <c r="C42" s="316"/>
-      <c r="D42" s="293"/>
+      <c r="B42" s="299"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="308"/>
       <c r="E42" s="94" t="s">
         <v>139</v>
       </c>
@@ -7353,9 +7353,9 @@
     </row>
     <row r="43" spans="1:29" s="108" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="104"/>
-      <c r="B43" s="316"/>
+      <c r="B43" s="299"/>
       <c r="C43" s="105"/>
-      <c r="D43" s="293"/>
+      <c r="D43" s="308"/>
       <c r="E43" s="106"/>
       <c r="F43" s="85"/>
       <c r="G43" s="85"/>
@@ -7386,11 +7386,11 @@
       <c r="A44" s="92">
         <v>48</v>
       </c>
-      <c r="B44" s="316"/>
-      <c r="C44" s="316" t="s">
+      <c r="B44" s="299"/>
+      <c r="C44" s="299" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="293"/>
+      <c r="D44" s="308"/>
       <c r="E44" s="101" t="s">
         <v>141</v>
       </c>
@@ -7433,9 +7433,9 @@
       <c r="A45" s="92">
         <v>49</v>
       </c>
-      <c r="B45" s="316"/>
-      <c r="C45" s="316"/>
-      <c r="D45" s="293"/>
+      <c r="B45" s="299"/>
+      <c r="C45" s="299"/>
+      <c r="D45" s="308"/>
       <c r="E45" s="109" t="s">
         <v>145</v>
       </c>
@@ -7478,9 +7478,9 @@
       <c r="A46" s="92">
         <v>50</v>
       </c>
-      <c r="B46" s="316"/>
-      <c r="C46" s="316"/>
-      <c r="D46" s="294"/>
+      <c r="B46" s="299"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="321"/>
       <c r="E46" s="109" t="s">
         <v>148</v>
       </c>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="47" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="266"/>
-      <c r="B47" s="316"/>
+      <c r="B47" s="299"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="112"/>
@@ -7554,11 +7554,11 @@
       <c r="A48" s="92">
         <v>51</v>
       </c>
-      <c r="B48" s="316"/>
-      <c r="C48" s="318" t="s">
+      <c r="B48" s="299"/>
+      <c r="C48" s="301" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="318" t="s">
+      <c r="D48" s="301" t="s">
         <v>152</v>
       </c>
       <c r="E48" s="94" t="s">
@@ -7603,9 +7603,9 @@
       <c r="A49" s="92">
         <v>52</v>
       </c>
-      <c r="B49" s="316"/>
-      <c r="C49" s="318"/>
-      <c r="D49" s="318"/>
+      <c r="B49" s="299"/>
+      <c r="C49" s="301"/>
+      <c r="D49" s="301"/>
       <c r="E49" s="101" t="s">
         <v>155</v>
       </c>
@@ -7648,9 +7648,9 @@
       <c r="A50" s="92">
         <v>53</v>
       </c>
-      <c r="B50" s="316"/>
-      <c r="C50" s="318"/>
-      <c r="D50" s="318"/>
+      <c r="B50" s="299"/>
+      <c r="C50" s="301"/>
+      <c r="D50" s="301"/>
       <c r="E50" s="101" t="s">
         <v>156</v>
       </c>
@@ -7693,9 +7693,9 @@
       <c r="A51" s="92">
         <v>54</v>
       </c>
-      <c r="B51" s="316"/>
-      <c r="C51" s="318"/>
-      <c r="D51" s="318"/>
+      <c r="B51" s="299"/>
+      <c r="C51" s="301"/>
+      <c r="D51" s="301"/>
       <c r="E51" s="101" t="s">
         <v>158</v>
       </c>
@@ -7738,9 +7738,9 @@
       <c r="A52" s="92">
         <v>55</v>
       </c>
-      <c r="B52" s="316"/>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
+      <c r="B52" s="299"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="301"/>
       <c r="E52" s="101" t="s">
         <v>160</v>
       </c>
@@ -7783,9 +7783,9 @@
       <c r="A53" s="92">
         <v>56</v>
       </c>
-      <c r="B53" s="316"/>
-      <c r="C53" s="318"/>
-      <c r="D53" s="318"/>
+      <c r="B53" s="299"/>
+      <c r="C53" s="301"/>
+      <c r="D53" s="301"/>
       <c r="E53" s="79" t="s">
         <v>162</v>
       </c>
@@ -7828,9 +7828,9 @@
       <c r="A54" s="92">
         <v>57</v>
       </c>
-      <c r="B54" s="316"/>
-      <c r="C54" s="318"/>
-      <c r="D54" s="318"/>
+      <c r="B54" s="299"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
       <c r="E54" s="101" t="s">
         <v>165</v>
       </c>
@@ -7873,9 +7873,9 @@
       <c r="A55" s="92">
         <v>58</v>
       </c>
-      <c r="B55" s="316"/>
-      <c r="C55" s="318"/>
-      <c r="D55" s="318"/>
+      <c r="B55" s="299"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="301"/>
       <c r="E55" s="101" t="s">
         <v>167</v>
       </c>
@@ -7918,9 +7918,9 @@
       <c r="A56" s="92">
         <v>59</v>
       </c>
-      <c r="B56" s="316"/>
-      <c r="C56" s="318"/>
-      <c r="D56" s="318"/>
+      <c r="B56" s="299"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
       <c r="E56" s="101" t="s">
         <v>169</v>
       </c>
@@ -7963,9 +7963,9 @@
       <c r="A57" s="92">
         <v>60</v>
       </c>
-      <c r="B57" s="316"/>
-      <c r="C57" s="318"/>
-      <c r="D57" s="318"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="301"/>
       <c r="E57" s="101" t="s">
         <v>172</v>
       </c>
@@ -8008,9 +8008,9 @@
       <c r="A58" s="92">
         <v>61</v>
       </c>
-      <c r="B58" s="316"/>
-      <c r="C58" s="318"/>
-      <c r="D58" s="318"/>
+      <c r="B58" s="299"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
       <c r="E58" s="93" t="s">
         <v>174</v>
       </c>
@@ -8053,9 +8053,9 @@
       <c r="A59" s="92">
         <v>62</v>
       </c>
-      <c r="B59" s="316"/>
-      <c r="C59" s="318"/>
-      <c r="D59" s="318"/>
+      <c r="B59" s="299"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="301"/>
       <c r="E59" s="101" t="s">
         <v>176</v>
       </c>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="60" spans="1:29" s="108" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="104"/>
-      <c r="B60" s="316"/>
+      <c r="B60" s="299"/>
       <c r="C60" s="119"/>
       <c r="D60" s="120"/>
       <c r="E60" s="121"/>
@@ -8127,9 +8127,9 @@
     </row>
     <row r="61" spans="1:29" s="99" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="92"/>
-      <c r="B61" s="316"/>
-      <c r="C61" s="299"/>
-      <c r="D61" s="319" t="s">
+      <c r="B61" s="299"/>
+      <c r="C61" s="323"/>
+      <c r="D61" s="302" t="s">
         <v>178</v>
       </c>
       <c r="E61" s="101" t="s">
@@ -8162,9 +8162,9 @@
     </row>
     <row r="62" spans="1:29" s="99" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A62" s="92"/>
-      <c r="B62" s="316"/>
-      <c r="C62" s="300"/>
-      <c r="D62" s="319"/>
+      <c r="B62" s="299"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="302"/>
       <c r="E62" s="101" t="s">
         <v>180</v>
       </c>
@@ -8195,9 +8195,9 @@
     </row>
     <row r="63" spans="1:29" s="99" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A63" s="92"/>
-      <c r="B63" s="316"/>
-      <c r="C63" s="300"/>
-      <c r="D63" s="319"/>
+      <c r="B63" s="299"/>
+      <c r="C63" s="324"/>
+      <c r="D63" s="302"/>
       <c r="E63" s="94" t="s">
         <v>181</v>
       </c>
@@ -8228,9 +8228,9 @@
     </row>
     <row r="64" spans="1:29" s="99" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="92"/>
-      <c r="B64" s="316"/>
-      <c r="C64" s="301"/>
-      <c r="D64" s="319"/>
+      <c r="B64" s="299"/>
+      <c r="C64" s="325"/>
+      <c r="D64" s="302"/>
       <c r="E64" s="94" t="s">
         <v>182</v>
       </c>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="65" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="92"/>
-      <c r="B65" s="316"/>
+      <c r="B65" s="299"/>
       <c r="C65" s="265"/>
       <c r="D65" s="124"/>
       <c r="E65" s="125"/>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="66" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="126"/>
-      <c r="B66" s="316"/>
+      <c r="B66" s="299"/>
       <c r="C66" s="123"/>
       <c r="D66" s="124"/>
       <c r="E66" s="125"/>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="67" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A67" s="126"/>
-      <c r="B67" s="316"/>
+      <c r="B67" s="299"/>
       <c r="C67" s="123"/>
       <c r="D67" s="124"/>
       <c r="E67" s="127"/>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="68" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A68" s="126"/>
-      <c r="B68" s="316"/>
+      <c r="B68" s="299"/>
       <c r="C68" s="123"/>
       <c r="D68" s="124"/>
       <c r="E68" s="127"/>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="69" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A69" s="126"/>
-      <c r="B69" s="316"/>
+      <c r="B69" s="299"/>
       <c r="C69" s="123"/>
       <c r="D69" s="124"/>
       <c r="E69" s="127"/>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="70" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A70" s="126"/>
-      <c r="B70" s="316"/>
+      <c r="B70" s="299"/>
       <c r="C70" s="123"/>
       <c r="D70" s="124"/>
       <c r="E70" s="127"/>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="71" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A71" s="126"/>
-      <c r="B71" s="316"/>
+      <c r="B71" s="299"/>
       <c r="C71" s="123"/>
       <c r="D71" s="128"/>
       <c r="E71" s="127"/>
@@ -8478,9 +8478,9 @@
     </row>
     <row r="72" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A72" s="126"/>
-      <c r="B72" s="316"/>
+      <c r="B72" s="299"/>
       <c r="C72" s="123"/>
-      <c r="D72" s="320"/>
+      <c r="D72" s="303"/>
       <c r="E72" s="127"/>
       <c r="F72" s="77"/>
       <c r="G72" s="94"/>
@@ -8509,9 +8509,9 @@
     </row>
     <row r="73" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A73" s="126"/>
-      <c r="B73" s="316"/>
+      <c r="B73" s="299"/>
       <c r="C73" s="123"/>
-      <c r="D73" s="320"/>
+      <c r="D73" s="303"/>
       <c r="E73" s="127"/>
       <c r="F73" s="94"/>
       <c r="G73" s="94"/>
@@ -8540,9 +8540,9 @@
     </row>
     <row r="74" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="126"/>
-      <c r="B74" s="316"/>
+      <c r="B74" s="299"/>
       <c r="C74" s="123"/>
-      <c r="D74" s="320"/>
+      <c r="D74" s="303"/>
       <c r="E74" s="129"/>
       <c r="F74" s="62"/>
       <c r="G74" s="94"/>
@@ -8571,9 +8571,9 @@
     </row>
     <row r="75" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A75" s="126"/>
-      <c r="B75" s="316"/>
+      <c r="B75" s="299"/>
       <c r="C75" s="123"/>
-      <c r="D75" s="320"/>
+      <c r="D75" s="303"/>
       <c r="E75" s="129"/>
       <c r="F75" s="62"/>
       <c r="G75" s="94"/>
@@ -8602,9 +8602,9 @@
     </row>
     <row r="76" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A76" s="126"/>
-      <c r="B76" s="316"/>
+      <c r="B76" s="299"/>
       <c r="C76" s="123"/>
-      <c r="D76" s="320"/>
+      <c r="D76" s="303"/>
       <c r="E76" s="129"/>
       <c r="F76" s="62"/>
       <c r="G76" s="94"/>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="77" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A77" s="126"/>
-      <c r="B77" s="316"/>
+      <c r="B77" s="299"/>
       <c r="C77" s="123"/>
       <c r="D77" s="130"/>
       <c r="E77" s="131"/>
@@ -8664,9 +8664,9 @@
     </row>
     <row r="78" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="126"/>
-      <c r="B78" s="316"/>
+      <c r="B78" s="299"/>
       <c r="C78" s="123"/>
-      <c r="D78" s="320"/>
+      <c r="D78" s="303"/>
       <c r="E78" s="125"/>
       <c r="F78" s="94"/>
       <c r="G78" s="94"/>
@@ -8695,9 +8695,9 @@
     </row>
     <row r="79" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A79" s="126"/>
-      <c r="B79" s="316"/>
+      <c r="B79" s="299"/>
       <c r="C79" s="123"/>
-      <c r="D79" s="320"/>
+      <c r="D79" s="303"/>
       <c r="E79" s="125"/>
       <c r="F79" s="94"/>
       <c r="G79" s="94"/>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="80" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="126"/>
-      <c r="B80" s="316"/>
+      <c r="B80" s="299"/>
       <c r="C80" s="123"/>
       <c r="D80" s="132"/>
       <c r="E80" s="127"/>
@@ -8757,9 +8757,9 @@
     </row>
     <row r="81" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A81" s="126"/>
-      <c r="B81" s="316"/>
+      <c r="B81" s="299"/>
       <c r="C81" s="123"/>
-      <c r="D81" s="321"/>
+      <c r="D81" s="304"/>
       <c r="E81" s="127"/>
       <c r="F81" s="94"/>
       <c r="G81" s="94"/>
@@ -8788,9 +8788,9 @@
     </row>
     <row r="82" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="126"/>
-      <c r="B82" s="316"/>
+      <c r="B82" s="299"/>
       <c r="C82" s="123"/>
-      <c r="D82" s="321"/>
+      <c r="D82" s="304"/>
       <c r="E82" s="127"/>
       <c r="F82" s="94"/>
       <c r="G82" s="94"/>
@@ -8819,9 +8819,9 @@
     </row>
     <row r="83" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A83" s="126"/>
-      <c r="B83" s="316"/>
+      <c r="B83" s="299"/>
       <c r="C83" s="123"/>
-      <c r="D83" s="321"/>
+      <c r="D83" s="304"/>
       <c r="E83" s="129"/>
       <c r="F83" s="62"/>
       <c r="G83" s="94"/>
@@ -8850,9 +8850,9 @@
     </row>
     <row r="84" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="126"/>
-      <c r="B84" s="316"/>
+      <c r="B84" s="299"/>
       <c r="C84" s="123"/>
-      <c r="D84" s="321"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="125"/>
       <c r="F84" s="94"/>
       <c r="G84" s="94"/>
@@ -8881,9 +8881,9 @@
     </row>
     <row r="85" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A85" s="126"/>
-      <c r="B85" s="316"/>
+      <c r="B85" s="299"/>
       <c r="C85" s="123"/>
-      <c r="D85" s="321"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="125"/>
       <c r="F85" s="94"/>
       <c r="G85" s="94"/>
@@ -8912,9 +8912,9 @@
     </row>
     <row r="86" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A86" s="126"/>
-      <c r="B86" s="316"/>
+      <c r="B86" s="299"/>
       <c r="C86" s="123"/>
-      <c r="D86" s="321"/>
+      <c r="D86" s="304"/>
       <c r="E86" s="127"/>
       <c r="F86" s="94"/>
       <c r="G86" s="94"/>
@@ -8943,9 +8943,9 @@
     </row>
     <row r="87" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A87" s="126"/>
-      <c r="B87" s="316"/>
+      <c r="B87" s="299"/>
       <c r="C87" s="123"/>
-      <c r="D87" s="321"/>
+      <c r="D87" s="304"/>
       <c r="E87" s="127"/>
       <c r="F87" s="94"/>
       <c r="G87" s="94"/>
@@ -8974,9 +8974,9 @@
     </row>
     <row r="88" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A88" s="126"/>
-      <c r="B88" s="316"/>
+      <c r="B88" s="299"/>
       <c r="C88" s="123"/>
-      <c r="D88" s="321"/>
+      <c r="D88" s="304"/>
       <c r="E88" s="127"/>
       <c r="F88" s="94"/>
       <c r="G88" s="94"/>
@@ -9005,9 +9005,9 @@
     </row>
     <row r="89" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A89" s="126"/>
-      <c r="B89" s="316"/>
+      <c r="B89" s="299"/>
       <c r="C89" s="123"/>
-      <c r="D89" s="321"/>
+      <c r="D89" s="304"/>
       <c r="E89" s="129"/>
       <c r="F89" s="62"/>
       <c r="G89" s="94"/>
@@ -9036,9 +9036,9 @@
     </row>
     <row r="90" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A90" s="126"/>
-      <c r="B90" s="316"/>
+      <c r="B90" s="299"/>
       <c r="C90" s="123"/>
-      <c r="D90" s="321"/>
+      <c r="D90" s="304"/>
       <c r="E90" s="131"/>
       <c r="F90" s="100"/>
       <c r="G90" s="100"/>
@@ -9067,9 +9067,9 @@
     </row>
     <row r="91" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A91" s="126"/>
-      <c r="B91" s="316"/>
+      <c r="B91" s="299"/>
       <c r="C91" s="123"/>
-      <c r="D91" s="321"/>
+      <c r="D91" s="304"/>
       <c r="E91" s="125"/>
       <c r="F91" s="94"/>
       <c r="G91" s="94"/>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="92" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A92" s="126"/>
-      <c r="B92" s="316"/>
+      <c r="B92" s="299"/>
       <c r="C92" s="123"/>
       <c r="D92" s="132"/>
       <c r="E92" s="125"/>
@@ -9129,9 +9129,9 @@
     </row>
     <row r="93" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A93" s="126"/>
-      <c r="B93" s="316"/>
+      <c r="B93" s="299"/>
       <c r="C93" s="123"/>
-      <c r="D93" s="322"/>
+      <c r="D93" s="305"/>
       <c r="E93" s="127"/>
       <c r="F93" s="94"/>
       <c r="G93" s="94"/>
@@ -9160,9 +9160,9 @@
     </row>
     <row r="94" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A94" s="126"/>
-      <c r="B94" s="316"/>
+      <c r="B94" s="299"/>
       <c r="C94" s="123"/>
-      <c r="D94" s="322"/>
+      <c r="D94" s="305"/>
       <c r="E94" s="127"/>
       <c r="F94" s="94"/>
       <c r="G94" s="94"/>
@@ -9191,9 +9191,9 @@
     </row>
     <row r="95" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A95" s="126"/>
-      <c r="B95" s="316"/>
+      <c r="B95" s="299"/>
       <c r="C95" s="123"/>
-      <c r="D95" s="322"/>
+      <c r="D95" s="305"/>
       <c r="E95" s="127"/>
       <c r="F95" s="94"/>
       <c r="G95" s="94"/>
@@ -9222,9 +9222,9 @@
     </row>
     <row r="96" spans="1:29" s="99" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A96" s="126"/>
-      <c r="B96" s="316"/>
+      <c r="B96" s="299"/>
       <c r="C96" s="123"/>
-      <c r="D96" s="322"/>
+      <c r="D96" s="305"/>
       <c r="E96" s="129"/>
       <c r="F96" s="62"/>
       <c r="G96" s="94"/>
@@ -9253,9 +9253,9 @@
     </row>
     <row r="97" spans="1:29" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A97" s="134"/>
-      <c r="B97" s="316"/>
+      <c r="B97" s="299"/>
       <c r="C97" s="135"/>
-      <c r="D97" s="322"/>
+      <c r="D97" s="305"/>
       <c r="E97" s="136"/>
       <c r="F97" s="137"/>
       <c r="G97" s="137"/>
@@ -9284,9 +9284,9 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A98" s="141"/>
-      <c r="B98" s="316"/>
+      <c r="B98" s="299"/>
       <c r="C98" s="135"/>
-      <c r="D98" s="322"/>
+      <c r="D98" s="305"/>
       <c r="E98" s="142"/>
       <c r="F98" s="143"/>
       <c r="G98" s="144"/>
@@ -9315,9 +9315,9 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A99" s="141"/>
-      <c r="B99" s="316"/>
+      <c r="B99" s="299"/>
       <c r="C99" s="135"/>
-      <c r="D99" s="322"/>
+      <c r="D99" s="305"/>
       <c r="E99" s="149"/>
       <c r="F99" s="150"/>
       <c r="G99" s="150"/>
@@ -9346,9 +9346,9 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A100" s="141"/>
-      <c r="B100" s="316"/>
+      <c r="B100" s="299"/>
       <c r="C100" s="135"/>
-      <c r="D100" s="322"/>
+      <c r="D100" s="305"/>
       <c r="E100" s="149"/>
       <c r="F100" s="150"/>
       <c r="G100" s="150"/>
@@ -9377,9 +9377,9 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A101" s="141"/>
-      <c r="B101" s="316"/>
+      <c r="B101" s="299"/>
       <c r="C101" s="135"/>
-      <c r="D101" s="322"/>
+      <c r="D101" s="305"/>
       <c r="E101" s="153"/>
       <c r="F101" s="150"/>
       <c r="G101" s="150"/>
@@ -9408,9 +9408,9 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A102" s="141"/>
-      <c r="B102" s="316"/>
+      <c r="B102" s="299"/>
       <c r="C102" s="135"/>
-      <c r="D102" s="322"/>
+      <c r="D102" s="305"/>
       <c r="E102" s="154"/>
       <c r="F102" s="143"/>
       <c r="G102" s="144"/>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A103" s="141"/>
-      <c r="B103" s="316"/>
+      <c r="B103" s="299"/>
       <c r="C103" s="135"/>
       <c r="D103" s="155"/>
       <c r="E103" s="142"/>
@@ -9470,9 +9470,9 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A104" s="141"/>
-      <c r="B104" s="316"/>
+      <c r="B104" s="299"/>
       <c r="C104" s="135"/>
-      <c r="D104" s="323"/>
+      <c r="D104" s="306"/>
       <c r="E104" s="156"/>
       <c r="F104" s="143"/>
       <c r="G104" s="144"/>
@@ -9501,9 +9501,9 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A105" s="141"/>
-      <c r="B105" s="316"/>
+      <c r="B105" s="299"/>
       <c r="C105" s="135"/>
-      <c r="D105" s="323"/>
+      <c r="D105" s="306"/>
       <c r="E105" s="158"/>
       <c r="F105" s="150"/>
       <c r="G105" s="150"/>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A106" s="141"/>
-      <c r="B106" s="316"/>
+      <c r="B106" s="299"/>
       <c r="C106" s="135"/>
       <c r="D106" s="9"/>
       <c r="E106" s="159"/>
@@ -9563,9 +9563,9 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" s="141"/>
-      <c r="B107" s="316"/>
+      <c r="B107" s="299"/>
       <c r="C107" s="135"/>
-      <c r="D107" s="307"/>
+      <c r="D107" s="313"/>
       <c r="E107" s="158"/>
       <c r="F107" s="150"/>
       <c r="G107" s="150"/>
@@ -9594,9 +9594,9 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A108" s="141"/>
-      <c r="B108" s="316"/>
+      <c r="B108" s="299"/>
       <c r="C108" s="135"/>
-      <c r="D108" s="307"/>
+      <c r="D108" s="313"/>
       <c r="E108" s="156"/>
       <c r="F108" s="150"/>
       <c r="G108" s="150"/>
@@ -9625,9 +9625,9 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A109" s="141"/>
-      <c r="B109" s="316"/>
+      <c r="B109" s="299"/>
       <c r="C109" s="135"/>
-      <c r="D109" s="307"/>
+      <c r="D109" s="313"/>
       <c r="E109" s="158"/>
       <c r="F109" s="150"/>
       <c r="G109" s="150"/>
@@ -9656,9 +9656,9 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A110" s="141"/>
-      <c r="B110" s="316"/>
+      <c r="B110" s="299"/>
       <c r="C110" s="135"/>
-      <c r="D110" s="307"/>
+      <c r="D110" s="313"/>
       <c r="E110" s="156"/>
       <c r="F110" s="143"/>
       <c r="G110" s="144"/>
@@ -9687,9 +9687,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A111" s="141"/>
-      <c r="B111" s="316"/>
+      <c r="B111" s="299"/>
       <c r="C111" s="135"/>
-      <c r="D111" s="307"/>
+      <c r="D111" s="313"/>
       <c r="E111" s="160"/>
       <c r="F111" s="161"/>
       <c r="G111" s="152"/>
@@ -9718,9 +9718,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A112" s="141"/>
-      <c r="B112" s="316"/>
+      <c r="B112" s="299"/>
       <c r="C112" s="135"/>
-      <c r="D112" s="307"/>
+      <c r="D112" s="313"/>
       <c r="E112" s="156"/>
       <c r="F112" s="162"/>
       <c r="G112" s="144"/>
@@ -9749,9 +9749,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A113" s="141"/>
-      <c r="B113" s="316"/>
+      <c r="B113" s="299"/>
       <c r="C113" s="135"/>
-      <c r="D113" s="307"/>
+      <c r="D113" s="313"/>
       <c r="E113" s="160"/>
       <c r="F113" s="163"/>
       <c r="G113" s="152"/>
@@ -9780,7 +9780,7 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A114" s="141"/>
-      <c r="B114" s="316"/>
+      <c r="B114" s="299"/>
       <c r="C114" s="135"/>
       <c r="D114" s="164"/>
       <c r="E114" s="160"/>
@@ -9811,9 +9811,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A115" s="141"/>
-      <c r="B115" s="316"/>
+      <c r="B115" s="299"/>
       <c r="C115" s="135"/>
-      <c r="D115" s="308"/>
+      <c r="D115" s="314"/>
       <c r="E115" s="165"/>
       <c r="F115" s="166"/>
       <c r="G115" s="152"/>
@@ -9842,9 +9842,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A116" s="141"/>
-      <c r="B116" s="316"/>
+      <c r="B116" s="299"/>
       <c r="C116" s="135"/>
-      <c r="D116" s="308"/>
+      <c r="D116" s="314"/>
       <c r="E116" s="160"/>
       <c r="F116" s="166"/>
       <c r="G116" s="152"/>
@@ -9873,9 +9873,9 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A117" s="141"/>
-      <c r="B117" s="316"/>
+      <c r="B117" s="299"/>
       <c r="C117" s="135"/>
-      <c r="D117" s="308"/>
+      <c r="D117" s="314"/>
       <c r="E117" s="167"/>
       <c r="F117" s="157"/>
       <c r="G117" s="157"/>
@@ -9904,9 +9904,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A118" s="141"/>
-      <c r="B118" s="316"/>
+      <c r="B118" s="299"/>
       <c r="C118" s="135"/>
-      <c r="D118" s="308"/>
+      <c r="D118" s="314"/>
       <c r="E118" s="167"/>
       <c r="F118" s="157"/>
       <c r="G118" s="157"/>
@@ -9935,9 +9935,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A119" s="141"/>
-      <c r="B119" s="316"/>
+      <c r="B119" s="299"/>
       <c r="C119" s="135"/>
-      <c r="D119" s="308"/>
+      <c r="D119" s="314"/>
       <c r="E119" s="167"/>
       <c r="F119" s="157"/>
       <c r="G119" s="157"/>
@@ -9966,9 +9966,9 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A120" s="141"/>
-      <c r="B120" s="316"/>
+      <c r="B120" s="299"/>
       <c r="C120" s="135"/>
-      <c r="D120" s="308"/>
+      <c r="D120" s="314"/>
       <c r="E120" s="167"/>
       <c r="F120" s="157"/>
       <c r="G120" s="157"/>
@@ -9997,9 +9997,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A121" s="141"/>
-      <c r="B121" s="316"/>
+      <c r="B121" s="299"/>
       <c r="C121" s="135"/>
-      <c r="D121" s="308"/>
+      <c r="D121" s="314"/>
       <c r="E121" s="167"/>
       <c r="F121" s="157"/>
       <c r="G121" s="157"/>
@@ -10028,9 +10028,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A122" s="141"/>
-      <c r="B122" s="316"/>
+      <c r="B122" s="299"/>
       <c r="C122" s="135"/>
-      <c r="D122" s="308"/>
+      <c r="D122" s="314"/>
       <c r="E122" s="167"/>
       <c r="F122" s="157"/>
       <c r="G122" s="157"/>
@@ -10059,9 +10059,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A123" s="141"/>
-      <c r="B123" s="316"/>
+      <c r="B123" s="299"/>
       <c r="C123" s="135"/>
-      <c r="D123" s="308"/>
+      <c r="D123" s="314"/>
       <c r="E123" s="167"/>
       <c r="F123" s="157"/>
       <c r="G123" s="157"/>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A124" s="141"/>
-      <c r="B124" s="316"/>
+      <c r="B124" s="299"/>
       <c r="C124" s="168"/>
       <c r="D124" s="169"/>
       <c r="E124" s="167"/>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A125" s="141"/>
-      <c r="B125" s="316"/>
+      <c r="B125" s="299"/>
       <c r="C125" s="170"/>
       <c r="D125" s="169"/>
       <c r="E125" s="167"/>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A126" s="141"/>
-      <c r="B126" s="316"/>
+      <c r="B126" s="299"/>
       <c r="C126" s="170"/>
       <c r="D126" s="171"/>
       <c r="E126" s="167"/>
@@ -10183,9 +10183,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A127" s="141"/>
-      <c r="B127" s="316"/>
+      <c r="B127" s="299"/>
       <c r="C127" s="170"/>
-      <c r="D127" s="309"/>
+      <c r="D127" s="315"/>
       <c r="E127" s="172"/>
       <c r="F127" s="157"/>
       <c r="G127" s="157"/>
@@ -10214,9 +10214,9 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A128" s="141"/>
-      <c r="B128" s="316"/>
+      <c r="B128" s="299"/>
       <c r="C128" s="170"/>
-      <c r="D128" s="309"/>
+      <c r="D128" s="315"/>
       <c r="E128" s="172"/>
       <c r="F128" s="157"/>
       <c r="G128" s="157"/>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A129" s="141"/>
-      <c r="B129" s="316"/>
+      <c r="B129" s="299"/>
       <c r="C129" s="170"/>
       <c r="D129" s="173"/>
       <c r="E129" s="167"/>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A130" s="141"/>
-      <c r="B130" s="316"/>
+      <c r="B130" s="299"/>
       <c r="C130" s="170"/>
       <c r="D130" s="174"/>
       <c r="E130" s="167"/>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A131" s="141"/>
-      <c r="B131" s="316"/>
+      <c r="B131" s="299"/>
       <c r="C131" s="170"/>
       <c r="D131" s="174"/>
       <c r="E131" s="175"/>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A132" s="141"/>
-      <c r="B132" s="316"/>
+      <c r="B132" s="299"/>
       <c r="C132" s="170"/>
       <c r="D132" s="174"/>
       <c r="E132" s="167"/>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A133" s="141"/>
-      <c r="B133" s="316"/>
+      <c r="B133" s="299"/>
       <c r="C133" s="170"/>
       <c r="D133" s="174"/>
       <c r="E133" s="167"/>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A134" s="141"/>
-      <c r="B134" s="316"/>
+      <c r="B134" s="299"/>
       <c r="C134" s="170"/>
       <c r="D134" s="174"/>
       <c r="E134" s="167"/>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A135" s="141"/>
-      <c r="B135" s="316"/>
+      <c r="B135" s="299"/>
       <c r="C135" s="170"/>
       <c r="D135" s="174"/>
       <c r="E135" s="167"/>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A136" s="141"/>
-      <c r="B136" s="316"/>
+      <c r="B136" s="299"/>
       <c r="C136" s="170"/>
       <c r="D136" s="174"/>
       <c r="E136" s="175"/>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A137" s="141"/>
-      <c r="B137" s="316"/>
+      <c r="B137" s="299"/>
       <c r="C137" s="170"/>
       <c r="D137" s="174"/>
       <c r="E137" s="175"/>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A138" s="141"/>
-      <c r="B138" s="316"/>
+      <c r="B138" s="299"/>
       <c r="C138" s="170"/>
       <c r="D138" s="174"/>
       <c r="E138" s="175"/>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A139" s="141"/>
-      <c r="B139" s="316"/>
+      <c r="B139" s="299"/>
       <c r="C139" s="170"/>
       <c r="D139" s="174"/>
       <c r="E139" s="167"/>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A140" s="141"/>
-      <c r="B140" s="316"/>
+      <c r="B140" s="299"/>
       <c r="C140" s="170"/>
       <c r="D140" s="174"/>
       <c r="E140" s="167"/>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A141" s="141"/>
-      <c r="B141" s="316"/>
+      <c r="B141" s="299"/>
       <c r="C141" s="170"/>
       <c r="D141" s="174"/>
       <c r="E141" s="167"/>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A142" s="141"/>
-      <c r="B142" s="316"/>
+      <c r="B142" s="299"/>
       <c r="C142" s="170"/>
       <c r="D142" s="174"/>
       <c r="E142" s="167"/>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A143" s="141"/>
-      <c r="B143" s="316"/>
+      <c r="B143" s="299"/>
       <c r="C143" s="170"/>
       <c r="D143" s="174"/>
       <c r="E143" s="167"/>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A144" s="141"/>
-      <c r="B144" s="316"/>
+      <c r="B144" s="299"/>
       <c r="C144" s="170"/>
       <c r="D144" s="174"/>
       <c r="E144" s="167"/>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A145" s="180"/>
-      <c r="B145" s="316"/>
+      <c r="B145" s="299"/>
       <c r="C145" s="170"/>
       <c r="D145" s="181"/>
       <c r="E145" s="182"/>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A146" s="180"/>
-      <c r="B146" s="316"/>
+      <c r="B146" s="299"/>
       <c r="C146" s="170"/>
       <c r="D146" s="183"/>
       <c r="E146" s="167"/>
@@ -10803,7 +10803,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A147" s="180"/>
-      <c r="B147" s="316"/>
+      <c r="B147" s="299"/>
       <c r="C147" s="170"/>
       <c r="D147" s="183"/>
       <c r="E147" s="167"/>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A148" s="180"/>
-      <c r="B148" s="316"/>
+      <c r="B148" s="299"/>
       <c r="C148" s="170"/>
       <c r="D148" s="183"/>
       <c r="E148" s="184"/>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A149" s="180"/>
-      <c r="B149" s="316"/>
+      <c r="B149" s="299"/>
       <c r="C149" s="170"/>
       <c r="D149" s="183"/>
       <c r="E149" s="185"/>
@@ -10896,7 +10896,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A150" s="180"/>
-      <c r="B150" s="316"/>
+      <c r="B150" s="299"/>
       <c r="C150" s="170"/>
       <c r="D150" s="183"/>
       <c r="E150" s="185"/>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A151" s="180"/>
-      <c r="B151" s="316"/>
+      <c r="B151" s="299"/>
       <c r="C151" s="170"/>
       <c r="D151" s="183"/>
       <c r="E151" s="185"/>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A152" s="180"/>
-      <c r="B152" s="316"/>
+      <c r="B152" s="299"/>
       <c r="C152" s="170"/>
       <c r="D152" s="183"/>
       <c r="E152" s="185"/>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A153" s="180"/>
-      <c r="B153" s="316"/>
+      <c r="B153" s="299"/>
       <c r="C153" s="170"/>
       <c r="D153" s="183"/>
       <c r="E153" s="167"/>
@@ -11020,7 +11020,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A154" s="180"/>
-      <c r="B154" s="316"/>
+      <c r="B154" s="299"/>
       <c r="C154" s="170"/>
       <c r="D154" s="183"/>
       <c r="E154" s="167"/>
@@ -11051,7 +11051,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A155" s="180"/>
-      <c r="B155" s="316"/>
+      <c r="B155" s="299"/>
       <c r="C155" s="170"/>
       <c r="D155" s="183"/>
       <c r="E155" s="167"/>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A156" s="180"/>
-      <c r="B156" s="316"/>
+      <c r="B156" s="299"/>
       <c r="C156" s="170"/>
       <c r="D156" s="183"/>
       <c r="E156" s="167"/>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A157" s="180"/>
-      <c r="B157" s="316"/>
+      <c r="B157" s="299"/>
       <c r="C157" s="170"/>
       <c r="D157" s="183"/>
       <c r="E157" s="182"/>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A158" s="180"/>
-      <c r="B158" s="316"/>
+      <c r="B158" s="299"/>
       <c r="C158" s="170"/>
       <c r="D158" s="186"/>
       <c r="E158" s="187"/>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A159" s="180"/>
-      <c r="B159" s="316"/>
+      <c r="B159" s="299"/>
       <c r="C159" s="170"/>
       <c r="D159" s="188"/>
       <c r="E159" s="182"/>
@@ -11206,9 +11206,9 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A160" s="180"/>
-      <c r="B160" s="316"/>
+      <c r="B160" s="299"/>
       <c r="C160" s="170"/>
-      <c r="D160" s="310"/>
+      <c r="D160" s="316"/>
       <c r="E160" s="167"/>
       <c r="F160" s="157"/>
       <c r="G160" s="157"/>
@@ -11217,7 +11217,7 @@
       <c r="J160" s="270"/>
       <c r="K160" s="270"/>
       <c r="L160" s="271"/>
-      <c r="M160" s="311"/>
+      <c r="M160" s="294"/>
       <c r="N160" s="148"/>
       <c r="O160" s="148"/>
       <c r="P160" s="148"/>
@@ -11237,9 +11237,9 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A161" s="141"/>
-      <c r="B161" s="316"/>
+      <c r="B161" s="299"/>
       <c r="C161" s="170"/>
-      <c r="D161" s="310"/>
+      <c r="D161" s="316"/>
       <c r="E161" s="167"/>
       <c r="F161" s="157"/>
       <c r="G161" s="157"/>
@@ -11248,7 +11248,7 @@
       <c r="J161" s="270"/>
       <c r="K161" s="270"/>
       <c r="L161" s="271"/>
-      <c r="M161" s="312"/>
+      <c r="M161" s="295"/>
       <c r="N161" s="148"/>
       <c r="O161" s="148"/>
       <c r="P161" s="148"/>
@@ -11268,9 +11268,9 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A162" s="141"/>
-      <c r="B162" s="316"/>
+      <c r="B162" s="299"/>
       <c r="C162" s="170"/>
-      <c r="D162" s="310"/>
+      <c r="D162" s="316"/>
       <c r="E162" s="184"/>
       <c r="F162" s="157"/>
       <c r="G162" s="157"/>
@@ -11279,7 +11279,7 @@
       <c r="J162" s="270"/>
       <c r="K162" s="270"/>
       <c r="L162" s="271"/>
-      <c r="M162" s="312"/>
+      <c r="M162" s="295"/>
       <c r="N162" s="148"/>
       <c r="O162" s="148"/>
       <c r="P162" s="148"/>
@@ -11299,9 +11299,9 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A163" s="141"/>
-      <c r="B163" s="316"/>
+      <c r="B163" s="299"/>
       <c r="C163" s="170"/>
-      <c r="D163" s="310"/>
+      <c r="D163" s="316"/>
       <c r="E163" s="185"/>
       <c r="F163" s="157"/>
       <c r="G163" s="157"/>
@@ -11310,7 +11310,7 @@
       <c r="J163" s="270"/>
       <c r="K163" s="270"/>
       <c r="L163" s="271"/>
-      <c r="M163" s="312"/>
+      <c r="M163" s="295"/>
       <c r="N163" s="148"/>
       <c r="O163" s="148"/>
       <c r="P163" s="148"/>
@@ -11330,9 +11330,9 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A164" s="141"/>
-      <c r="B164" s="316"/>
+      <c r="B164" s="299"/>
       <c r="C164" s="170"/>
-      <c r="D164" s="310"/>
+      <c r="D164" s="316"/>
       <c r="E164" s="185"/>
       <c r="F164" s="157"/>
       <c r="G164" s="157"/>
@@ -11341,7 +11341,7 @@
       <c r="J164" s="270"/>
       <c r="K164" s="270"/>
       <c r="L164" s="271"/>
-      <c r="M164" s="312"/>
+      <c r="M164" s="295"/>
       <c r="N164" s="148"/>
       <c r="O164" s="148"/>
       <c r="P164" s="148"/>
@@ -11361,9 +11361,9 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A165" s="141"/>
-      <c r="B165" s="316"/>
+      <c r="B165" s="299"/>
       <c r="C165" s="170"/>
-      <c r="D165" s="310"/>
+      <c r="D165" s="316"/>
       <c r="E165" s="185"/>
       <c r="F165" s="157"/>
       <c r="G165" s="157"/>
@@ -11372,7 +11372,7 @@
       <c r="J165" s="270"/>
       <c r="K165" s="270"/>
       <c r="L165" s="271"/>
-      <c r="M165" s="312"/>
+      <c r="M165" s="295"/>
       <c r="N165" s="148"/>
       <c r="O165" s="148"/>
       <c r="P165" s="148"/>
@@ -11392,9 +11392,9 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A166" s="141"/>
-      <c r="B166" s="316"/>
+      <c r="B166" s="299"/>
       <c r="C166" s="170"/>
-      <c r="D166" s="310"/>
+      <c r="D166" s="316"/>
       <c r="E166" s="185"/>
       <c r="F166" s="157"/>
       <c r="G166" s="157"/>
@@ -11403,7 +11403,7 @@
       <c r="J166" s="270"/>
       <c r="K166" s="270"/>
       <c r="L166" s="271"/>
-      <c r="M166" s="312"/>
+      <c r="M166" s="295"/>
       <c r="N166" s="148"/>
       <c r="O166" s="148"/>
       <c r="P166" s="148"/>
@@ -11423,9 +11423,9 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A167" s="141"/>
-      <c r="B167" s="316"/>
+      <c r="B167" s="299"/>
       <c r="C167" s="170"/>
-      <c r="D167" s="310"/>
+      <c r="D167" s="316"/>
       <c r="E167" s="167"/>
       <c r="F167" s="157"/>
       <c r="G167" s="157"/>
@@ -11434,7 +11434,7 @@
       <c r="J167" s="270"/>
       <c r="K167" s="270"/>
       <c r="L167" s="271"/>
-      <c r="M167" s="313"/>
+      <c r="M167" s="296"/>
       <c r="N167" s="148"/>
       <c r="O167" s="148"/>
       <c r="P167" s="148"/>
@@ -11454,9 +11454,9 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A168" s="141"/>
-      <c r="B168" s="316"/>
+      <c r="B168" s="299"/>
       <c r="C168" s="170"/>
-      <c r="D168" s="310"/>
+      <c r="D168" s="316"/>
       <c r="E168" s="167"/>
       <c r="F168" s="157"/>
       <c r="G168" s="157"/>
@@ -11485,9 +11485,9 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A169" s="141"/>
-      <c r="B169" s="316"/>
+      <c r="B169" s="299"/>
       <c r="C169" s="170"/>
-      <c r="D169" s="310"/>
+      <c r="D169" s="316"/>
       <c r="E169" s="167"/>
       <c r="F169" s="157"/>
       <c r="G169" s="157"/>
@@ -11516,9 +11516,9 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A170" s="141"/>
-      <c r="B170" s="316"/>
+      <c r="B170" s="299"/>
       <c r="C170" s="170"/>
-      <c r="D170" s="310"/>
+      <c r="D170" s="316"/>
       <c r="E170" s="167"/>
       <c r="F170" s="157"/>
       <c r="G170" s="157"/>
@@ -11582,7 +11582,7 @@
       <c r="C172" s="191" t="s">
         <v>183</v>
       </c>
-      <c r="D172" s="298"/>
+      <c r="D172" s="322"/>
       <c r="E172" s="167"/>
       <c r="F172" s="157"/>
       <c r="G172" s="179"/>
@@ -11613,7 +11613,7 @@
       <c r="A173" s="189"/>
       <c r="B173" s="188"/>
       <c r="C173" s="193"/>
-      <c r="D173" s="298"/>
+      <c r="D173" s="322"/>
       <c r="E173" s="167"/>
       <c r="F173" s="157"/>
       <c r="G173" s="179"/>
@@ -11644,7 +11644,7 @@
       <c r="A174" s="189"/>
       <c r="B174" s="188"/>
       <c r="C174" s="193"/>
-      <c r="D174" s="298"/>
+      <c r="D174" s="322"/>
       <c r="E174" s="167"/>
       <c r="F174" s="157"/>
       <c r="G174" s="179"/>
@@ -11675,7 +11675,7 @@
       <c r="A175" s="189"/>
       <c r="B175" s="188"/>
       <c r="C175" s="188"/>
-      <c r="D175" s="298"/>
+      <c r="D175" s="322"/>
       <c r="E175" s="175"/>
       <c r="F175" s="157"/>
       <c r="G175" s="179"/>
@@ -11706,7 +11706,7 @@
       <c r="A176" s="189"/>
       <c r="B176" s="192"/>
       <c r="C176" s="188"/>
-      <c r="D176" s="298"/>
+      <c r="D176" s="322"/>
       <c r="E176" s="175"/>
       <c r="F176" s="157"/>
       <c r="G176" s="179"/>
@@ -11737,7 +11737,7 @@
       <c r="A177" s="189"/>
       <c r="B177" s="192"/>
       <c r="C177" s="188"/>
-      <c r="D177" s="298"/>
+      <c r="D177" s="322"/>
       <c r="E177" s="175"/>
       <c r="F177" s="157"/>
       <c r="G177" s="179"/>
@@ -11768,7 +11768,7 @@
       <c r="A178" s="189"/>
       <c r="B178" s="192"/>
       <c r="C178" s="188"/>
-      <c r="D178" s="298"/>
+      <c r="D178" s="322"/>
       <c r="E178" s="167"/>
       <c r="F178" s="157"/>
       <c r="G178" s="179"/>
@@ -11799,7 +11799,7 @@
       <c r="A179" s="189"/>
       <c r="B179" s="192"/>
       <c r="C179" s="188"/>
-      <c r="D179" s="298"/>
+      <c r="D179" s="322"/>
       <c r="E179" s="167"/>
       <c r="F179" s="157"/>
       <c r="G179" s="179"/>
@@ -11830,7 +11830,7 @@
       <c r="A180" s="189"/>
       <c r="B180" s="192"/>
       <c r="C180" s="192"/>
-      <c r="D180" s="298"/>
+      <c r="D180" s="322"/>
       <c r="E180" s="167"/>
       <c r="F180" s="157"/>
       <c r="G180" s="179"/>
@@ -13170,8 +13170,8 @@
       <c r="H223" s="213"/>
       <c r="I223" s="213"/>
       <c r="J223" s="213"/>
-      <c r="K223" s="303"/>
-      <c r="L223" s="305"/>
+      <c r="K223" s="309"/>
+      <c r="L223" s="310"/>
       <c r="M223" s="208"/>
       <c r="N223" s="148"/>
       <c r="O223" s="148"/>
@@ -13201,8 +13201,8 @@
       <c r="H224" s="214"/>
       <c r="I224" s="214"/>
       <c r="J224" s="214"/>
-      <c r="K224" s="303"/>
-      <c r="L224" s="305"/>
+      <c r="K224" s="309"/>
+      <c r="L224" s="310"/>
       <c r="M224" s="208"/>
       <c r="N224" s="148"/>
       <c r="O224" s="148"/>
@@ -13232,8 +13232,8 @@
       <c r="H225" s="137"/>
       <c r="I225" s="137"/>
       <c r="J225" s="137"/>
-      <c r="K225" s="303"/>
-      <c r="L225" s="305"/>
+      <c r="K225" s="309"/>
+      <c r="L225" s="310"/>
       <c r="M225" s="208"/>
       <c r="N225" s="148"/>
       <c r="O225" s="148"/>
@@ -13441,9 +13441,9 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
       <c r="A232" s="189"/>
       <c r="B232" s="200"/>
-      <c r="C232" s="295"/>
+      <c r="C232" s="311"/>
       <c r="D232" s="188"/>
-      <c r="E232" s="306"/>
+      <c r="E232" s="312"/>
       <c r="F232" s="150"/>
       <c r="G232" s="150"/>
       <c r="H232" s="150"/>
@@ -13472,9 +13472,9 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="189"/>
       <c r="B233" s="200"/>
-      <c r="C233" s="295"/>
+      <c r="C233" s="311"/>
       <c r="D233" s="188"/>
-      <c r="E233" s="306"/>
+      <c r="E233" s="312"/>
       <c r="F233" s="150"/>
       <c r="G233" s="150"/>
       <c r="H233" s="150"/>
@@ -13503,9 +13503,9 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1">
       <c r="A234" s="189"/>
       <c r="B234" s="200"/>
-      <c r="C234" s="295"/>
+      <c r="C234" s="311"/>
       <c r="D234" s="188"/>
-      <c r="E234" s="306"/>
+      <c r="E234" s="312"/>
       <c r="F234" s="150"/>
       <c r="G234" s="150"/>
       <c r="H234" s="150"/>
@@ -13534,7 +13534,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1">
       <c r="A235" s="189"/>
       <c r="B235" s="200"/>
-      <c r="C235" s="295"/>
+      <c r="C235" s="311"/>
       <c r="D235" s="188"/>
       <c r="E235" s="158"/>
       <c r="F235" s="150"/>
@@ -13565,7 +13565,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1">
       <c r="A236" s="189"/>
       <c r="B236" s="200"/>
-      <c r="C236" s="295"/>
+      <c r="C236" s="311"/>
       <c r="D236" s="188"/>
       <c r="E236" s="158"/>
       <c r="F236" s="150"/>
@@ -13596,7 +13596,7 @@
     <row r="237" spans="1:29" ht="15.75" customHeight="1">
       <c r="A237" s="189"/>
       <c r="B237" s="200"/>
-      <c r="C237" s="295"/>
+      <c r="C237" s="311"/>
       <c r="D237" s="188"/>
       <c r="E237" s="158"/>
       <c r="F237" s="211"/>
@@ -13627,7 +13627,7 @@
     <row r="238" spans="1:29" ht="15.75" customHeight="1">
       <c r="A238" s="189"/>
       <c r="B238" s="200"/>
-      <c r="C238" s="295"/>
+      <c r="C238" s="311"/>
       <c r="D238" s="188"/>
       <c r="E238" s="158"/>
       <c r="F238" s="150"/>
@@ -13658,7 +13658,7 @@
     <row r="239" spans="1:29" ht="15.75" customHeight="1">
       <c r="A239" s="189"/>
       <c r="B239" s="200"/>
-      <c r="C239" s="296"/>
+      <c r="C239" s="317"/>
       <c r="D239" s="198"/>
       <c r="E239" s="158"/>
       <c r="F239" s="211"/>
@@ -13689,7 +13689,7 @@
     <row r="240" spans="1:29" ht="15.75" customHeight="1">
       <c r="A240" s="189"/>
       <c r="B240" s="200"/>
-      <c r="C240" s="296"/>
+      <c r="C240" s="317"/>
       <c r="D240" s="219"/>
       <c r="E240" s="158"/>
       <c r="F240" s="211"/>
@@ -13751,7 +13751,7 @@
     <row r="242" spans="1:29" ht="30" customHeight="1">
       <c r="A242" s="189"/>
       <c r="B242" s="200"/>
-      <c r="C242" s="296"/>
+      <c r="C242" s="317"/>
       <c r="D242" s="198"/>
       <c r="E242" s="158"/>
       <c r="F242" s="150"/>
@@ -13782,7 +13782,7 @@
     <row r="243" spans="1:29" ht="15.75" customHeight="1">
       <c r="A243" s="189"/>
       <c r="B243" s="200"/>
-      <c r="C243" s="296"/>
+      <c r="C243" s="317"/>
       <c r="D243" s="199"/>
       <c r="E243" s="158"/>
       <c r="F243" s="150"/>
@@ -13813,7 +13813,7 @@
     <row r="244" spans="1:29" ht="15.75" customHeight="1">
       <c r="A244" s="189"/>
       <c r="B244" s="200"/>
-      <c r="C244" s="296"/>
+      <c r="C244" s="317"/>
       <c r="D244" s="199"/>
       <c r="E244" s="158"/>
       <c r="F244" s="150"/>
@@ -13844,7 +13844,7 @@
     <row r="245" spans="1:29" ht="15.75" customHeight="1">
       <c r="A245" s="189"/>
       <c r="B245" s="200"/>
-      <c r="C245" s="296"/>
+      <c r="C245" s="317"/>
       <c r="D245" s="199"/>
       <c r="E245" s="158"/>
       <c r="F245" s="211"/>
@@ -13875,7 +13875,7 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="189"/>
       <c r="B246" s="200"/>
-      <c r="C246" s="296"/>
+      <c r="C246" s="317"/>
       <c r="D246" s="199"/>
       <c r="E246" s="221"/>
       <c r="F246" s="150"/>
@@ -14255,7 +14255,7 @@
       <c r="H258" s="211"/>
       <c r="I258" s="211"/>
       <c r="J258" s="211"/>
-      <c r="K258" s="302"/>
+      <c r="K258" s="318"/>
       <c r="L258" s="147"/>
       <c r="M258" s="177"/>
       <c r="N258" s="148"/>
@@ -14286,7 +14286,7 @@
       <c r="H259" s="211"/>
       <c r="I259" s="211"/>
       <c r="J259" s="211"/>
-      <c r="K259" s="302"/>
+      <c r="K259" s="318"/>
       <c r="L259" s="147"/>
       <c r="M259" s="177"/>
       <c r="N259" s="148"/>
@@ -14371,7 +14371,7 @@
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
       <c r="A262" s="189"/>
       <c r="B262" s="200"/>
-      <c r="C262" s="296"/>
+      <c r="C262" s="317"/>
       <c r="D262" s="198"/>
       <c r="E262" s="158"/>
       <c r="F262" s="211"/>
@@ -14379,7 +14379,7 @@
       <c r="H262" s="211"/>
       <c r="I262" s="211"/>
       <c r="J262" s="211"/>
-      <c r="K262" s="303"/>
+      <c r="K262" s="309"/>
       <c r="L262" s="147"/>
       <c r="M262" s="177"/>
       <c r="N262" s="148"/>
@@ -14402,7 +14402,7 @@
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
       <c r="A263" s="189"/>
       <c r="B263" s="200"/>
-      <c r="C263" s="296"/>
+      <c r="C263" s="317"/>
       <c r="D263" s="219"/>
       <c r="E263" s="158"/>
       <c r="F263" s="211"/>
@@ -14410,7 +14410,7 @@
       <c r="H263" s="211"/>
       <c r="I263" s="211"/>
       <c r="J263" s="211"/>
-      <c r="K263" s="303"/>
+      <c r="K263" s="309"/>
       <c r="L263" s="147"/>
       <c r="M263" s="177"/>
       <c r="N263" s="148"/>
@@ -14433,7 +14433,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="189"/>
       <c r="B264" s="200"/>
-      <c r="C264" s="295"/>
+      <c r="C264" s="311"/>
       <c r="D264" s="212"/>
       <c r="E264" s="175"/>
       <c r="F264" s="157"/>
@@ -14464,7 +14464,7 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="189"/>
       <c r="B265" s="200"/>
-      <c r="C265" s="295"/>
+      <c r="C265" s="311"/>
       <c r="D265" s="173"/>
       <c r="E265" s="175"/>
       <c r="F265" s="157"/>
@@ -14526,7 +14526,7 @@
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
       <c r="A267" s="189"/>
       <c r="B267" s="200"/>
-      <c r="C267" s="296"/>
+      <c r="C267" s="317"/>
       <c r="D267" s="198"/>
       <c r="E267" s="175"/>
       <c r="F267" s="157"/>
@@ -14557,7 +14557,7 @@
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
       <c r="A268" s="189"/>
       <c r="B268" s="200"/>
-      <c r="C268" s="296"/>
+      <c r="C268" s="317"/>
       <c r="D268" s="199"/>
       <c r="E268" s="175"/>
       <c r="F268" s="157"/>
@@ -14588,7 +14588,7 @@
     <row r="269" spans="1:29" ht="15.75" customHeight="1">
       <c r="A269" s="189"/>
       <c r="B269" s="200"/>
-      <c r="C269" s="296"/>
+      <c r="C269" s="317"/>
       <c r="D269" s="219"/>
       <c r="E269" s="175"/>
       <c r="F269" s="157"/>
@@ -14773,10 +14773,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
       <c r="A275" s="195"/>
-      <c r="B275" s="297"/>
-      <c r="C275" s="295"/>
+      <c r="B275" s="319"/>
+      <c r="C275" s="311"/>
       <c r="D275" s="188"/>
-      <c r="E275" s="295"/>
+      <c r="E275" s="311"/>
       <c r="F275" s="150"/>
       <c r="G275" s="150"/>
       <c r="H275" s="150"/>
@@ -14804,10 +14804,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="195"/>
-      <c r="B276" s="297"/>
-      <c r="C276" s="297"/>
+      <c r="B276" s="319"/>
+      <c r="C276" s="319"/>
       <c r="D276" s="188"/>
-      <c r="E276" s="295"/>
+      <c r="E276" s="311"/>
       <c r="F276" s="150"/>
       <c r="G276" s="150"/>
       <c r="H276" s="150"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="195"/>
-      <c r="B277" s="297"/>
-      <c r="C277" s="297"/>
+      <c r="B277" s="319"/>
+      <c r="C277" s="319"/>
       <c r="D277" s="188"/>
-      <c r="E277" s="295"/>
+      <c r="E277" s="311"/>
       <c r="F277" s="150"/>
       <c r="G277" s="150"/>
       <c r="H277" s="150"/>
@@ -14866,10 +14866,10 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="195"/>
-      <c r="B278" s="297"/>
-      <c r="C278" s="297"/>
+      <c r="B278" s="319"/>
+      <c r="C278" s="319"/>
       <c r="D278" s="188"/>
-      <c r="E278" s="295"/>
+      <c r="E278" s="311"/>
       <c r="F278" s="150"/>
       <c r="G278" s="150"/>
       <c r="H278" s="150"/>
@@ -14897,10 +14897,10 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="195"/>
-      <c r="B279" s="297"/>
-      <c r="C279" s="297"/>
+      <c r="B279" s="319"/>
+      <c r="C279" s="319"/>
       <c r="D279" s="188"/>
-      <c r="E279" s="295"/>
+      <c r="E279" s="311"/>
       <c r="F279" s="150"/>
       <c r="G279" s="150"/>
       <c r="H279" s="150"/>
@@ -14928,10 +14928,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="195"/>
-      <c r="B280" s="297"/>
-      <c r="C280" s="297"/>
+      <c r="B280" s="319"/>
+      <c r="C280" s="319"/>
       <c r="D280" s="188"/>
-      <c r="E280" s="295"/>
+      <c r="E280" s="311"/>
       <c r="F280" s="211"/>
       <c r="G280" s="211"/>
       <c r="H280" s="211"/>
@@ -14959,10 +14959,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="195"/>
-      <c r="B281" s="297"/>
-      <c r="C281" s="297"/>
+      <c r="B281" s="319"/>
+      <c r="C281" s="319"/>
       <c r="D281" s="188"/>
-      <c r="E281" s="295"/>
+      <c r="E281" s="311"/>
       <c r="F281" s="150"/>
       <c r="G281" s="150"/>
       <c r="H281" s="150"/>
@@ -14990,10 +14990,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="195"/>
-      <c r="B282" s="297"/>
-      <c r="C282" s="297"/>
+      <c r="B282" s="319"/>
+      <c r="C282" s="319"/>
       <c r="D282" s="188"/>
-      <c r="E282" s="295"/>
+      <c r="E282" s="311"/>
       <c r="F282" s="150"/>
       <c r="G282" s="150"/>
       <c r="H282" s="150"/>
@@ -15021,8 +15021,8 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="195"/>
-      <c r="B283" s="297"/>
-      <c r="C283" s="297"/>
+      <c r="B283" s="319"/>
+      <c r="C283" s="319"/>
       <c r="D283" s="188"/>
       <c r="E283" s="192"/>
       <c r="F283" s="146"/>
@@ -15052,8 +15052,8 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="195"/>
-      <c r="B284" s="297"/>
-      <c r="C284" s="297"/>
+      <c r="B284" s="319"/>
+      <c r="C284" s="319"/>
       <c r="D284" s="188"/>
       <c r="E284" s="192"/>
       <c r="F284" s="147"/>
@@ -15083,10 +15083,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="195"/>
-      <c r="B285" s="297"/>
-      <c r="C285" s="297"/>
+      <c r="B285" s="319"/>
+      <c r="C285" s="319"/>
       <c r="D285" s="212"/>
-      <c r="E285" s="295"/>
+      <c r="E285" s="311"/>
       <c r="F285" s="157"/>
       <c r="G285" s="157"/>
       <c r="H285" s="157"/>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="195"/>
-      <c r="B286" s="297"/>
-      <c r="C286" s="297"/>
+      <c r="B286" s="319"/>
+      <c r="C286" s="319"/>
       <c r="D286" s="235"/>
-      <c r="E286" s="295"/>
+      <c r="E286" s="311"/>
       <c r="F286" s="147"/>
       <c r="G286" s="147"/>
       <c r="H286" s="147"/>
@@ -15145,10 +15145,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
       <c r="A287" s="195"/>
-      <c r="B287" s="297"/>
-      <c r="C287" s="297"/>
+      <c r="B287" s="319"/>
+      <c r="C287" s="319"/>
       <c r="D287" s="235"/>
-      <c r="E287" s="295"/>
+      <c r="E287" s="311"/>
       <c r="F287" s="147"/>
       <c r="G287" s="147"/>
       <c r="H287" s="147"/>
@@ -15176,10 +15176,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
       <c r="A288" s="195"/>
-      <c r="B288" s="297"/>
-      <c r="C288" s="295"/>
+      <c r="B288" s="319"/>
+      <c r="C288" s="311"/>
       <c r="D288" s="173"/>
-      <c r="E288" s="295"/>
+      <c r="E288" s="311"/>
       <c r="F288" s="147"/>
       <c r="G288" s="147"/>
       <c r="H288" s="147"/>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="195"/>
-      <c r="B289" s="297"/>
+      <c r="B289" s="319"/>
       <c r="C289" s="188"/>
       <c r="D289" s="235"/>
       <c r="E289" s="235"/>
@@ -15238,10 +15238,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="195"/>
-      <c r="B290" s="297"/>
-      <c r="C290" s="295"/>
+      <c r="B290" s="319"/>
+      <c r="C290" s="311"/>
       <c r="D290" s="212"/>
-      <c r="E290" s="304"/>
+      <c r="E290" s="320"/>
       <c r="F290" s="157"/>
       <c r="G290" s="157"/>
       <c r="H290" s="157"/>
@@ -15269,10 +15269,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="195"/>
-      <c r="B291" s="297"/>
-      <c r="C291" s="297"/>
+      <c r="B291" s="319"/>
+      <c r="C291" s="319"/>
       <c r="D291" s="173"/>
-      <c r="E291" s="304"/>
+      <c r="E291" s="320"/>
       <c r="F291" s="157"/>
       <c r="G291" s="157"/>
       <c r="H291" s="157"/>
@@ -15300,10 +15300,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="195"/>
-      <c r="B292" s="297"/>
-      <c r="C292" s="297"/>
+      <c r="B292" s="319"/>
+      <c r="C292" s="319"/>
       <c r="D292" s="188"/>
-      <c r="E292" s="304"/>
+      <c r="E292" s="320"/>
       <c r="F292" s="157"/>
       <c r="G292" s="157"/>
       <c r="H292" s="157"/>
@@ -15331,10 +15331,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="195"/>
-      <c r="B293" s="297"/>
-      <c r="C293" s="295"/>
+      <c r="B293" s="319"/>
+      <c r="C293" s="311"/>
       <c r="D293" s="188"/>
-      <c r="E293" s="304"/>
+      <c r="E293" s="320"/>
       <c r="F293" s="157"/>
       <c r="G293" s="157"/>
       <c r="H293" s="157"/>
@@ -15362,7 +15362,7 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="195"/>
-      <c r="B294" s="297"/>
+      <c r="B294" s="319"/>
       <c r="C294" s="192"/>
       <c r="D294" s="192"/>
       <c r="E294" s="195"/>
@@ -15393,10 +15393,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="195"/>
-      <c r="B295" s="297"/>
-      <c r="C295" s="295"/>
+      <c r="B295" s="319"/>
+      <c r="C295" s="311"/>
       <c r="D295" s="212"/>
-      <c r="E295" s="295"/>
+      <c r="E295" s="311"/>
       <c r="F295" s="157"/>
       <c r="G295" s="157"/>
       <c r="H295" s="157"/>
@@ -15424,10 +15424,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="195"/>
-      <c r="B296" s="297"/>
-      <c r="C296" s="297"/>
+      <c r="B296" s="319"/>
+      <c r="C296" s="319"/>
       <c r="D296" s="235"/>
-      <c r="E296" s="295"/>
+      <c r="E296" s="311"/>
       <c r="F296" s="157"/>
       <c r="G296" s="157"/>
       <c r="H296" s="157"/>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="195"/>
-      <c r="B297" s="297"/>
-      <c r="C297" s="297"/>
+      <c r="B297" s="319"/>
+      <c r="C297" s="319"/>
       <c r="D297" s="235"/>
-      <c r="E297" s="295"/>
+      <c r="E297" s="311"/>
       <c r="F297" s="157"/>
       <c r="G297" s="157"/>
       <c r="H297" s="157"/>
@@ -15486,10 +15486,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="195"/>
-      <c r="B298" s="297"/>
-      <c r="C298" s="297"/>
+      <c r="B298" s="319"/>
+      <c r="C298" s="319"/>
       <c r="D298" s="235"/>
-      <c r="E298" s="295"/>
+      <c r="E298" s="311"/>
       <c r="F298" s="157"/>
       <c r="G298" s="157"/>
       <c r="H298" s="157"/>
@@ -15517,10 +15517,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="195"/>
-      <c r="B299" s="297"/>
-      <c r="C299" s="297"/>
+      <c r="B299" s="319"/>
+      <c r="C299" s="319"/>
       <c r="D299" s="235"/>
-      <c r="E299" s="295"/>
+      <c r="E299" s="311"/>
       <c r="F299" s="150"/>
       <c r="G299" s="150"/>
       <c r="H299" s="150"/>
@@ -15548,10 +15548,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="195"/>
-      <c r="B300" s="297"/>
-      <c r="C300" s="297"/>
+      <c r="B300" s="319"/>
+      <c r="C300" s="319"/>
       <c r="D300" s="173"/>
-      <c r="E300" s="295"/>
+      <c r="E300" s="311"/>
       <c r="F300" s="150"/>
       <c r="G300" s="150"/>
       <c r="H300" s="150"/>
@@ -15579,10 +15579,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="195"/>
-      <c r="B301" s="297"/>
-      <c r="C301" s="297"/>
+      <c r="B301" s="319"/>
+      <c r="C301" s="319"/>
       <c r="D301" s="212"/>
-      <c r="E301" s="295"/>
+      <c r="E301" s="311"/>
       <c r="F301" s="157"/>
       <c r="G301" s="157"/>
       <c r="H301" s="157"/>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="195"/>
-      <c r="B302" s="297"/>
-      <c r="C302" s="297"/>
+      <c r="B302" s="319"/>
+      <c r="C302" s="319"/>
       <c r="D302" s="235"/>
-      <c r="E302" s="295"/>
+      <c r="E302" s="311"/>
       <c r="F302" s="147"/>
       <c r="G302" s="147"/>
       <c r="H302" s="147"/>
@@ -15641,10 +15641,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1">
       <c r="A303" s="195"/>
-      <c r="B303" s="297"/>
-      <c r="C303" s="297"/>
+      <c r="B303" s="319"/>
+      <c r="C303" s="319"/>
       <c r="D303" s="235"/>
-      <c r="E303" s="295"/>
+      <c r="E303" s="311"/>
       <c r="F303" s="147"/>
       <c r="G303" s="147"/>
       <c r="H303" s="147"/>
@@ -15672,10 +15672,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="195"/>
-      <c r="B304" s="297"/>
-      <c r="C304" s="297"/>
+      <c r="B304" s="319"/>
+      <c r="C304" s="319"/>
       <c r="D304" s="173"/>
-      <c r="E304" s="295"/>
+      <c r="E304" s="311"/>
       <c r="F304" s="147"/>
       <c r="G304" s="147"/>
       <c r="H304" s="147"/>
@@ -17811,11 +17811,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D19:D46"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="B275:B304"/>
+    <mergeCell ref="C275:C288"/>
+    <mergeCell ref="C295:C304"/>
+    <mergeCell ref="D172:D180"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="E295:E300"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="E275:E282"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="K223:K225"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D160:D170"/>
     <mergeCell ref="M160:M167"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -17832,34 +17855,11 @@
     <mergeCell ref="D93:D102"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="D10:D17"/>
-    <mergeCell ref="K223:K225"/>
-    <mergeCell ref="L223:L225"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D160:D170"/>
-    <mergeCell ref="E295:E300"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="E275:E282"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="E290:E291"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="D19:D46"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="B275:B304"/>
-    <mergeCell ref="C275:C288"/>
-    <mergeCell ref="C295:C304"/>
-    <mergeCell ref="D172:D180"/>
-    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="K206:K211 K213:K214 K251 K265:K274 L81:L91 L93:L96 L98:L102 L104:L105 L107:L111 L113 L115:L372 L48:L52 L58:L79 L19:L46">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
@@ -18195,7 +18195,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="D2:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -18624,6 +18624,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J3:K6"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D20:E23"/>
+    <mergeCell ref="D3:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G3:H6"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="M20:N23"/>
     <mergeCell ref="M24:N25"/>
     <mergeCell ref="M26:N27"/>
@@ -18639,19 +18652,6 @@
     <mergeCell ref="J24:K25"/>
     <mergeCell ref="J26:K27"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J3:K6"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D20:E23"/>
-    <mergeCell ref="D3:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G3:H6"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J16" r:id="rId1"/>
